--- a/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15220" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-24960" yWindow="3820" windowWidth="25600" windowHeight="15220" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ida2015" sheetId="1" r:id="rId1"/>
-    <sheet name="IDA2016Graph" sheetId="4" r:id="rId2"/>
-    <sheet name="IDA2015Graph" sheetId="5" r:id="rId3"/>
-    <sheet name="IDA2016Graph2" sheetId="6" r:id="rId4"/>
-    <sheet name="ida2016" sheetId="2" r:id="rId5"/>
+    <sheet name="IDA2015Graph" sheetId="5" r:id="rId2"/>
+    <sheet name="ida2016" sheetId="2" r:id="rId3"/>
+    <sheet name="IDA2016Graph" sheetId="4" r:id="rId4"/>
+    <sheet name="IDA2016Graph3" sheetId="8" r:id="rId5"/>
     <sheet name="ida2015Flink" sheetId="3" r:id="rId6"/>
     <sheet name="withUnemplRateObserved" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -710,11 +710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086560088"/>
-        <c:axId val="2086567144"/>
+        <c:axId val="2102297416"/>
+        <c:axId val="2102299704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086560088"/>
+        <c:axId val="2102297416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086567144"/>
+        <c:crossAx val="2102299704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086567144"/>
+        <c:axId val="2102299704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086560088"/>
+        <c:crossAx val="2102297416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,11 +1062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084979416"/>
-        <c:axId val="2084976536"/>
+        <c:axId val="2102480760"/>
+        <c:axId val="2102477992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084979416"/>
+        <c:axId val="2102480760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084976536"/>
+        <c:crossAx val="2102477992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084976536"/>
+        <c:axId val="2102477992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,13 +1094,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084979416"/>
+        <c:crossAx val="2102480760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1143,261 +1144,261 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ida2016'!$C$1:$C$84</c:f>
+              <c:f>'ida2015'!$D$48:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>1818.79477124387</c:v>
+                  <c:v>2372.41437172793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1850.31590380866</c:v>
+                  <c:v>1615.20571963503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5286.77506807382</c:v>
+                  <c:v>3392.16502769283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59020.4534476918</c:v>
+                  <c:v>3703.13859855302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89608.6525088436</c:v>
+                  <c:v>3828.81946685368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95721.22953150541</c:v>
+                  <c:v>3988.40375315707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99663.5622411676</c:v>
+                  <c:v>4082.96829283384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101191.159041087</c:v>
+                  <c:v>4126.97961822896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115753.79581301</c:v>
+                  <c:v>4846.38064812796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103432.897087928</c:v>
+                  <c:v>4294.11206860795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107154.562764281</c:v>
+                  <c:v>4269.43727801853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110853.838781871</c:v>
+                  <c:v>4356.16718919735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111418.421449851</c:v>
+                  <c:v>4350.87836841498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110473.138973301</c:v>
+                  <c:v>4330.59438116778</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>126192.594766719</c:v>
+                  <c:v>5092.27773955047</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109348.255763064</c:v>
+                  <c:v>4412.83317839302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107855.995332707</c:v>
+                  <c:v>4327.62771125282</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108302.261595316</c:v>
+                  <c:v>4432.9145428868</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>107935.973978653</c:v>
+                  <c:v>4402.6298572019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105199.134415404</c:v>
+                  <c:v>4385.84779826794</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120755.225291673</c:v>
+                  <c:v>5207.65603655651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101133.777514831</c:v>
+                  <c:v>4448.74855522494</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>106362.945085002</c:v>
+                  <c:v>4455.72624755461</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112412.829727233</c:v>
+                  <c:v>4562.96828452503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>113149.033532555</c:v>
+                  <c:v>4485.08473847178</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>113846.484692123</c:v>
+                  <c:v>4489.97157036886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>130741.666175104</c:v>
+                  <c:v>5347.80935983648</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113694.80989283</c:v>
+                  <c:v>4577.23289785248</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115512.328326441</c:v>
+                  <c:v>4503.99639598618</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116819.287402765</c:v>
+                  <c:v>4628.54806350651</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>112681.16258783</c:v>
+                  <c:v>4566.91538029693</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110684.100367388</c:v>
+                  <c:v>4544.76243004434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>128751.633521769</c:v>
+                  <c:v>5473.46577182584</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>105335.691884228</c:v>
+                  <c:v>4634.34932840615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>111448.505260237</c:v>
+                  <c:v>4604.50349767024</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>120146.662265089</c:v>
+                  <c:v>4772.79076101849</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>120020.452113361</c:v>
+                  <c:v>4652.68327596632</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>122004.621460861</c:v>
+                  <c:v>4685.11858601232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>141046.844291322</c:v>
+                  <c:v>5586.02715075624</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>116542.660257366</c:v>
+                  <c:v>4714.92579379838</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>119762.993099366</c:v>
+                  <c:v>4728.90919254984</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>117945.751199062</c:v>
+                  <c:v>4810.66564528312</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>112375.439000338</c:v>
+                  <c:v>4691.90732729206</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>111654.683190201</c:v>
+                  <c:v>4725.66033890325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>132118.95992793</c:v>
+                  <c:v>5680.28653309161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>111713.388595001</c:v>
+                  <c:v>4808.84060341374</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>114987.977470973</c:v>
+                  <c:v>4768.38312974166</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>135245.509176717</c:v>
+                  <c:v>5716.24394001021</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>112486.644476485</c:v>
+                  <c:v>4783.61194089902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>120094.725617411</c:v>
+                  <c:v>4789.42667298383</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>140398.084472175</c:v>
+                  <c:v>5733.34608801486</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>116871.819455233</c:v>
+                  <c:v>4848.49253433322</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>118119.069084142</c:v>
+                  <c:v>4761.53321271724</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>133829.816814538</c:v>
+                  <c:v>5745.60827254274</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>108665.717434978</c:v>
+                  <c:v>4870.67844786203</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>111859.569521704</c:v>
+                  <c:v>4855.0890254204</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>131968.217857986</c:v>
+                  <c:v>5851.77936182761</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>109488.272591099</c:v>
+                  <c:v>4930.35064407189</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>116379.075279149</c:v>
+                  <c:v>4985.05600989755</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>137489.467062693</c:v>
+                  <c:v>5985.84478664743</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>114247.714065797</c:v>
+                  <c:v>4991.22394189275</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124459.150806158</c:v>
+                  <c:v>5009.42805219768</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143888.775322055</c:v>
+                  <c:v>6018.00208100256</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>120480.129660088</c:v>
+                  <c:v>5087.76672413486</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>120160.220288989</c:v>
+                  <c:v>4910.42711337323</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132449.168967208</c:v>
+                  <c:v>5902.86164950349</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>105869.524537013</c:v>
+                  <c:v>4871.54042854612</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>111726.633663875</c:v>
+                  <c:v>4861.1023329455</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>134110.28870834</c:v>
+                  <c:v>5945.83806578787</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>110540.076828062</c:v>
+                  <c:v>4917.18681931747</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>116098.87511558</c:v>
+                  <c:v>4858.48188160274</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>138405.336497433</c:v>
+                  <c:v>5940.96689837518</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>115339.962340435</c:v>
+                  <c:v>4901.4146027018</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>124843.461756744</c:v>
+                  <c:v>4897.24886840752</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>142989.930866199</c:v>
+                  <c:v>5917.61210034282</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>119646.349153171</c:v>
+                  <c:v>4910.7388096513</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>118855.878372846</c:v>
+                  <c:v>4746.98641104891</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>134351.332881843</c:v>
+                  <c:v>5811.21093089624</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>108750.719346197</c:v>
+                  <c:v>4768.28830734431</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111899.90879829</c:v>
+                  <c:v>4643.15565931788</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>137121.714073295</c:v>
+                  <c:v>5783.48210729794</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>110732.881548433</c:v>
+                  <c:v>4773.11071033681</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>114164.484266493</c:v>
+                  <c:v>4590.8106327454</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>140253.932327935</c:v>
+                  <c:v>5766.57037773593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,11 +1415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086593080"/>
-        <c:axId val="2086596024"/>
+        <c:axId val="2102371288"/>
+        <c:axId val="2102374248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086593080"/>
+        <c:axId val="2102371288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086596024"/>
+        <c:crossAx val="2102374248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1435,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086596024"/>
+        <c:axId val="2102374248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,13 +1447,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086593080"/>
+        <c:crossAx val="2102371288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1490,261 +1492,261 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ida2015'!$D$48:$D$131</c:f>
+              <c:f>'ida2016'!$C$1:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>2372.41437172793</c:v>
+                  <c:v>1818.79477124387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1615.20571963503</c:v>
+                  <c:v>1850.31590380866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3392.16502769283</c:v>
+                  <c:v>5286.77506807382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3703.13859855302</c:v>
+                  <c:v>59020.4534476918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3828.81946685368</c:v>
+                  <c:v>89608.6525088436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3988.40375315707</c:v>
+                  <c:v>95721.22953150541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4082.96829283384</c:v>
+                  <c:v>99663.5622411676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4126.97961822896</c:v>
+                  <c:v>101191.159041087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4846.38064812796</c:v>
+                  <c:v>115753.79581301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4294.11206860795</c:v>
+                  <c:v>103432.897087928</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4269.43727801853</c:v>
+                  <c:v>107154.562764281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4356.16718919735</c:v>
+                  <c:v>110853.838781871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4350.87836841498</c:v>
+                  <c:v>111418.421449851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4330.59438116778</c:v>
+                  <c:v>110473.138973301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5092.27773955047</c:v>
+                  <c:v>126192.594766719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4412.83317839302</c:v>
+                  <c:v>109348.255763064</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4327.62771125282</c:v>
+                  <c:v>107855.995332707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4432.9145428868</c:v>
+                  <c:v>108302.261595316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4402.6298572019</c:v>
+                  <c:v>107935.973978653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4385.84779826794</c:v>
+                  <c:v>105199.134415404</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5207.65603655651</c:v>
+                  <c:v>120755.225291673</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4448.74855522494</c:v>
+                  <c:v>101133.777514831</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4455.72624755461</c:v>
+                  <c:v>106362.945085002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4562.96828452503</c:v>
+                  <c:v>112412.829727233</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4485.08473847178</c:v>
+                  <c:v>113149.033532555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4489.97157036886</c:v>
+                  <c:v>113846.484692123</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5347.80935983648</c:v>
+                  <c:v>130741.666175104</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4577.23289785248</c:v>
+                  <c:v>113694.80989283</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4503.99639598618</c:v>
+                  <c:v>115512.328326441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4628.54806350651</c:v>
+                  <c:v>116819.287402765</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4566.91538029693</c:v>
+                  <c:v>112681.16258783</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4544.76243004434</c:v>
+                  <c:v>110684.100367388</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5473.46577182584</c:v>
+                  <c:v>128751.633521769</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4634.34932840615</c:v>
+                  <c:v>105335.691884228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4604.50349767024</c:v>
+                  <c:v>111448.505260237</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4772.79076101849</c:v>
+                  <c:v>120146.662265089</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4652.68327596632</c:v>
+                  <c:v>120020.452113361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4685.11858601232</c:v>
+                  <c:v>122004.621460861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5586.02715075624</c:v>
+                  <c:v>141046.844291322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4714.92579379838</c:v>
+                  <c:v>116542.660257366</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4728.90919254984</c:v>
+                  <c:v>119762.993099366</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4810.66564528312</c:v>
+                  <c:v>117945.751199062</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4691.90732729206</c:v>
+                  <c:v>112375.439000338</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4725.66033890325</c:v>
+                  <c:v>111654.683190201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5680.28653309161</c:v>
+                  <c:v>132118.95992793</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4808.84060341374</c:v>
+                  <c:v>111713.388595001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4768.38312974166</c:v>
+                  <c:v>114987.977470973</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5716.24394001021</c:v>
+                  <c:v>135245.509176717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4783.61194089902</c:v>
+                  <c:v>112486.644476485</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4789.42667298383</c:v>
+                  <c:v>120094.725617411</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5733.34608801486</c:v>
+                  <c:v>140398.084472175</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4848.49253433322</c:v>
+                  <c:v>116871.819455233</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4761.53321271724</c:v>
+                  <c:v>118119.069084142</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5745.60827254274</c:v>
+                  <c:v>133829.816814538</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4870.67844786203</c:v>
+                  <c:v>108665.717434978</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4855.0890254204</c:v>
+                  <c:v>111859.569521704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5851.77936182761</c:v>
+                  <c:v>131968.217857986</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4930.35064407189</c:v>
+                  <c:v>109488.272591099</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4985.05600989755</c:v>
+                  <c:v>116379.075279149</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5985.84478664743</c:v>
+                  <c:v>137489.467062693</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4991.22394189275</c:v>
+                  <c:v>114247.714065797</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5009.42805219768</c:v>
+                  <c:v>124459.150806158</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6018.00208100256</c:v>
+                  <c:v>143888.775322055</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5087.76672413486</c:v>
+                  <c:v>120480.129660088</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4910.42711337323</c:v>
+                  <c:v>120160.220288989</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5902.86164950349</c:v>
+                  <c:v>132449.168967208</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4871.54042854612</c:v>
+                  <c:v>105869.524537013</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4861.1023329455</c:v>
+                  <c:v>111726.633663875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5945.83806578787</c:v>
+                  <c:v>134110.28870834</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4917.18681931747</c:v>
+                  <c:v>110540.076828062</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4858.48188160274</c:v>
+                  <c:v>116098.87511558</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5940.96689837518</c:v>
+                  <c:v>138405.336497433</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4901.4146027018</c:v>
+                  <c:v>115339.962340435</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4897.24886840752</c:v>
+                  <c:v>124843.461756744</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5917.61210034282</c:v>
+                  <c:v>142989.930866199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4910.7388096513</c:v>
+                  <c:v>119646.349153171</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4746.98641104891</c:v>
+                  <c:v>118855.878372846</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5811.21093089624</c:v>
+                  <c:v>134351.332881843</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4768.28830734431</c:v>
+                  <c:v>108750.719346197</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4643.15565931788</c:v>
+                  <c:v>111899.90879829</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5783.48210729794</c:v>
+                  <c:v>137121.714073295</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4773.11071033681</c:v>
+                  <c:v>110732.881548433</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4590.8106327454</c:v>
+                  <c:v>114164.484266493</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5766.57037773593</c:v>
+                  <c:v>140253.932327935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,11 +1763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087575000"/>
-        <c:axId val="2087577944"/>
+        <c:axId val="2102457144"/>
+        <c:axId val="2102447640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087575000"/>
+        <c:axId val="2102457144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087577944"/>
+        <c:crossAx val="2102447640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087577944"/>
+        <c:axId val="2102447640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,13 +1795,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087575000"/>
+        <c:crossAx val="2102457144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1842,256 +1845,256 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>2497.5371672494</c:v>
+                  <c:v>3694.73242330382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2497.53644621912</c:v>
+                  <c:v>3694.73025188993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2855.9440395076</c:v>
+                  <c:v>4316.38231749845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2556.62096081432</c:v>
+                  <c:v>3905.14116358461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2515.11402690578</c:v>
+                  <c:v>3915.55114595715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2564.81202017955</c:v>
+                  <c:v>3958.43082156821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2574.87204112369</c:v>
+                  <c:v>3969.41129911485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2567.15498556349</c:v>
+                  <c:v>3940.92441820192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2982.24989868937</c:v>
+                  <c:v>4572.20584801856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2628.90071606881</c:v>
+                  <c:v>4043.23722966063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2607.65482486835</c:v>
+                  <c:v>4005.83624804577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2651.78010706725</c:v>
+                  <c:v>4080.53888350047</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2647.044726449</c:v>
+                  <c:v>4068.62808322256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2629.80205863623</c:v>
+                  <c:v>4040.98509108163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3071.55684724052</c:v>
+                  <c:v>4774.52038649584</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2679.39974772223</c:v>
+                  <c:v>4132.16726490867</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2623.30027752941</c:v>
+                  <c:v>4031.81141652371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2685.20766524631</c:v>
+                  <c:v>4118.04653319796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2660.78002483232</c:v>
+                  <c:v>4090.11017591735</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2651.9006135448</c:v>
+                  <c:v>4058.40144368752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3149.63013364279</c:v>
+                  <c:v>4806.7171298289</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2684.79761365984</c:v>
+                  <c:v>4110.32767297832</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2684.74370171564</c:v>
+                  <c:v>4113.92782451127</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2726.42197521328</c:v>
+                  <c:v>4243.35724247235</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2703.68652210852</c:v>
+                  <c:v>4163.16953172455</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2696.07084215996</c:v>
+                  <c:v>4151.32243979684</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3183.65134967142</c:v>
+                  <c:v>5134.67027943883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2756.45001541488</c:v>
+                  <c:v>4388.42603907284</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2707.97053484986</c:v>
+                  <c:v>4270.94918491334</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2791.36362822457</c:v>
+                  <c:v>4361.06887193296</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2735.99161415186</c:v>
+                  <c:v>4332.36491630849</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2743.86412930697</c:v>
+                  <c:v>4277.09270577536</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3303.58185856268</c:v>
+                  <c:v>5120.80274576884</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2790.63570592974</c:v>
+                  <c:v>4344.64078788819</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2768.14820829593</c:v>
+                  <c:v>4316.41299223904</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2863.2962402997</c:v>
+                  <c:v>4478.89780353147</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2786.81744287121</c:v>
+                  <c:v>4366.04803674069</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2796.11411218845</c:v>
+                  <c:v>4404.2353408517</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3353.72648124652</c:v>
+                  <c:v>5213.46503371425</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2818.57092586041</c:v>
+                  <c:v>4414.43556730634</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2831.00052968684</c:v>
+                  <c:v>4406.09349408162</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2883.71316376713</c:v>
+                  <c:v>4469.72177437288</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2811.01832224281</c:v>
+                  <c:v>4354.26323607578</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2834.87834893747</c:v>
+                  <c:v>4375.28425106168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3410.73580905305</c:v>
+                  <c:v>5247.32338077229</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2876.13915676634</c:v>
+                  <c:v>4455.5793526488</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2850.60539289792</c:v>
+                  <c:v>4409.78378193964</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3426.42369777721</c:v>
+                  <c:v>5268.21666609706</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2853.56766417696</c:v>
+                  <c:v>4423.26806786782</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2851.45446268313</c:v>
+                  <c:v>4421.91562048454</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3427.5062493344</c:v>
+                  <c:v>5274.19221463961</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2885.17840276367</c:v>
+                  <c:v>4472.84497445405</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2831.75107773306</c:v>
+                  <c:v>4389.60185808331</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3445.9981788582</c:v>
+                  <c:v>5265.83555772737</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2911.37722517424</c:v>
+                  <c:v>4469.86600437877</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2902.6737426768</c:v>
+                  <c:v>4448.42344797993</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3507.75967541125</c:v>
+                  <c:v>5349.99704458349</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2939.22199458626</c:v>
+                  <c:v>4522.98523114456</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2971.49379495584</c:v>
+                  <c:v>4564.9437641583</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3578.65766230349</c:v>
+                  <c:v>5468.27816608183</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2967.59906496881</c:v>
+                  <c:v>4567.75168507383</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2968.82541253418</c:v>
+                  <c:v>4580.78268094148</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3588.96478182133</c:v>
+                  <c:v>5487.51382850574</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3015.4108225321</c:v>
+                  <c:v>4649.27308546246</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2913.24956507144</c:v>
+                  <c:v>4478.00706944585</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3534.43015459188</c:v>
+                  <c:v>5467.68211724921</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2921.80885981069</c:v>
+                  <c:v>4485.97797338171</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2897.49201532769</c:v>
+                  <c:v>4448.65897758051</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3557.22102929443</c:v>
+                  <c:v>5428.65275547064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2923.9607079456</c:v>
+                  <c:v>4499.70504676561</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2884.59461600063</c:v>
+                  <c:v>4439.80469800153</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3544.22007752752</c:v>
+                  <c:v>5417.40330409512</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2892.82098957831</c:v>
+                  <c:v>4484.97994538726</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2888.94913803173</c:v>
+                  <c:v>4471.58387179044</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3522.23063352639</c:v>
+                  <c:v>5388.38483161215</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2890.1184869681</c:v>
+                  <c:v>4482.89054860485</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2807.34622276896</c:v>
+                  <c:v>4321.41971278417</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3471.12141662334</c:v>
+                  <c:v>5280.06829455217</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2822.89732428693</c:v>
+                  <c:v>4341.09613765262</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2750.080002862</c:v>
+                  <c:v>4220.30202982271</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3435.09735936574</c:v>
+                  <c:v>5270.2685284654</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2823.21933945728</c:v>
+                  <c:v>4341.41473722932</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2706.56797844692</c:v>
+                  <c:v>4168.51936352336</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3422.29224931283</c:v>
+                  <c:v>5245.25088421077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2108,11 +2111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084957368"/>
-        <c:axId val="2084947288"/>
+        <c:axId val="2114535704"/>
+        <c:axId val="-2139793624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084957368"/>
+        <c:axId val="2114535704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084947288"/>
+        <c:crossAx val="-2139793624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084947288"/>
+        <c:axId val="-2139793624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,13 +2143,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084957368"/>
+        <c:crossAx val="2114535704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2182,197 +2186,523 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ida2015Flink!$A$1:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>E(H_0) =</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E(H_1) =</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E(H_2) =</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E(H_3) =</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E(H_4) =</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E(H_5) =</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E(H_6) =</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E(H_7) =</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>E(H_8) =</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E(H_9) =</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>E(H_10) =</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>E(H_11) =</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>E(H_12) =</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>E(H_13) =</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E(H_14) =</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>E(H_15) =</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>E(H_16) =</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>E(H_17) =</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>E(H_18) =</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>E(H_19) =</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>E(H_20) =</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>E(H_21) =</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>E(H_22) =</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>E(H_23) =</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>E(H_24) =</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>E(H_25) =</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>E(H_26) =</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>E(H_27) =</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>E(H_28) =</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>E(H_29) =</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>E(H_30) =</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>E(H_31) =</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>E(H_32) =</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>E(H_33) =</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>E(H_34) =</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>E(H_35) =</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>E(H_36) =</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>E(H_37) =</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>E(H_38) =</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>E(H_39) =</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>E(H_40) =</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>E(H_41) =</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>E(H_42) =</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>E(H_43) =</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>E(H_44) =</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>E(H_45) =</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>E(H_46) =</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>E(H_47) =</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>E(H_48) =</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>E(H_49) =</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>E(H_50) =</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>E(H_51) =</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>E(H_52) =</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>E(H_53) =</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>E(H_54) =</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>E(H_55) =</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>E(H_56) =</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>E(H_57) =</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>E(H_58) =</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>E(H_59) =</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>E(H_60) =</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>E(H_61) =</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>E(H_62) =</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>E(H_63) =</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>E(H_64) =</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>E(H_65) =</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>E(H_66) =</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>E(H_67) =</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>E(H_68) =</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>E(H_69) =</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>E(H_70) =</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>E(H_71) =</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>E(H_72) =</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>E(H_73) =</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>E(H_74) =</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>E(H_75) =</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>E(H_76) =</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>E(H_77) =</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>E(H_78) =</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>E(H_79) =</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>E(H_80) =</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>E(H_81) =</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>E(H_82) =</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>E(H_83) =</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ida2016'!$C$23:$C$84</c:f>
+              <c:f>ida2015Flink!$B$1:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>106362.945085002</c:v>
+                  <c:v>-0.00421983176604987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112412.829727233</c:v>
+                  <c:v>-0.00425801076307088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113149.033532555</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113846.484692123</c:v>
+                  <c:v>-0.00227344135729876</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-0.000330941141468853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130741.666175104</c:v>
+                  <c:v>-0.00956271092457315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113694.80989283</c:v>
+                  <c:v>0.536472247605607</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115512.328326441</c:v>
+                  <c:v>0.267087231577649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116819.287402765</c:v>
+                  <c:v>0.140228094320164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112681.16258783</c:v>
+                  <c:v>0.068694814162716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110684.100367388</c:v>
+                  <c:v>0.0851091566716434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128751.633521769</c:v>
+                  <c:v>0.0944398797730215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105335.691884228</c:v>
+                  <c:v>0.0754974354455245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111448.505260237</c:v>
+                  <c:v>0.0879162327846903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120146.662265089</c:v>
+                  <c:v>0.0620579170195438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120020.452113361</c:v>
+                  <c:v>0.103051137413763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>122004.621460861</c:v>
+                  <c:v>0.063293680018386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>141046.844291322</c:v>
+                  <c:v>0.0738416729811384</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116542.660257366</c:v>
+                  <c:v>0.05603814745811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119762.993099366</c:v>
+                  <c:v>0.1251713892113</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117945.751199062</c:v>
+                  <c:v>0.0965162247783523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112375.439000338</c:v>
+                  <c:v>0.0510299226257674</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111654.683190201</c:v>
+                  <c:v>0.051167831694623</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>132118.95992793</c:v>
+                  <c:v>0.0612836591096717</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111713.388595001</c:v>
+                  <c:v>0.0121818566979572</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114987.977470973</c:v>
+                  <c:v>0.034834940442398</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>135245.509176717</c:v>
+                  <c:v>0.0347618797547452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112486.644476485</c:v>
+                  <c:v>-0.133641381759108</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>120094.725617411</c:v>
+                  <c:v>1.33755181331639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140398.084472175</c:v>
+                  <c:v>0.337493618461111</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116871.819455233</c:v>
+                  <c:v>0.249657011887562</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118119.069084142</c:v>
+                  <c:v>0.168394868815059</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>133829.816814538</c:v>
+                  <c:v>0.236630862337091</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>108665.717434978</c:v>
+                  <c:v>0.24377325863327</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>111859.569521704</c:v>
+                  <c:v>0.246684475314792</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>131968.217857986</c:v>
+                  <c:v>0.247585598837991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>109488.272591099</c:v>
+                  <c:v>0.27712057247581</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>116379.075279149</c:v>
+                  <c:v>0.247008585359565</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>137489.467062693</c:v>
+                  <c:v>0.228370778626095</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>114247.714065797</c:v>
+                  <c:v>0.250744911633183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>124459.150806158</c:v>
+                  <c:v>0.255151868986784</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>143888.775322055</c:v>
+                  <c:v>0.255531043810312</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>120480.129660088</c:v>
+                  <c:v>0.247839635855575</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>120160.220288989</c:v>
+                  <c:v>0.319177294934337</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>132449.168967208</c:v>
+                  <c:v>0.245174013884323</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>105869.524537013</c:v>
+                  <c:v>0.24419736314217</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>111726.633663875</c:v>
+                  <c:v>0.248755396207234</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>134110.28870834</c:v>
+                  <c:v>0.325809015044034</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110540.076828062</c:v>
+                  <c:v>0.252578397753399</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>116098.87511558</c:v>
+                  <c:v>0.252221905114385</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>138405.336497433</c:v>
+                  <c:v>0.187165144093251</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>115339.962340435</c:v>
+                  <c:v>0.249536411593506</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>124843.461756744</c:v>
+                  <c:v>0.269221564436324</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>142989.930866199</c:v>
+                  <c:v>0.246983602470969</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>119646.349153171</c:v>
+                  <c:v>0.239206486581897</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>118855.878372846</c:v>
+                  <c:v>0.258809083289924</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134351.332881843</c:v>
+                  <c:v>0.263211109365905</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>108750.719346197</c:v>
+                  <c:v>0.276876747408424</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>111899.90879829</c:v>
+                  <c:v>0.257868870237512</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>137121.714073295</c:v>
+                  <c:v>0.468381072821059</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>110732.881548433</c:v>
+                  <c:v>0.351470572139124</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>114164.484266493</c:v>
+                  <c:v>0.338706623911089</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>140253.932327935</c:v>
+                  <c:v>0.3662958248492</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.291793131483319</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.299595645378126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.314199729433445</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.229664468894208</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.304387086126505</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.368207167565749</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.362300751855549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29730360197976</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.337371284068547</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.327953148359673</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.622437799489552</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.356403633475168</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.336446766349199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.372632965183723</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.362719041309969</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.355908850434521</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.352420815352954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.43931118056568</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.477907702327486</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.379786024663778</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.404560222358563</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.369866891238504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,11 +2719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086574920"/>
-        <c:axId val="2086586376"/>
+        <c:axId val="2054310104"/>
+        <c:axId val="2054307144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086574920"/>
+        <c:axId val="2054310104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086586376"/>
+        <c:crossAx val="2054307144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2410,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086586376"/>
+        <c:axId val="2054307144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086574920"/>
+        <c:crossAx val="2054310104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,523 +2799,263 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ida2015Flink!$A$1:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>E(H_0) =</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E(H_1) =</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>E(H_2) =</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>E(H_3) =</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E(H_4) =</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>E(H_5) =</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>E(H_6) =</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>E(H_7) =</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>E(H_8) =</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>E(H_9) =</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>E(H_10) =</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>E(H_11) =</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>E(H_12) =</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>E(H_13) =</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>E(H_14) =</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>E(H_15) =</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>E(H_16) =</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>E(H_17) =</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>E(H_18) =</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>E(H_19) =</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>E(H_20) =</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>E(H_21) =</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>E(H_22) =</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>E(H_23) =</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>E(H_24) =</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>E(H_25) =</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>E(H_26) =</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>E(H_27) =</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>E(H_28) =</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>E(H_29) =</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>E(H_30) =</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>E(H_31) =</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>E(H_32) =</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>E(H_33) =</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>E(H_34) =</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>E(H_35) =</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>E(H_36) =</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>E(H_37) =</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>E(H_38) =</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>E(H_39) =</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>E(H_40) =</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>E(H_41) =</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>E(H_42) =</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>E(H_43) =</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>E(H_44) =</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>E(H_45) =</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>E(H_46) =</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>E(H_47) =</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>E(H_48) =</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>E(H_49) =</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>E(H_50) =</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>E(H_51) =</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>E(H_52) =</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>E(H_53) =</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>E(H_54) =</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>E(H_55) =</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>E(H_56) =</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>E(H_57) =</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>E(H_58) =</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>E(H_59) =</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>E(H_60) =</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>E(H_61) =</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>E(H_62) =</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>E(H_63) =</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>E(H_64) =</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>E(H_65) =</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>E(H_66) =</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>E(H_67) =</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>E(H_68) =</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>E(H_69) =</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>E(H_70) =</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>E(H_71) =</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>E(H_72) =</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>E(H_73) =</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>E(H_74) =</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>E(H_75) =</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>E(H_76) =</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>E(H_77) =</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>E(H_78) =</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>E(H_79) =</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>E(H_80) =</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>E(H_81) =</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>E(H_82) =</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>E(H_83) =</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ida2015Flink!$B$1:$B$84</c:f>
+              <c:f>ida2015Flink!$D$1:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>-0.00421983176604987</c:v>
+                  <c:v>10.7198095925643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.00425801076307088</c:v>
+                  <c:v>10.7198098499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.00227344135729876</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>-0.000330941141468853</c:v>
+                  <c:v>10.719809616695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7562118818934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.00956271092457315</c:v>
+                  <c:v>10.73561891691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.536472247605607</c:v>
+                  <c:v>10.7368612771153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.267087231577649</c:v>
+                  <c:v>10.7500171943976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.140228094320164</c:v>
+                  <c:v>10.761366481264</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.068694814162716</c:v>
+                  <c:v>10.7501839771692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0851091566716434</c:v>
+                  <c:v>10.7549547808762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0944398797730215</c:v>
+                  <c:v>10.7563273811117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0754974354455245</c:v>
+                  <c:v>10.7507524858378</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0879162327846903</c:v>
+                  <c:v>10.7559500846097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0620579170195438</c:v>
+                  <c:v>10.7525875265956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.103051137413763</c:v>
+                  <c:v>10.720149757356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.063293680018386</c:v>
+                  <c:v>10.7578197117801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0738416729811384</c:v>
+                  <c:v>10.7524446168696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05603814745811</c:v>
+                  <c:v>10.7541966868308</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1251713892113</c:v>
+                  <c:v>10.7447759745294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0965162247783523</c:v>
+                  <c:v>10.7468260282514</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0510299226257674</c:v>
+                  <c:v>10.7504442629308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.051167831694623</c:v>
+                  <c:v>10.7516262644414</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0612836591096717</c:v>
+                  <c:v>10.7501584040181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0121818566979572</c:v>
+                  <c:v>10.7294521599576</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.034834940442398</c:v>
+                  <c:v>10.7570286575901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0347618797547452</c:v>
+                  <c:v>10.7568662927443</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.133641381759108</c:v>
+                  <c:v>10.6919529455225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.33755181331639</c:v>
+                  <c:v>10.7249686774748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.337493618461111</c:v>
+                  <c:v>10.7608173253881</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.249657011887562</c:v>
+                  <c:v>10.7706052122104</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.168394868815059</c:v>
+                  <c:v>10.7415432583234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.236630862337091</c:v>
+                  <c:v>10.7680737933231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24377325863327</c:v>
+                  <c:v>10.7645769622068</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.246684475314792</c:v>
+                  <c:v>10.7674318256841</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.247585598837991</c:v>
+                  <c:v>10.7685354140072</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.27712057247581</c:v>
+                  <c:v>10.7693378712831</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.247008585359565</c:v>
+                  <c:v>10.7727858045011</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.228370778626095</c:v>
+                  <c:v>10.7617644020761</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.250744911633183</c:v>
+                  <c:v>10.7672421025008</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.255151868986784</c:v>
+                  <c:v>10.7726448335428</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.255531043810312</c:v>
+                  <c:v>10.7678524957002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.247839635855575</c:v>
+                  <c:v>10.7648342124085</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.319177294934337</c:v>
+                  <c:v>10.7536343067944</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.245174013884323</c:v>
+                  <c:v>10.76133546086</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.24419736314217</c:v>
+                  <c:v>10.7593412464857</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.248755396207234</c:v>
+                  <c:v>10.7642110541517</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.325809015044034</c:v>
+                  <c:v>10.7568347460062</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.252578397753399</c:v>
+                  <c:v>10.7589616911184</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.252221905114385</c:v>
+                  <c:v>10.7650370939588</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.187165144093251</c:v>
+                  <c:v>10.760829782234</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.249536411593506</c:v>
+                  <c:v>10.7596520352422</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.269221564436324</c:v>
+                  <c:v>10.7645707175563</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.246983602470969</c:v>
+                  <c:v>10.7542352141069</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.239206486581897</c:v>
+                  <c:v>10.7532946580902</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.258809083289924</c:v>
+                  <c:v>10.7572250936309</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.263211109365905</c:v>
+                  <c:v>10.7559353344432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.276876747408424</c:v>
+                  <c:v>10.7513091096714</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.257868870237512</c:v>
+                  <c:v>10.7510901197016</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.468381072821059</c:v>
+                  <c:v>10.7449679604626</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.351470572139124</c:v>
+                  <c:v>10.7492737896069</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.338706623911089</c:v>
+                  <c:v>10.7563948301864</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3662958248492</c:v>
+                  <c:v>10.7570329927257</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.291793131483319</c:v>
+                  <c:v>10.755242685377</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.299595645378126</c:v>
+                  <c:v>10.7590800540441</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.314199729433445</c:v>
+                  <c:v>10.7577860833338</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.229664468894208</c:v>
+                  <c:v>10.71648627337</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.304387086126505</c:v>
+                  <c:v>10.7578828587958</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.368207167565749</c:v>
+                  <c:v>10.7541618448124</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.362300751855549</c:v>
+                  <c:v>10.7507557057633</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.29730360197976</c:v>
+                  <c:v>10.761101964396</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.337371284068547</c:v>
+                  <c:v>10.7595857251838</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.327953148359673</c:v>
+                  <c:v>10.7550181029087</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.622437799489552</c:v>
+                  <c:v>10.7483456028374</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.356403633475168</c:v>
+                  <c:v>10.7665134910672</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.336446766349199</c:v>
+                  <c:v>10.757362942002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.372632965183723</c:v>
+                  <c:v>10.7667393507031</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.362719041309969</c:v>
+                  <c:v>10.7606445024821</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.355908850434521</c:v>
+                  <c:v>10.7513078905821</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.352420815352954</c:v>
+                  <c:v>10.7612557664562</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.43931118056568</c:v>
+                  <c:v>10.7542000426574</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.477907702327486</c:v>
+                  <c:v>10.7391200102734</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.379786024663778</c:v>
+                  <c:v>10.7613622744639</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.404560222358563</c:v>
+                  <c:v>10.7611118556196</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.369866891238504</c:v>
+                  <c:v>10.7474938181143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,11 +3072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084883752"/>
-        <c:axId val="2084880792"/>
+        <c:axId val="2054282328"/>
+        <c:axId val="2054279640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084883752"/>
+        <c:axId val="2054282328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084880792"/>
+        <c:crossAx val="2054279640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3023,7 +3093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084880792"/>
+        <c:axId val="2054279640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084883752"/>
+        <c:crossAx val="2054282328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3084,261 +3154,258 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>ida2015Flink!$D$1:$D$84</c:f>
+              <c:f>withUnemplRateObserved!$C$1:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>10.7198095925643</c:v>
+                  <c:v>3725.88314900197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.7198098499999</c:v>
+                  <c:v>3725.89250120852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.719809616695</c:v>
+                  <c:v>4400.71939631046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7562118818934</c:v>
+                  <c:v>4041.85111196139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.73561891691</c:v>
+                  <c:v>3977.01753281747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.7368612771153</c:v>
+                  <c:v>4198.16108367076</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.7500171943976</c:v>
+                  <c:v>4214.72542118552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.761366481264</c:v>
+                  <c:v>4144.01158251411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.7501839771692</c:v>
+                  <c:v>4797.17460007536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.7549547808762</c:v>
+                  <c:v>4258.31975480517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.7563273811117</c:v>
+                  <c:v>4214.05126407202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.7507524858378</c:v>
+                  <c:v>4309.3284046932</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.7559500846097</c:v>
+                  <c:v>4284.39878664705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.7525875265956</c:v>
+                  <c:v>4255.23131266102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.720149757356</c:v>
+                  <c:v>4988.96130094833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.7578197117801</c:v>
+                  <c:v>4363.87660392262</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.7524446168696</c:v>
+                  <c:v>4250.76133416055</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.7541966868308</c:v>
+                  <c:v>4323.99197791217</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.7447759745294</c:v>
+                  <c:v>4336.74406177185</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.7468260282514</c:v>
+                  <c:v>4281.14370771661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.7504442629308</c:v>
+                  <c:v>5040.03396070909</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.7516262644414</c:v>
+                  <c:v>4323.90265980392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.7501584040181</c:v>
+                  <c:v>4345.35097909005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.7294521599576</c:v>
+                  <c:v>4416.97648459526</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.7570286575901</c:v>
+                  <c:v>4395.10999915062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.7568662927443</c:v>
+                  <c:v>4382.53920715789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.6919529455225</c:v>
+                  <c:v>5124.29210336257</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.7249686774748</c:v>
+                  <c:v>4896.23410756647</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.7608173253881</c:v>
+                  <c:v>4659.66430010356</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.7706052122104</c:v>
+                  <c:v>4773.17789942186</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.7415432583234</c:v>
+                  <c:v>4639.25048067069</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.7680737933231</c:v>
+                  <c:v>4648.67817722821</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.7645769622068</c:v>
+                  <c:v>5524.30218376842</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.7674318256841</c:v>
+                  <c:v>4714.02271060908</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.7685354140072</c:v>
+                  <c:v>4693.66673775213</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.7693378712831</c:v>
+                  <c:v>4898.95581048953</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.7727858045011</c:v>
+                  <c:v>4778.27944633698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.7617644020761</c:v>
+                  <c:v>4782.61632193142</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.7672421025008</c:v>
+                  <c:v>5644.83949894361</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.7726448335428</c:v>
+                  <c:v>4826.61687036336</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.7678524957002</c:v>
+                  <c:v>4778.39416705253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.7648342124085</c:v>
+                  <c:v>4820.71842677897</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.7536343067944</c:v>
+                  <c:v>4734.3769846949</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.76133546086</c:v>
+                  <c:v>4706.7448758225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.7593412464857</c:v>
+                  <c:v>5619.79781996368</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.7642110541517</c:v>
+                  <c:v>4819.2510926942</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10.7568347460062</c:v>
+                  <c:v>4784.21293640808</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.7589616911184</c:v>
+                  <c:v>5644.30603176369</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.7650370939588</c:v>
+                  <c:v>4794.48243949468</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.760829782234</c:v>
+                  <c:v>4798.9647724515</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.7596520352422</c:v>
+                  <c:v>5658.5114680776</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.7645707175563</c:v>
+                  <c:v>4852.73540301032</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.7542352141069</c:v>
+                  <c:v>4707.22922693011</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.7532946580902</c:v>
+                  <c:v>5591.23926965294</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.7572250936309</c:v>
+                  <c:v>4779.49489716019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.7559353344432</c:v>
+                  <c:v>4743.97272167656</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.7513091096714</c:v>
+                  <c:v>5670.06523480234</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.7510901197016</c:v>
+                  <c:v>4813.17055031031</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.7449679604626</c:v>
+                  <c:v>4934.14433712407</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.7492737896069</c:v>
+                  <c:v>5849.74321479961</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.7563948301864</c:v>
+                  <c:v>4939.50789450356</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.7570329927257</c:v>
+                  <c:v>4980.94494219129</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.755242685377</c:v>
+                  <c:v>5863.76091420134</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.7590800540441</c:v>
+                  <c:v>5026.2282161644</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.7577860833338</c:v>
+                  <c:v>4830.78975293069</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.71648627337</c:v>
+                  <c:v>5628.55674241922</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.7578828587958</c:v>
+                  <c:v>4794.88468246875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.7541618448124</c:v>
+                  <c:v>4768.27644620319</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.7507557057633</c:v>
+                  <c:v>5768.61738805403</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.761101964396</c:v>
+                  <c:v>4827.1597067861</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.7595857251838</c:v>
+                  <c:v>4769.94279271094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.7550181029087</c:v>
+                  <c:v>5761.3516367361</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.7483456028374</c:v>
+                  <c:v>4936.60182416066</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.7665134910672</c:v>
+                  <c:v>4858.45880112004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.757362942002</c:v>
+                  <c:v>5753.05369069636</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.7667393507031</c:v>
+                  <c:v>4892.11105453774</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.7606445024821</c:v>
+                  <c:v>4662.23988657354</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.7513078905821</c:v>
+                  <c:v>5593.12288693434</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.7612557664562</c:v>
+                  <c:v>4672.79947170339</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.7542000426574</c:v>
+                  <c:v>4545.56093023288</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.7391200102734</c:v>
+                  <c:v>5616.89308773079</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.7613622744639</c:v>
+                  <c:v>4680.97836465979</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.7611118556196</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10.7474938181143</c:v>
+                  <c:v>4511.15613681332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,11 +3422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084856024"/>
-        <c:axId val="2084853208"/>
+        <c:axId val="-2120911576"/>
+        <c:axId val="2115422152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084856024"/>
+        <c:axId val="-2120911576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +3435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084853208"/>
+        <c:crossAx val="2115422152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3376,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084853208"/>
+        <c:axId val="2115422152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,357 +3454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084856024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>withUnemplRateObserved!$C$1:$C$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>3778.15621696238</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3778.15622961723</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4344.77864755881</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3871.25314119066</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3840.83310918146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3880.75340667022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3895.11143803839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3887.0429175727</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4524.58982384387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3983.95876210403</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3946.59854722402</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4018.3452723623</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4006.25199650701</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3982.87323278304</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4683.41222178256</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4056.0633897917</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3968.84203213558</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4063.45348855543</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4024.03541539838</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4011.35639904746</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4765.41414508263</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4061.75597039361</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4060.9017389824</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4159.78492248872</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4090.70291908878</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4078.96584624948</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4948.18000049181</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4157.89809995897</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4113.67116309456</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4222.45993401297</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4178.58162789918</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4149.61386990677</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4995.17539705856</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4219.67443791195</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4185.57871819925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4328.81017599515</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4213.41508979221</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4243.3443233191</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5069.40373876553</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4260.75625965406</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4278.85617408073</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4357.89652347079</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4244.71373972652</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4283.54477155449</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5153.5131396248</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4346.04268680535</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4305.54967746415</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5176.61593580239</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4311.41130441275</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4311.86161115292</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5177.67967221608</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4358.52479923335</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4288.95365224893</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5206.02762642483</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4397.40346972094</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4384.02686994035</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5297.29443730397</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4447.55954165744</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4484.47282966205</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5402.60120754398</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4480.65484925102</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4482.03026293512</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5419.19653090787</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4555.23198699726</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4398.38879996029</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5402.96414128938</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4409.64299764307</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4371.89937023048</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5367.40663736159</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4412.346746474</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4352.61227444024</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5347.83803513086</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4360.85469959009</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4359.14506456702</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5314.63844251878</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4360.19256838348</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4235.34555071009</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5237.07056143094</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4258.92268425292</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4147.90852806193</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5195.42359826645</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4259.07809029899</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4082.5264502486</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2095251368"/>
-        <c:axId val="2095054856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2095251368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095054856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2095054856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095251368"/>
+        <c:crossAx val="-2120911576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,7 +3480,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3774,7 +3491,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3785,7 +3502,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3861,7 +3578,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9204786" cy="5611880"/>
+    <xdr:ext cx="9207500" cy="5612581"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3888,7 +3605,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9204786" cy="5611880"/>
+    <xdr:ext cx="9207500" cy="5612581"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3915,7 +3632,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9218839" cy="5624286"/>
+    <xdr:ext cx="9207500" cy="5612581"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3939,41 +3656,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4038,24 +3720,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4397,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX131"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D131"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E89" sqref="E48:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13954,11 +13636,8 @@
       <c r="D48">
         <v>2372.4143717279298</v>
       </c>
-      <c r="E48">
-        <v>2372.4143717279298</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49">
         <v>1</v>
       </c>
@@ -13968,11 +13647,8 @@
       <c r="D49">
         <v>1615.2057196350299</v>
       </c>
-      <c r="E49">
-        <v>1615.2057196350299</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50">
         <v>2</v>
       </c>
@@ -13982,11 +13658,8 @@
       <c r="D50">
         <v>3392.1650276928299</v>
       </c>
-      <c r="E50">
-        <v>3392.1650276928299</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+    </row>
+    <row r="51" spans="2:4">
       <c r="B51">
         <v>3</v>
       </c>
@@ -13996,11 +13669,8 @@
       <c r="D51">
         <v>3703.1385985530201</v>
       </c>
-      <c r="E51">
-        <v>3703.1385985530201</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52">
         <v>4</v>
       </c>
@@ -14010,11 +13680,8 @@
       <c r="D52">
         <v>3828.8194668536798</v>
       </c>
-      <c r="E52">
-        <v>3828.8194668536798</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53">
         <v>5</v>
       </c>
@@ -14024,11 +13691,8 @@
       <c r="D53">
         <v>3988.4037531570698</v>
       </c>
-      <c r="E53">
-        <v>3988.4037531570698</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+    </row>
+    <row r="54" spans="2:4">
       <c r="B54">
         <v>6</v>
       </c>
@@ -14038,11 +13702,8 @@
       <c r="D54">
         <v>4082.9682928338402</v>
       </c>
-      <c r="E54">
-        <v>4082.9682928338402</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55">
         <v>7</v>
       </c>
@@ -14052,11 +13713,8 @@
       <c r="D55">
         <v>4126.9796182289601</v>
       </c>
-      <c r="E55">
-        <v>4126.9796182289601</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+    </row>
+    <row r="56" spans="2:4">
       <c r="B56">
         <v>8</v>
       </c>
@@ -14066,11 +13724,8 @@
       <c r="D56">
         <v>4846.3806481279598</v>
       </c>
-      <c r="E56">
-        <v>4846.3806481279598</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+    </row>
+    <row r="57" spans="2:4">
       <c r="B57">
         <v>9</v>
       </c>
@@ -14080,11 +13735,8 @@
       <c r="D57">
         <v>4294.1120686079503</v>
       </c>
-      <c r="E57">
-        <v>4294.1120686079503</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+    </row>
+    <row r="58" spans="2:4">
       <c r="B58">
         <v>10</v>
       </c>
@@ -14094,11 +13746,8 @@
       <c r="D58">
         <v>4269.4372780185304</v>
       </c>
-      <c r="E58">
-        <v>4269.4372780185304</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+    </row>
+    <row r="59" spans="2:4">
       <c r="B59">
         <v>11</v>
       </c>
@@ -14108,11 +13757,8 @@
       <c r="D59">
         <v>4356.1671891973501</v>
       </c>
-      <c r="E59">
-        <v>4356.1671891973501</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+    </row>
+    <row r="60" spans="2:4">
       <c r="B60">
         <v>12</v>
       </c>
@@ -14122,11 +13768,8 @@
       <c r="D60">
         <v>4350.8783684149803</v>
       </c>
-      <c r="E60">
-        <v>4350.8783684149803</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+    </row>
+    <row r="61" spans="2:4">
       <c r="B61">
         <v>13</v>
       </c>
@@ -14136,11 +13779,8 @@
       <c r="D61">
         <v>4330.5943811677798</v>
       </c>
-      <c r="E61">
-        <v>4330.5943811677798</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+    </row>
+    <row r="62" spans="2:4">
       <c r="B62">
         <v>14</v>
       </c>
@@ -14150,11 +13790,8 @@
       <c r="D62">
         <v>5092.27773955047</v>
       </c>
-      <c r="E62">
-        <v>5092.27773955047</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
+    </row>
+    <row r="63" spans="2:4">
       <c r="B63">
         <v>15</v>
       </c>
@@ -14164,11 +13801,8 @@
       <c r="D63">
         <v>4412.8331783930198</v>
       </c>
-      <c r="E63">
-        <v>4412.8331783930198</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
+    </row>
+    <row r="64" spans="2:4">
       <c r="B64">
         <v>16</v>
       </c>
@@ -14178,11 +13812,8 @@
       <c r="D64">
         <v>4327.6277112528196</v>
       </c>
-      <c r="E64">
-        <v>4327.6277112528196</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+    </row>
+    <row r="65" spans="2:4">
       <c r="B65">
         <v>17</v>
       </c>
@@ -14192,11 +13823,8 @@
       <c r="D65">
         <v>4432.9145428867996</v>
       </c>
-      <c r="E65">
-        <v>4432.9145428867996</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66">
         <v>18</v>
       </c>
@@ -14206,11 +13834,8 @@
       <c r="D66">
         <v>4402.6298572019004</v>
       </c>
-      <c r="E66">
-        <v>4402.6298572019004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
+    </row>
+    <row r="67" spans="2:4">
       <c r="B67">
         <v>19</v>
       </c>
@@ -14220,11 +13845,8 @@
       <c r="D67">
         <v>4385.8477982679397</v>
       </c>
-      <c r="E67">
-        <v>4385.8477982679397</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
+    </row>
+    <row r="68" spans="2:4">
       <c r="B68">
         <v>20</v>
       </c>
@@ -14234,11 +13856,8 @@
       <c r="D68">
         <v>5207.6560365565101</v>
       </c>
-      <c r="E68">
-        <v>5207.6560365565101</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69">
         <v>21</v>
       </c>
@@ -14248,11 +13867,8 @@
       <c r="D69">
         <v>4448.74855522494</v>
       </c>
-      <c r="E69">
-        <v>4448.74855522494</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
+    </row>
+    <row r="70" spans="2:4">
       <c r="B70">
         <v>22</v>
       </c>
@@ -14262,11 +13878,8 @@
       <c r="D70">
         <v>4455.7262475546104</v>
       </c>
-      <c r="E70">
-        <v>4455.7262475546104</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71">
         <v>23</v>
       </c>
@@ -14276,11 +13889,8 @@
       <c r="D71">
         <v>4562.96828452503</v>
       </c>
-      <c r="E71">
-        <v>4562.96828452503</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
+    </row>
+    <row r="72" spans="2:4">
       <c r="B72">
         <v>24</v>
       </c>
@@ -14290,11 +13900,8 @@
       <c r="D72">
         <v>4485.0847384717799</v>
       </c>
-      <c r="E72">
-        <v>4485.0847384717799</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
+    </row>
+    <row r="73" spans="2:4">
       <c r="B73">
         <v>25</v>
       </c>
@@ -14304,11 +13911,8 @@
       <c r="D73">
         <v>4489.9715703688598</v>
       </c>
-      <c r="E73">
-        <v>4489.9715703688598</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74">
         <v>26</v>
       </c>
@@ -14318,11 +13922,8 @@
       <c r="D74">
         <v>5347.8093598364803</v>
       </c>
-      <c r="E74">
-        <v>5347.8093598364803</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75">
         <v>27</v>
       </c>
@@ -14332,11 +13933,8 @@
       <c r="D75">
         <v>4577.2328978524802</v>
       </c>
-      <c r="E75">
-        <v>4577.2328978524802</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76">
         <v>28</v>
       </c>
@@ -14346,11 +13944,8 @@
       <c r="D76">
         <v>4503.9963959861798</v>
       </c>
-      <c r="E76">
-        <v>4503.9963959861798</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+    </row>
+    <row r="77" spans="2:4">
       <c r="B77">
         <v>29</v>
       </c>
@@ -14360,11 +13955,8 @@
       <c r="D77">
         <v>4628.5480635065096</v>
       </c>
-      <c r="E77">
-        <v>4628.5480635065096</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
+    </row>
+    <row r="78" spans="2:4">
       <c r="B78">
         <v>30</v>
       </c>
@@ -14374,11 +13966,8 @@
       <c r="D78">
         <v>4566.9153802969304</v>
       </c>
-      <c r="E78">
-        <v>4566.9153802969304</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79">
         <v>31</v>
       </c>
@@ -14388,11 +13977,8 @@
       <c r="D79">
         <v>4544.7624300443404</v>
       </c>
-      <c r="E79">
-        <v>4544.7624300443404</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+    </row>
+    <row r="80" spans="2:4">
       <c r="B80">
         <v>32</v>
       </c>
@@ -14402,11 +13988,8 @@
       <c r="D80">
         <v>5473.4657718258404</v>
       </c>
-      <c r="E80">
-        <v>5473.4657718258404</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81">
         <v>33</v>
       </c>
@@ -14416,11 +13999,8 @@
       <c r="D81">
         <v>4634.3493284061497</v>
       </c>
-      <c r="E81">
-        <v>4634.3493284061497</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82">
         <v>34</v>
       </c>
@@ -14430,11 +14010,8 @@
       <c r="D82">
         <v>4604.50349767024</v>
       </c>
-      <c r="E82">
-        <v>4604.50349767024</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83">
         <v>35</v>
       </c>
@@ -14444,11 +14021,8 @@
       <c r="D83">
         <v>4772.7907610184902</v>
       </c>
-      <c r="E83">
-        <v>4772.7907610184902</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
+    </row>
+    <row r="84" spans="2:4">
       <c r="B84">
         <v>36</v>
       </c>
@@ -14458,11 +14032,8 @@
       <c r="D84">
         <v>4652.6832759663203</v>
       </c>
-      <c r="E84">
-        <v>4652.6832759663203</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85">
         <v>37</v>
       </c>
@@ -14472,11 +14043,8 @@
       <c r="D85">
         <v>4685.1185860123196</v>
       </c>
-      <c r="E85">
-        <v>4685.1185860123196</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86">
         <v>38</v>
       </c>
@@ -14486,11 +14054,8 @@
       <c r="D86">
         <v>5586.0271507562402</v>
       </c>
-      <c r="E86">
-        <v>5586.0271507562402</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87">
         <v>39</v>
       </c>
@@ -14500,11 +14065,8 @@
       <c r="D87">
         <v>4714.9257937983803</v>
       </c>
-      <c r="E87">
-        <v>4714.9257937983803</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88">
         <v>40</v>
       </c>
@@ -14514,11 +14076,8 @@
       <c r="D88">
         <v>4728.9091925498396</v>
       </c>
-      <c r="E88">
-        <v>4728.9091925498396</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89">
         <v>41</v>
       </c>
@@ -14528,11 +14087,8 @@
       <c r="D89">
         <v>4810.6656452831203</v>
       </c>
-      <c r="E89">
-        <v>4810.6656452831203</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
+    </row>
+    <row r="90" spans="2:4">
       <c r="B90">
         <v>42</v>
       </c>
@@ -14543,7 +14099,7 @@
         <v>4691.9073272920596</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:4">
       <c r="B91">
         <v>43</v>
       </c>
@@ -14554,7 +14110,7 @@
         <v>4725.6603389032498</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:4">
       <c r="B92">
         <v>44</v>
       </c>
@@ -14565,7 +14121,7 @@
         <v>5680.2865330916102</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:4">
       <c r="B93">
         <v>45</v>
       </c>
@@ -14576,7 +14132,7 @@
         <v>4808.8406034137397</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:4">
       <c r="B94">
         <v>46</v>
       </c>
@@ -14587,7 +14143,7 @@
         <v>4768.38312974166</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:4">
       <c r="B95">
         <v>47</v>
       </c>
@@ -14598,7 +14154,7 @@
         <v>5716.2439400102103</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:4">
       <c r="B96">
         <v>48</v>
       </c>
@@ -15011,7 +14567,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:H84"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15033,7 +14589,7 @@
         <v>32213</v>
       </c>
       <c r="G1">
-        <v>2497.5371672494002</v>
+        <v>3694.7324233038198</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15053,7 +14609,7 @@
         <v>64432</v>
       </c>
       <c r="G2">
-        <v>2497.5364462191201</v>
+        <v>3694.7302518899301</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15073,7 +14629,7 @@
         <v>101413</v>
       </c>
       <c r="G3">
-        <v>2855.9440395075999</v>
+        <v>4316.38231749845</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -15093,7 +14649,7 @@
         <v>134305</v>
       </c>
       <c r="G4">
-        <v>2556.6209608143199</v>
+        <v>3905.1411635846098</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -15113,7 +14669,7 @@
         <v>166721</v>
       </c>
       <c r="G5">
-        <v>2515.1140269057801</v>
+        <v>3915.5511459571499</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -15133,7 +14689,7 @@
         <v>199691</v>
       </c>
       <c r="G6">
-        <v>2564.81202017955</v>
+        <v>3958.4308215682099</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -15153,7 +14709,7 @@
         <v>232713</v>
       </c>
       <c r="G7">
-        <v>2574.87204112369</v>
+        <v>3969.41129911485</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -15173,7 +14729,7 @@
         <v>265616</v>
       </c>
       <c r="G8">
-        <v>2567.1549855634898</v>
+        <v>3940.9244182019202</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -15193,7 +14749,7 @@
         <v>303948</v>
       </c>
       <c r="G9">
-        <v>2982.2498986893702</v>
+        <v>4572.2058480185597</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -15213,7 +14769,7 @@
         <v>337692</v>
       </c>
       <c r="G10">
-        <v>2628.9007160688102</v>
+        <v>4043.23722966063</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -15233,7 +14789,7 @@
         <v>371144</v>
       </c>
       <c r="G11">
-        <v>2607.6548248683498</v>
+        <v>4005.8362480457699</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15253,7 +14809,7 @@
         <v>405147</v>
       </c>
       <c r="G12">
-        <v>2651.7801070672499</v>
+        <v>4080.5388835004701</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -15273,7 +14829,7 @@
         <v>439074</v>
       </c>
       <c r="G13">
-        <v>2647.0447264489999</v>
+        <v>4068.6280832225598</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -15293,7 +14849,7 @@
         <v>472817</v>
       </c>
       <c r="G14">
-        <v>2629.80205863623</v>
+        <v>4040.9850910816299</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -15313,7 +14869,7 @@
         <v>512474</v>
       </c>
       <c r="G15">
-        <v>3071.5568472405198</v>
+        <v>4774.5203864958403</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15333,7 +14889,7 @@
         <v>546797</v>
       </c>
       <c r="G16">
-        <v>2679.3997477222301</v>
+        <v>4132.1672649086704</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -15353,7 +14909,7 @@
         <v>580400</v>
       </c>
       <c r="G17">
-        <v>2623.3002775294099</v>
+        <v>4031.8114165237098</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -15373,7 +14929,7 @@
         <v>614822</v>
       </c>
       <c r="G18">
-        <v>2685.2076652463102</v>
+        <v>4118.0465331979603</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -15393,7 +14949,7 @@
         <v>648968</v>
       </c>
       <c r="G19">
-        <v>2660.7800248323201</v>
+        <v>4090.1101759173498</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15413,7 +14969,7 @@
         <v>683003</v>
       </c>
       <c r="G20">
-        <v>2651.9006135447999</v>
+        <v>4058.40144368752</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -15433,7 +14989,7 @@
         <v>723429</v>
       </c>
       <c r="G21">
-        <v>3149.63013364279</v>
+        <v>4806.7171298289004</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -15453,7 +15009,7 @@
         <v>757911</v>
       </c>
       <c r="G22">
-        <v>2684.79761365984</v>
+        <v>4110.3276729783202</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -15473,7 +15029,7 @@
         <v>792391</v>
       </c>
       <c r="G23">
-        <v>2684.7437017156399</v>
+        <v>4113.92782451127</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -15493,7 +15049,7 @@
         <v>827569</v>
       </c>
       <c r="G24">
-        <v>2726.4219752132799</v>
+        <v>4243.3572424723498</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -15513,7 +15069,7 @@
         <v>862214</v>
       </c>
       <c r="G25">
-        <v>2703.68652210852</v>
+        <v>4163.1695317245503</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -15533,7 +15089,7 @@
         <v>896781</v>
       </c>
       <c r="G26">
-        <v>2696.0708421599602</v>
+        <v>4151.3224397968397</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -15553,7 +15109,7 @@
         <v>938234</v>
       </c>
       <c r="G27">
-        <v>3183.6513496714201</v>
+        <v>5134.6702794388302</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -15573,7 +15129,7 @@
         <v>973456</v>
       </c>
       <c r="G28">
-        <v>2756.45001541488</v>
+        <v>4388.4260390728396</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -15593,7 +15149,7 @@
         <v>1008067</v>
       </c>
       <c r="G29">
-        <v>2707.9705348498601</v>
+        <v>4270.9491849133401</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -15613,7 +15169,7 @@
         <v>1043694</v>
       </c>
       <c r="G30">
-        <v>2791.3636282245702</v>
+        <v>4361.0688719329601</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -15633,7 +15189,7 @@
         <v>1078847</v>
       </c>
       <c r="G31">
-        <v>2735.9916141518602</v>
+        <v>4332.3649163084901</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -15653,7 +15209,7 @@
         <v>1113885</v>
       </c>
       <c r="G32">
-        <v>2743.86412930697</v>
+        <v>4277.0927057753597</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -15673,7 +15229,7 @@
         <v>1156130</v>
       </c>
       <c r="G33">
-        <v>3303.5818585626798</v>
+        <v>5120.8027457688404</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -15693,7 +15249,7 @@
         <v>1191777</v>
       </c>
       <c r="G34">
-        <v>2790.6357059297402</v>
+        <v>4344.6407878881901</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -15713,7 +15269,7 @@
         <v>1227140</v>
       </c>
       <c r="G35">
-        <v>2768.1482082959301</v>
+        <v>4316.4129922390402</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -15733,7 +15289,7 @@
         <v>1263685</v>
       </c>
       <c r="G36">
-        <v>2863.2962402997</v>
+        <v>4478.8978035314703</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -15753,7 +15309,7 @@
         <v>1299258</v>
       </c>
       <c r="G37">
-        <v>2786.81744287121</v>
+        <v>4366.0480367406899</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -15773,7 +15329,7 @@
         <v>1334967</v>
       </c>
       <c r="G38">
-        <v>2796.1141121884498</v>
+        <v>4404.2353408517001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -15793,7 +15349,7 @@
         <v>1377770</v>
       </c>
       <c r="G39">
-        <v>3353.7264812465201</v>
+        <v>5213.4650337142502</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -15813,7 +15369,7 @@
         <v>1413671</v>
       </c>
       <c r="G40">
-        <v>2818.5709258604102</v>
+        <v>4414.4355673063401</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -15833,7 +15389,7 @@
         <v>1449780</v>
       </c>
       <c r="G41">
-        <v>2831.0005296868399</v>
+        <v>4406.0934940816196</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -15853,7 +15409,7 @@
         <v>1486647</v>
       </c>
       <c r="G42">
-        <v>2883.71316376713</v>
+        <v>4469.7217743728797</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -15873,7 +15429,7 @@
         <v>1522617</v>
       </c>
       <c r="G43">
-        <v>2811.01832224281</v>
+        <v>4354.2632360757798</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15893,7 +15449,7 @@
         <v>1558893</v>
       </c>
       <c r="G44">
-        <v>2834.87834893747</v>
+        <v>4375.2842510616802</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -15913,7 +15469,7 @@
         <v>1602586</v>
       </c>
       <c r="G45">
-        <v>3410.7358090530502</v>
+        <v>5247.32338077229</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -15933,7 +15489,7 @@
         <v>1639346</v>
       </c>
       <c r="G46">
-        <v>2876.13915676634</v>
+        <v>4455.5793526487996</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -15953,7 +15509,7 @@
         <v>1675783</v>
       </c>
       <c r="G47">
-        <v>2850.60539289792</v>
+        <v>4409.78378193964</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15973,7 +15529,7 @@
         <v>1719640</v>
       </c>
       <c r="G48">
-        <v>3426.4236977772098</v>
+        <v>5268.2166660970597</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -15993,7 +15549,7 @@
         <v>1756071</v>
       </c>
       <c r="G49">
-        <v>2853.5676641769601</v>
+        <v>4423.2680678678198</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -16013,7 +15569,7 @@
         <v>1792510</v>
       </c>
       <c r="G50">
-        <v>2851.4544626831298</v>
+        <v>4421.9156204845403</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -16033,7 +15589,7 @@
         <v>1836336</v>
       </c>
       <c r="G51">
-        <v>3427.5062493343999</v>
+        <v>5274.19221463961</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -16053,7 +15609,7 @@
         <v>1873185</v>
       </c>
       <c r="G52">
-        <v>2885.17840276367</v>
+        <v>4472.8449744540503</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -16073,7 +15629,7 @@
         <v>1909427</v>
       </c>
       <c r="G53">
-        <v>2831.7510777330599</v>
+        <v>4389.6018580833097</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -16093,7 +15649,7 @@
         <v>1953594</v>
       </c>
       <c r="G54">
-        <v>3445.9981788581999</v>
+        <v>5265.8355577273696</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -16113,7 +15669,7 @@
         <v>1990891</v>
       </c>
       <c r="G55">
-        <v>2911.3772251742398</v>
+        <v>4469.8660043787704</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -16133,7 +15689,7 @@
         <v>2027999</v>
       </c>
       <c r="G56">
-        <v>2902.6737426768</v>
+        <v>4448.4234479799297</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -16153,7 +15709,7 @@
         <v>2072999</v>
       </c>
       <c r="G57">
-        <v>3507.7596754112501</v>
+        <v>5349.9970445834897</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -16173,7 +15729,7 @@
         <v>2110677</v>
       </c>
       <c r="G58">
-        <v>2939.2219945862598</v>
+        <v>4522.9852311445602</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -16193,7 +15749,7 @@
         <v>2148707</v>
       </c>
       <c r="G59">
-        <v>2971.4937949558398</v>
+        <v>4564.9437641582999</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -16213,7 +15769,7 @@
         <v>2194551</v>
       </c>
       <c r="G60">
-        <v>3578.6576623034898</v>
+        <v>5468.27816608183</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -16233,7 +15789,7 @@
         <v>2232523</v>
       </c>
       <c r="G61">
-        <v>2967.5990649688101</v>
+        <v>4567.7516850738302</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -16253,7 +15809,7 @@
         <v>2270520</v>
       </c>
       <c r="G62">
-        <v>2968.82541253418</v>
+        <v>4580.7826809414801</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -16273,7 +15829,7 @@
         <v>2316439</v>
       </c>
       <c r="G63">
-        <v>3588.9647818213298</v>
+        <v>5487.5138285057401</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -16293,7 +15849,7 @@
         <v>2354948</v>
       </c>
       <c r="G64">
-        <v>3015.4108225321002</v>
+        <v>4649.2730854624597</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -16313,7 +15869,7 @@
         <v>2392206</v>
       </c>
       <c r="G65">
-        <v>2913.24956507144</v>
+        <v>4478.00706944585</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -16333,7 +15889,7 @@
         <v>2437835</v>
       </c>
       <c r="G66">
-        <v>3534.4301545918802</v>
+        <v>5467.68211724921</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -16353,7 +15909,7 @@
         <v>2475227</v>
       </c>
       <c r="G67">
-        <v>2921.8088598106901</v>
+        <v>4485.9779733817104</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -16373,7 +15929,7 @@
         <v>2512326</v>
       </c>
       <c r="G68">
-        <v>2897.4920153276898</v>
+        <v>4448.6589775805096</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -16393,7 +15949,7 @@
         <v>2557838</v>
       </c>
       <c r="G69">
-        <v>3557.2210292944301</v>
+        <v>5428.6527554706399</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -16413,7 +15969,7 @@
         <v>2595225</v>
       </c>
       <c r="G70">
-        <v>2923.9607079456</v>
+        <v>4499.7050467656099</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -16433,7 +15989,7 @@
         <v>2632082</v>
       </c>
       <c r="G71">
-        <v>2884.5946160006301</v>
+        <v>4439.8046980015297</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -16453,7 +16009,7 @@
         <v>2677387</v>
       </c>
       <c r="G72">
-        <v>3544.2200775275201</v>
+        <v>5417.4033040951199</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -16473,7 +16029,7 @@
         <v>2714383</v>
       </c>
       <c r="G73">
-        <v>2892.8209895783102</v>
+        <v>4484.9799453872602</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -16493,7 +16049,7 @@
         <v>2751229</v>
       </c>
       <c r="G74">
-        <v>2888.9491380317299</v>
+        <v>4471.5838717904398</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -16513,7 +16069,7 @@
         <v>2796295</v>
       </c>
       <c r="G75">
-        <v>3522.2306335263902</v>
+        <v>5388.3848316121503</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -16533,7 +16089,7 @@
         <v>2833135</v>
       </c>
       <c r="G76">
-        <v>2890.1184869681001</v>
+        <v>4482.8905486048498</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -16553,7 +16109,7 @@
         <v>2868968</v>
       </c>
       <c r="G77">
-        <v>2807.3462227689602</v>
+        <v>4321.4197127841699</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -16573,7 +16129,7 @@
         <v>2913441</v>
       </c>
       <c r="G78">
-        <v>3471.1214166233399</v>
+        <v>5280.0682945521703</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -16593,7 +16149,7 @@
         <v>2949459</v>
       </c>
       <c r="G79">
-        <v>2822.8973242869301</v>
+        <v>4341.0961376526202</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -16613,7 +16169,7 @@
         <v>2984633</v>
       </c>
       <c r="G80">
-        <v>2750.0800028620001</v>
+        <v>4220.3020298227102</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -16633,7 +16189,7 @@
         <v>3028639</v>
       </c>
       <c r="G81">
-        <v>3435.09735936574</v>
+        <v>5270.2685284653999</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -16653,7 +16209,7 @@
         <v>3064728</v>
       </c>
       <c r="G82">
-        <v>2823.2193394572801</v>
+        <v>4341.4147372293201</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -16673,7 +16229,7 @@
         <v>3099285</v>
       </c>
       <c r="G83">
-        <v>2706.5679784469198</v>
+        <v>4168.51936352336</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -16693,12 +16249,11 @@
         <v>3143086</v>
       </c>
       <c r="G84">
-        <v>3422.2922493128299</v>
+        <v>5245.25088421077</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17909,7 +17464,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D83"/>
+      <selection activeCell="A61" sqref="A61:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17922,7 +17477,7 @@
         <v>32213</v>
       </c>
       <c r="C1">
-        <v>3778.1562169623799</v>
+        <v>3725.8831490019702</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17933,7 +17488,7 @@
         <v>64432</v>
       </c>
       <c r="C2">
-        <v>3778.1562296172301</v>
+        <v>3725.8925012085201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -17944,7 +17499,7 @@
         <v>101413</v>
       </c>
       <c r="C3">
-        <v>4344.77864755881</v>
+        <v>4400.7193963104601</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17955,7 +17510,7 @@
         <v>134305</v>
       </c>
       <c r="C4">
-        <v>3871.2531411906598</v>
+        <v>4041.85111196139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -17966,7 +17521,7 @@
         <v>166721</v>
       </c>
       <c r="C5">
-        <v>3840.8331091814598</v>
+        <v>3977.0175328174701</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17977,7 +17532,7 @@
         <v>199691</v>
       </c>
       <c r="C6">
-        <v>3880.7534066702201</v>
+        <v>4198.1610836707596</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -17988,7 +17543,7 @@
         <v>232713</v>
       </c>
       <c r="C7">
-        <v>3895.1114380383901</v>
+        <v>4214.7254211855197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -17999,7 +17554,7 @@
         <v>265616</v>
       </c>
       <c r="C8">
-        <v>3887.0429175726999</v>
+        <v>4144.0115825141102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -18010,7 +17565,7 @@
         <v>303948</v>
       </c>
       <c r="C9">
-        <v>4524.5898238438704</v>
+        <v>4797.1746000753601</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18021,7 +17576,7 @@
         <v>337692</v>
       </c>
       <c r="C10">
-        <v>3983.95876210403</v>
+        <v>4258.3197548051703</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18032,7 +17587,7 @@
         <v>371144</v>
       </c>
       <c r="C11">
-        <v>3946.59854722402</v>
+        <v>4214.0512640720199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -18043,7 +17598,7 @@
         <v>405147</v>
       </c>
       <c r="C12">
-        <v>4018.3452723623</v>
+        <v>4309.3284046932004</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -18054,7 +17609,7 @@
         <v>439074</v>
       </c>
       <c r="C13">
-        <v>4006.2519965070101</v>
+        <v>4284.3987866470497</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -18065,7 +17620,7 @@
         <v>472817</v>
       </c>
       <c r="C14">
-        <v>3982.8732327830398</v>
+        <v>4255.2313126610197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -18076,7 +17631,7 @@
         <v>512474</v>
       </c>
       <c r="C15">
-        <v>4683.4122217825598</v>
+        <v>4988.9613009483301</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -18087,7 +17642,7 @@
         <v>546797</v>
       </c>
       <c r="C16">
-        <v>4056.0633897917</v>
+        <v>4363.8766039226202</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -18098,7 +17653,7 @@
         <v>580400</v>
       </c>
       <c r="C17">
-        <v>3968.8420321355802</v>
+        <v>4250.7613341605502</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -18109,7 +17664,7 @@
         <v>614822</v>
       </c>
       <c r="C18">
-        <v>4063.4534885554299</v>
+        <v>4323.9919779121701</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -18120,7 +17675,7 @@
         <v>648968</v>
       </c>
       <c r="C19">
-        <v>4024.0354153983799</v>
+        <v>4336.7440617718503</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18131,7 +17686,7 @@
         <v>683003</v>
       </c>
       <c r="C20">
-        <v>4011.3563990474599</v>
+        <v>4281.1437077166102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -18142,7 +17697,7 @@
         <v>723429</v>
       </c>
       <c r="C21">
-        <v>4765.4141450826301</v>
+        <v>5040.03396070909</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -18153,7 +17708,7 @@
         <v>757911</v>
       </c>
       <c r="C22">
-        <v>4061.7559703936099</v>
+        <v>4323.90265980392</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -18164,7 +17719,7 @@
         <v>792391</v>
       </c>
       <c r="C23">
-        <v>4060.9017389823998</v>
+        <v>4345.3509790900498</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -18175,7 +17730,7 @@
         <v>827569</v>
       </c>
       <c r="C24">
-        <v>4159.7849224887204</v>
+        <v>4416.9764845952604</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -18186,7 +17741,7 @@
         <v>862214</v>
       </c>
       <c r="C25">
-        <v>4090.7029190887802</v>
+        <v>4395.1099991506198</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -18197,7 +17752,7 @@
         <v>896781</v>
       </c>
       <c r="C26">
-        <v>4078.9658462494799</v>
+        <v>4382.5392071578899</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -18208,7 +17763,7 @@
         <v>938234</v>
       </c>
       <c r="C27">
-        <v>4948.1800004918096</v>
+        <v>5124.2921033625698</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -18219,7 +17774,7 @@
         <v>973456</v>
       </c>
       <c r="C28">
-        <v>4157.8980999589703</v>
+        <v>4896.2341075664699</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -18230,7 +17785,7 @@
         <v>1008067</v>
       </c>
       <c r="C29">
-        <v>4113.6711630945601</v>
+        <v>4659.66430010356</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -18241,7 +17796,7 @@
         <v>1043694</v>
       </c>
       <c r="C30">
-        <v>4222.4599340129698</v>
+        <v>4773.1778994218603</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -18252,7 +17807,7 @@
         <v>1078847</v>
       </c>
       <c r="C31">
-        <v>4178.5816278991797</v>
+        <v>4639.2504806706902</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -18263,7 +17818,7 @@
         <v>1113885</v>
       </c>
       <c r="C32">
-        <v>4149.6138699067697</v>
+        <v>4648.6781772282102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -18274,7 +17829,7 @@
         <v>1156130</v>
       </c>
       <c r="C33">
-        <v>4995.1753970585596</v>
+        <v>5524.30218376842</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -18285,7 +17840,7 @@
         <v>1191777</v>
       </c>
       <c r="C34">
-        <v>4219.67443791195</v>
+        <v>4714.0227106090797</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -18296,7 +17851,7 @@
         <v>1227140</v>
       </c>
       <c r="C35">
-        <v>4185.57871819925</v>
+        <v>4693.6667377521298</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -18307,7 +17862,7 @@
         <v>1263685</v>
       </c>
       <c r="C36">
-        <v>4328.8101759951496</v>
+        <v>4898.9558104895304</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -18318,7 +17873,7 @@
         <v>1299258</v>
       </c>
       <c r="C37">
-        <v>4213.41508979221</v>
+        <v>4778.2794463369801</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -18329,7 +17884,7 @@
         <v>1334967</v>
       </c>
       <c r="C38">
-        <v>4243.3443233191001</v>
+        <v>4782.6163219314203</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -18340,7 +17895,7 @@
         <v>1377770</v>
       </c>
       <c r="C39">
-        <v>5069.4037387655299</v>
+        <v>5644.8394989436101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -18351,7 +17906,7 @@
         <v>1413671</v>
       </c>
       <c r="C40">
-        <v>4260.7562596540602</v>
+        <v>4826.6168703633602</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -18362,7 +17917,7 @@
         <v>1449780</v>
       </c>
       <c r="C41">
-        <v>4278.8561740807299</v>
+        <v>4778.3941670525301</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -18373,7 +17928,7 @@
         <v>1486647</v>
       </c>
       <c r="C42">
-        <v>4357.8965234707903</v>
+        <v>4820.7184267789698</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -18384,7 +17939,7 @@
         <v>1522617</v>
       </c>
       <c r="C43">
-        <v>4244.7137397265196</v>
+        <v>4734.3769846948999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -18395,7 +17950,7 @@
         <v>1558893</v>
       </c>
       <c r="C44">
-        <v>4283.5447715544897</v>
+        <v>4706.7448758225</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -18406,7 +17961,7 @@
         <v>1602586</v>
       </c>
       <c r="C45">
-        <v>5153.5131396247998</v>
+        <v>5619.79781996368</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -18417,7 +17972,7 @@
         <v>1639346</v>
       </c>
       <c r="C46">
-        <v>4346.0426868053501</v>
+        <v>4819.2510926942005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -18428,7 +17983,7 @@
         <v>1675783</v>
       </c>
       <c r="C47">
-        <v>4305.5496774641497</v>
+        <v>4784.2129364080802</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -18439,7 +17994,7 @@
         <v>1719640</v>
       </c>
       <c r="C48">
-        <v>5176.6159358023897</v>
+        <v>5644.30603176369</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -18450,7 +18005,7 @@
         <v>1756071</v>
       </c>
       <c r="C49">
-        <v>4311.4113044127498</v>
+        <v>4794.48243949468</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -18461,7 +18016,7 @@
         <v>1792510</v>
       </c>
       <c r="C50">
-        <v>4311.86161115292</v>
+        <v>4798.9647724514998</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -18472,7 +18027,7 @@
         <v>1836336</v>
       </c>
       <c r="C51">
-        <v>5177.6796722160798</v>
+        <v>5658.5114680775996</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -18483,7 +18038,7 @@
         <v>1873185</v>
       </c>
       <c r="C52">
-        <v>4358.5247992333498</v>
+        <v>4852.7354030103197</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -18494,7 +18049,7 @@
         <v>1909427</v>
       </c>
       <c r="C53">
-        <v>4288.9536522489298</v>
+        <v>4707.2292269301097</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -18505,7 +18060,7 @@
         <v>1953594</v>
       </c>
       <c r="C54">
-        <v>5206.0276264248296</v>
+        <v>5591.2392696529396</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -18516,7 +18071,7 @@
         <v>1990891</v>
       </c>
       <c r="C55">
-        <v>4397.4034697209399</v>
+        <v>4779.4948971601898</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -18527,7 +18082,7 @@
         <v>2027999</v>
       </c>
       <c r="C56">
-        <v>4384.0268699403496</v>
+        <v>4743.9727216765596</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -18538,7 +18093,7 @@
         <v>2072999</v>
       </c>
       <c r="C57">
-        <v>5297.29443730397</v>
+        <v>5670.0652348023395</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -18549,7 +18104,7 @@
         <v>2110677</v>
       </c>
       <c r="C58">
-        <v>4447.5595416574397</v>
+        <v>4813.1705503103103</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -18560,7 +18115,7 @@
         <v>2148707</v>
       </c>
       <c r="C59">
-        <v>4484.4728296620497</v>
+        <v>4934.1443371240703</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -18571,7 +18126,7 @@
         <v>2194551</v>
       </c>
       <c r="C60">
-        <v>5402.6012075439803</v>
+        <v>5849.7432147996096</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -18582,7 +18137,7 @@
         <v>2232523</v>
       </c>
       <c r="C61">
-        <v>4480.6548492510201</v>
+        <v>4939.5078945035602</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -18593,7 +18148,7 @@
         <v>2270520</v>
       </c>
       <c r="C62">
-        <v>4482.0302629351199</v>
+        <v>4980.9449421912896</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -18604,7 +18159,7 @@
         <v>2316439</v>
       </c>
       <c r="C63">
-        <v>5419.1965309078696</v>
+        <v>5863.7609142013398</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -18615,7 +18170,7 @@
         <v>2354948</v>
       </c>
       <c r="C64">
-        <v>4555.2319869972598</v>
+        <v>5026.2282161643998</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -18626,7 +18181,7 @@
         <v>2392206</v>
       </c>
       <c r="C65">
-        <v>4398.3887999602903</v>
+        <v>4830.7897529306902</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -18637,7 +18192,7 @@
         <v>2437835</v>
       </c>
       <c r="C66">
-        <v>5402.9641412893798</v>
+        <v>5628.5567424192204</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -18648,7 +18203,7 @@
         <v>2475227</v>
       </c>
       <c r="C67">
-        <v>4409.64299764307</v>
+        <v>4794.8846824687498</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -18659,7 +18214,7 @@
         <v>2512326</v>
       </c>
       <c r="C68">
-        <v>4371.8993702304797</v>
+        <v>4768.2764462031901</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -18670,7 +18225,7 @@
         <v>2557838</v>
       </c>
       <c r="C69">
-        <v>5367.4066373615897</v>
+        <v>5768.61738805403</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -18681,7 +18236,7 @@
         <v>2595225</v>
       </c>
       <c r="C70">
-        <v>4412.3467464739997</v>
+        <v>4827.1597067861003</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -18692,7 +18247,7 @@
         <v>2632082</v>
       </c>
       <c r="C71">
-        <v>4352.6122744402401</v>
+        <v>4769.94279271094</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -18703,7 +18258,7 @@
         <v>2677387</v>
       </c>
       <c r="C72">
-        <v>5347.8380351308597</v>
+        <v>5761.3516367360999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -18714,7 +18269,7 @@
         <v>2714383</v>
       </c>
       <c r="C73">
-        <v>4360.8546995900897</v>
+        <v>4936.6018241606598</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -18725,7 +18280,7 @@
         <v>2751229</v>
       </c>
       <c r="C74">
-        <v>4359.1450645670202</v>
+        <v>4858.4588011200403</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -18736,7 +18291,7 @@
         <v>2796295</v>
       </c>
       <c r="C75">
-        <v>5314.6384425187798</v>
+        <v>5753.0536906963598</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -18747,7 +18302,7 @@
         <v>2833135</v>
       </c>
       <c r="C76">
-        <v>4360.1925683834797</v>
+        <v>4892.1110545377396</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -18758,7 +18313,7 @@
         <v>2868968</v>
       </c>
       <c r="C77">
-        <v>4235.3455507100898</v>
+        <v>4662.2398865735404</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -18769,7 +18324,7 @@
         <v>2913441</v>
       </c>
       <c r="C78">
-        <v>5237.07056143094</v>
+        <v>5593.1228869343404</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -18780,7 +18335,7 @@
         <v>2949459</v>
       </c>
       <c r="C79">
-        <v>4258.9226842529197</v>
+        <v>4672.7994717033898</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -18791,7 +18346,7 @@
         <v>2984633</v>
       </c>
       <c r="C80">
-        <v>4147.9085280619302</v>
+        <v>4545.5609302328803</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -18802,7 +18357,7 @@
         <v>3028639</v>
       </c>
       <c r="C81">
-        <v>5195.4235982664504</v>
+        <v>5616.8930877307903</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -18813,7 +18368,7 @@
         <v>3064728</v>
       </c>
       <c r="C82">
-        <v>4259.07809029899</v>
+        <v>4680.9783646597898</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -18824,7 +18379,7 @@
         <v>3099285</v>
       </c>
       <c r="C83">
-        <v>4082.5264502486002</v>
+        <v>4511.1561368133198</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
@@ -710,11 +710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102297416"/>
-        <c:axId val="2102299704"/>
+        <c:axId val="-2141073096"/>
+        <c:axId val="-2120873816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102297416"/>
+        <c:axId val="-2141073096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102299704"/>
+        <c:crossAx val="-2120873816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102299704"/>
+        <c:axId val="-2120873816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102297416"/>
+        <c:crossAx val="-2141073096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,11 +1062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102480760"/>
-        <c:axId val="2102477992"/>
+        <c:axId val="-2120462728"/>
+        <c:axId val="-2141278408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102480760"/>
+        <c:axId val="-2120462728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102477992"/>
+        <c:crossAx val="-2141278408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102477992"/>
+        <c:axId val="-2141278408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,14 +1094,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102480760"/>
+        <c:crossAx val="-2120462728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1415,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102371288"/>
-        <c:axId val="2102374248"/>
+        <c:axId val="-2122064472"/>
+        <c:axId val="-2122061528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102371288"/>
+        <c:axId val="-2122064472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102374248"/>
+        <c:crossAx val="-2122061528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102374248"/>
+        <c:axId val="-2122061528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,14 +1446,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102371288"/>
+        <c:crossAx val="-2122064472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1763,11 +1761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102457144"/>
-        <c:axId val="2102447640"/>
+        <c:axId val="2064679000"/>
+        <c:axId val="-2120035688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102457144"/>
+        <c:axId val="2064679000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102447640"/>
+        <c:crossAx val="-2120035688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102447640"/>
+        <c:axId val="-2120035688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,14 +1793,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102457144"/>
+        <c:crossAx val="2064679000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2111,11 +2108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114535704"/>
-        <c:axId val="-2139793624"/>
+        <c:axId val="-2122011352"/>
+        <c:axId val="-2122008408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114535704"/>
+        <c:axId val="-2122011352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139793624"/>
+        <c:crossAx val="-2122008408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2132,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139793624"/>
+        <c:axId val="-2122008408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,14 +2140,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114535704"/>
+        <c:crossAx val="-2122011352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2719,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054310104"/>
-        <c:axId val="2054307144"/>
+        <c:axId val="-2120342920"/>
+        <c:axId val="-2142131384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054310104"/>
+        <c:axId val="-2120342920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054307144"/>
+        <c:crossAx val="-2142131384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2740,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054307144"/>
+        <c:axId val="-2142131384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,14 +2747,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054310104"/>
+        <c:crossAx val="-2120342920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3072,11 +3067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054282328"/>
-        <c:axId val="2054279640"/>
+        <c:axId val="2112886264"/>
+        <c:axId val="-2120900104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054282328"/>
+        <c:axId val="2112886264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054279640"/>
+        <c:crossAx val="-2120900104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3093,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054279640"/>
+        <c:axId val="-2120900104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,14 +3099,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054282328"/>
+        <c:crossAx val="2112886264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3159,253 +3153,253 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>3725.88314900197</c:v>
+                  <c:v>2471.90801716197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3725.89250120852</c:v>
+                  <c:v>2471.90761420583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4400.71939631046</c:v>
+                  <c:v>2832.10534763796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4041.85111196139</c:v>
+                  <c:v>2946.31433087394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3977.01753281747</c:v>
+                  <c:v>2937.66150265199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4198.16108367076</c:v>
+                  <c:v>2988.00728319054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4214.72542118552</c:v>
+                  <c:v>2592.05108821683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4144.01158251411</c:v>
+                  <c:v>2583.54032601889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4797.17460007536</c:v>
+                  <c:v>2992.11608545052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4258.31975480517</c:v>
+                  <c:v>3458.5313264306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4214.05126407202</c:v>
+                  <c:v>3447.33488704491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4309.3284046932</c:v>
+                  <c:v>3502.62278615308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4284.39878664705</c:v>
+                  <c:v>4550.85080605488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4255.23131266102</c:v>
+                  <c:v>4530.88196303332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4988.96130094833</c:v>
+                  <c:v>5335.5759672632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4363.87660392262</c:v>
+                  <c:v>5721.05160063247</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4250.76133416055</c:v>
+                  <c:v>5604.39671980428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4323.99197791217</c:v>
+                  <c:v>5734.85754494854</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4336.74406177185</c:v>
+                  <c:v>6539.66664704828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4281.14370771661</c:v>
+                  <c:v>6540.23183578467</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5040.03396070909</c:v>
+                  <c:v>7765.90785261664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4323.90265980392</c:v>
+                  <c:v>6537.44233175773</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4345.35097909005</c:v>
+                  <c:v>6530.894734381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4416.97648459526</c:v>
+                  <c:v>6657.72355583749</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4395.10999915062</c:v>
+                  <c:v>7248.25315023225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4382.53920715789</c:v>
+                  <c:v>7215.36465847751</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5124.29210336257</c:v>
+                  <c:v>8457.882289220361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4896.23410756647</c:v>
+                  <c:v>8119.62280147059</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4659.66430010356</c:v>
+                  <c:v>8159.0324143647</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4773.17789942186</c:v>
+                  <c:v>8371.568993003561</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4639.25048067069</c:v>
+                  <c:v>6568.32265213683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4648.67817722821</c:v>
+                  <c:v>6522.33073546855</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5524.30218376842</c:v>
+                  <c:v>7851.93046757931</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4714.02271060908</c:v>
+                  <c:v>7523.35216718273</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4693.66673775213</c:v>
+                  <c:v>7453.36797626202</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4898.95581048953</c:v>
+                  <c:v>7696.23800027293</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4778.27944633698</c:v>
+                  <c:v>7919.28856588064</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4782.61632193142</c:v>
+                  <c:v>7954.15612303297</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5644.83949894361</c:v>
+                  <c:v>9507.989128763609</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4826.61687036336</c:v>
+                  <c:v>7446.64620151523</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4778.39416705253</c:v>
+                  <c:v>7477.33992408778</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4820.71842677897</c:v>
+                  <c:v>7613.03373485845</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4734.3769846949</c:v>
+                  <c:v>7323.17121275802</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4706.7448758225</c:v>
+                  <c:v>7386.98066700287</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5619.79781996368</c:v>
+                  <c:v>8882.278987636</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4819.2510926942</c:v>
+                  <c:v>8826.467806617309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4784.21293640808</c:v>
+                  <c:v>8745.925389632381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5644.30603176369</c:v>
+                  <c:v>10505.3051095258</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4794.48243949468</c:v>
+                  <c:v>9595.52285115677</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4798.9647724515</c:v>
+                  <c:v>9663.36865260388</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5658.5114680776</c:v>
+                  <c:v>11627.7200705803</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4852.73540301032</c:v>
+                  <c:v>9832.045539705199</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4707.22922693011</c:v>
+                  <c:v>9654.42337983741</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5591.23926965294</c:v>
+                  <c:v>11724.8489980831</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4779.49489716019</c:v>
+                  <c:v>9236.16526863055</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4743.97272167656</c:v>
+                  <c:v>9196.73381531212</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5670.06523480234</c:v>
+                  <c:v>11106.456705773</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4813.17055031031</c:v>
+                  <c:v>9865.33326709989</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4934.14433712407</c:v>
+                  <c:v>9965.54516286339</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5849.74321479961</c:v>
+                  <c:v>12017.0422206078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4939.50789450356</c:v>
+                  <c:v>9951.55030714782</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4980.94494219129</c:v>
+                  <c:v>9942.51339700484</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5863.76091420134</c:v>
+                  <c:v>12021.0304119956</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5026.2282161644</c:v>
+                  <c:v>10948.7406469278</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4830.78975293069</c:v>
+                  <c:v>10561.9297905285</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5628.55674241922</c:v>
+                  <c:v>12901.141297832</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4794.88468246875</c:v>
+                  <c:v>10019.1353499615</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4768.27644620319</c:v>
+                  <c:v>9923.50106257438</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5768.61738805403</c:v>
+                  <c:v>12184.0856379776</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4827.1597067861</c:v>
+                  <c:v>10122.6218552879</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4769.94279271094</c:v>
+                  <c:v>9974.50118387367</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5761.3516367361</c:v>
+                  <c:v>12254.6820737545</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4936.60182416066</c:v>
+                  <c:v>9625.86792014302</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4858.45880112004</c:v>
+                  <c:v>9608.76030809579</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5753.05369069636</c:v>
+                  <c:v>11727.9092571644</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4892.11105453774</c:v>
+                  <c:v>10382.0670660383</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4662.23988657354</c:v>
+                  <c:v>10089.5105904896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5593.12288693434</c:v>
+                  <c:v>12488.1663153958</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4672.79947170339</c:v>
+                  <c:v>9480.475666447101</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4545.56093023288</c:v>
+                  <c:v>9232.61313673986</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5616.89308773079</c:v>
+                  <c:v>11561.3946389896</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4680.97836465979</c:v>
+                  <c:v>8727.28129529874</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4511.15613681332</c:v>
+                  <c:v>8357.94000223804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,11 +3416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120911576"/>
-        <c:axId val="2115422152"/>
+        <c:axId val="-2141059992"/>
+        <c:axId val="-2141057048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120911576"/>
+        <c:axId val="-2141059992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115422152"/>
+        <c:crossAx val="-2141057048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +3437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115422152"/>
+        <c:axId val="-2141057048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120911576"/>
+        <c:crossAx val="-2141059992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17461,15 +17455,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D83"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -17477,10 +17471,13 @@
         <v>32213</v>
       </c>
       <c r="C1">
-        <v>3725.8831490019702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2471.9080171619698</v>
+      </c>
+      <c r="D1">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17488,10 +17485,13 @@
         <v>64432</v>
       </c>
       <c r="C2">
-        <v>3725.8925012085201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2471.9076142058302</v>
+      </c>
+      <c r="D2">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17499,10 +17499,13 @@
         <v>101413</v>
       </c>
       <c r="C3">
-        <v>4400.7193963104601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2832.1053476379602</v>
+      </c>
+      <c r="D3">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17510,10 +17513,13 @@
         <v>134305</v>
       </c>
       <c r="C4">
-        <v>4041.85111196139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2946.31433087394</v>
+      </c>
+      <c r="D4">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17521,10 +17527,13 @@
         <v>166721</v>
       </c>
       <c r="C5">
-        <v>3977.0175328174701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2937.6615026519898</v>
+      </c>
+      <c r="D5">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17532,10 +17541,13 @@
         <v>199691</v>
       </c>
       <c r="C6">
-        <v>4198.1610836707596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2988.00728319054</v>
+      </c>
+      <c r="D6">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17543,10 +17555,13 @@
         <v>232713</v>
       </c>
       <c r="C7">
-        <v>4214.7254211855197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2592.0510882168301</v>
+      </c>
+      <c r="D7">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17554,10 +17569,13 @@
         <v>265616</v>
       </c>
       <c r="C8">
-        <v>4144.0115825141102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2583.54032601889</v>
+      </c>
+      <c r="D8">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17565,10 +17583,13 @@
         <v>303948</v>
       </c>
       <c r="C9">
-        <v>4797.1746000753601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2992.1160854505201</v>
+      </c>
+      <c r="D9">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17576,10 +17597,13 @@
         <v>337692</v>
       </c>
       <c r="C10">
-        <v>4258.3197548051703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3458.5313264306001</v>
+      </c>
+      <c r="D10">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17587,10 +17611,13 @@
         <v>371144</v>
       </c>
       <c r="C11">
-        <v>4214.0512640720199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>3447.3348870449099</v>
+      </c>
+      <c r="D11">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17598,10 +17625,13 @@
         <v>405147</v>
       </c>
       <c r="C12">
-        <v>4309.3284046932004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>3502.6227861530801</v>
+      </c>
+      <c r="D12">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17609,10 +17639,13 @@
         <v>439074</v>
       </c>
       <c r="C13">
-        <v>4284.3987866470497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>4550.8508060548802</v>
+      </c>
+      <c r="D13">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17620,10 +17653,13 @@
         <v>472817</v>
       </c>
       <c r="C14">
-        <v>4255.2313126610197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>4530.8819630333201</v>
+      </c>
+      <c r="D14">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17631,10 +17667,13 @@
         <v>512474</v>
       </c>
       <c r="C15">
-        <v>4988.9613009483301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>5335.5759672632003</v>
+      </c>
+      <c r="D15">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17642,10 +17681,13 @@
         <v>546797</v>
       </c>
       <c r="C16">
-        <v>4363.8766039226202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>5721.0516006324697</v>
+      </c>
+      <c r="D16">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17653,10 +17695,13 @@
         <v>580400</v>
       </c>
       <c r="C17">
-        <v>4250.7613341605502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>5604.3967198042801</v>
+      </c>
+      <c r="D17">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17664,10 +17709,13 @@
         <v>614822</v>
       </c>
       <c r="C18">
-        <v>4323.9919779121701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>5734.8575449485397</v>
+      </c>
+      <c r="D18">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17675,10 +17723,13 @@
         <v>648968</v>
       </c>
       <c r="C19">
-        <v>4336.7440617718503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>6539.6666470482796</v>
+      </c>
+      <c r="D19">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17686,10 +17737,13 @@
         <v>683003</v>
       </c>
       <c r="C20">
-        <v>4281.1437077166102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>6540.2318357846698</v>
+      </c>
+      <c r="D20">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17697,10 +17751,13 @@
         <v>723429</v>
       </c>
       <c r="C21">
-        <v>5040.03396070909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>7765.9078526166404</v>
+      </c>
+      <c r="D21">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17708,10 +17765,13 @@
         <v>757911</v>
       </c>
       <c r="C22">
-        <v>4323.90265980392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>6537.4423317577302</v>
+      </c>
+      <c r="D22">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17719,10 +17779,13 @@
         <v>792391</v>
       </c>
       <c r="C23">
-        <v>4345.3509790900498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>6530.8947343809996</v>
+      </c>
+      <c r="D23">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17730,10 +17793,13 @@
         <v>827569</v>
       </c>
       <c r="C24">
-        <v>4416.9764845952604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6657.7235558374896</v>
+      </c>
+      <c r="D24">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17741,10 +17807,13 @@
         <v>862214</v>
       </c>
       <c r="C25">
-        <v>4395.1099991506198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>7248.2531502322499</v>
+      </c>
+      <c r="D25">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17752,10 +17821,13 @@
         <v>896781</v>
       </c>
       <c r="C26">
-        <v>4382.5392071578899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>7215.3646584775097</v>
+      </c>
+      <c r="D26">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17763,10 +17835,13 @@
         <v>938234</v>
       </c>
       <c r="C27">
-        <v>5124.2921033625698</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>8457.8822892203607</v>
+      </c>
+      <c r="D27">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17774,10 +17849,13 @@
         <v>973456</v>
       </c>
       <c r="C28">
-        <v>4896.2341075664699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>8119.6228014705903</v>
+      </c>
+      <c r="D28">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17785,10 +17863,13 @@
         <v>1008067</v>
       </c>
       <c r="C29">
-        <v>4659.66430010356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>8159.0324143647003</v>
+      </c>
+      <c r="D29">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17796,10 +17877,13 @@
         <v>1043694</v>
       </c>
       <c r="C30">
-        <v>4773.1778994218603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>8371.5689930035605</v>
+      </c>
+      <c r="D30">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17807,10 +17891,13 @@
         <v>1078847</v>
       </c>
       <c r="C31">
-        <v>4639.2504806706902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>6568.3226521368297</v>
+      </c>
+      <c r="D31">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17818,10 +17905,13 @@
         <v>1113885</v>
       </c>
       <c r="C32">
-        <v>4648.6781772282102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>6522.3307354685503</v>
+      </c>
+      <c r="D32">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17829,10 +17919,13 @@
         <v>1156130</v>
       </c>
       <c r="C33">
-        <v>5524.30218376842</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>7851.9304675793101</v>
+      </c>
+      <c r="D33">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17840,10 +17933,13 @@
         <v>1191777</v>
       </c>
       <c r="C34">
-        <v>4714.0227106090797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>7523.3521671827302</v>
+      </c>
+      <c r="D34">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17851,10 +17947,13 @@
         <v>1227140</v>
       </c>
       <c r="C35">
-        <v>4693.6667377521298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>7453.3679762620204</v>
+      </c>
+      <c r="D35">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17862,10 +17961,13 @@
         <v>1263685</v>
       </c>
       <c r="C36">
-        <v>4898.9558104895304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>7696.2380002729296</v>
+      </c>
+      <c r="D36">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17873,10 +17975,13 @@
         <v>1299258</v>
       </c>
       <c r="C37">
-        <v>4778.2794463369801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>7919.2885658806399</v>
+      </c>
+      <c r="D37">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17884,10 +17989,13 @@
         <v>1334967</v>
       </c>
       <c r="C38">
-        <v>4782.6163219314203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>7954.1561230329698</v>
+      </c>
+      <c r="D38">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17895,10 +18003,13 @@
         <v>1377770</v>
       </c>
       <c r="C39">
-        <v>5644.8394989436101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>9507.9891287636092</v>
+      </c>
+      <c r="D39">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17906,10 +18017,13 @@
         <v>1413671</v>
       </c>
       <c r="C40">
-        <v>4826.6168703633602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>7446.6462015152301</v>
+      </c>
+      <c r="D40">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17917,10 +18031,13 @@
         <v>1449780</v>
       </c>
       <c r="C41">
-        <v>4778.3941670525301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>7477.3399240877798</v>
+      </c>
+      <c r="D41">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17928,10 +18045,13 @@
         <v>1486647</v>
       </c>
       <c r="C42">
-        <v>4820.7184267789698</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>7613.0337348584499</v>
+      </c>
+      <c r="D42">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17939,10 +18059,13 @@
         <v>1522617</v>
       </c>
       <c r="C43">
-        <v>4734.3769846948999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>7323.1712127580204</v>
+      </c>
+      <c r="D43">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17950,10 +18073,13 @@
         <v>1558893</v>
       </c>
       <c r="C44">
-        <v>4706.7448758225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>7386.9806670028702</v>
+      </c>
+      <c r="D44">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17961,10 +18087,13 @@
         <v>1602586</v>
       </c>
       <c r="C45">
-        <v>5619.79781996368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>8882.2789876360002</v>
+      </c>
+      <c r="D45">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17972,10 +18101,13 @@
         <v>1639346</v>
       </c>
       <c r="C46">
-        <v>4819.2510926942005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>8826.4678066173092</v>
+      </c>
+      <c r="D46">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17983,10 +18115,13 @@
         <v>1675783</v>
       </c>
       <c r="C47">
-        <v>4784.2129364080802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>8745.9253896323808</v>
+      </c>
+      <c r="D47">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17994,10 +18129,13 @@
         <v>1719640</v>
       </c>
       <c r="C48">
-        <v>5644.30603176369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>10505.3051095258</v>
+      </c>
+      <c r="D48">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18005,10 +18143,13 @@
         <v>1756071</v>
       </c>
       <c r="C49">
-        <v>4794.48243949468</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>9595.5228511567693</v>
+      </c>
+      <c r="D49">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18016,10 +18157,13 @@
         <v>1792510</v>
       </c>
       <c r="C50">
-        <v>4798.9647724514998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>9663.36865260388</v>
+      </c>
+      <c r="D50">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18027,10 +18171,13 @@
         <v>1836336</v>
       </c>
       <c r="C51">
-        <v>5658.5114680775996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>11627.720070580301</v>
+      </c>
+      <c r="D51">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18038,10 +18185,13 @@
         <v>1873185</v>
       </c>
       <c r="C52">
-        <v>4852.7354030103197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>9832.0455397051992</v>
+      </c>
+      <c r="D52">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18049,10 +18199,13 @@
         <v>1909427</v>
       </c>
       <c r="C53">
-        <v>4707.2292269301097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>9654.4233798374098</v>
+      </c>
+      <c r="D53">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18060,10 +18213,13 @@
         <v>1953594</v>
       </c>
       <c r="C54">
-        <v>5591.2392696529396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>11724.8489980831</v>
+      </c>
+      <c r="D54">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18071,10 +18227,13 @@
         <v>1990891</v>
       </c>
       <c r="C55">
-        <v>4779.4948971601898</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>9236.1652686305497</v>
+      </c>
+      <c r="D55">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18082,10 +18241,13 @@
         <v>2027999</v>
       </c>
       <c r="C56">
-        <v>4743.9727216765596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>9196.73381531212</v>
+      </c>
+      <c r="D56">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18093,10 +18255,13 @@
         <v>2072999</v>
       </c>
       <c r="C57">
-        <v>5670.0652348023395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>11106.456705773</v>
+      </c>
+      <c r="D57">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18104,10 +18269,13 @@
         <v>2110677</v>
       </c>
       <c r="C58">
-        <v>4813.1705503103103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>9865.3332670998898</v>
+      </c>
+      <c r="D58">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18115,10 +18283,13 @@
         <v>2148707</v>
       </c>
       <c r="C59">
-        <v>4934.1443371240703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>9965.5451628633891</v>
+      </c>
+      <c r="D59">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18126,10 +18297,13 @@
         <v>2194551</v>
       </c>
       <c r="C60">
-        <v>5849.7432147996096</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>12017.0422206078</v>
+      </c>
+      <c r="D60">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18137,10 +18311,13 @@
         <v>2232523</v>
       </c>
       <c r="C61">
-        <v>4939.5078945035602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>9951.5503071478197</v>
+      </c>
+      <c r="D61">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18148,10 +18325,13 @@
         <v>2270520</v>
       </c>
       <c r="C62">
-        <v>4980.9449421912896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>9942.5133970048391</v>
+      </c>
+      <c r="D62">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18159,10 +18339,13 @@
         <v>2316439</v>
       </c>
       <c r="C63">
-        <v>5863.7609142013398</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>12021.0304119956</v>
+      </c>
+      <c r="D63">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18170,10 +18353,13 @@
         <v>2354948</v>
       </c>
       <c r="C64">
-        <v>5026.2282161643998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>10948.740646927799</v>
+      </c>
+      <c r="D64">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18181,10 +18367,13 @@
         <v>2392206</v>
       </c>
       <c r="C65">
-        <v>4830.7897529306902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>10561.9297905285</v>
+      </c>
+      <c r="D65">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18192,10 +18381,13 @@
         <v>2437835</v>
       </c>
       <c r="C66">
-        <v>5628.5567424192204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>12901.141297832</v>
+      </c>
+      <c r="D66">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18203,10 +18395,13 @@
         <v>2475227</v>
       </c>
       <c r="C67">
-        <v>4794.8846824687498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>10019.1353499615</v>
+      </c>
+      <c r="D67">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18214,10 +18409,13 @@
         <v>2512326</v>
       </c>
       <c r="C68">
-        <v>4768.2764462031901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>9923.5010625743798</v>
+      </c>
+      <c r="D68">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18225,10 +18423,13 @@
         <v>2557838</v>
       </c>
       <c r="C69">
-        <v>5768.61738805403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>12184.0856379776</v>
+      </c>
+      <c r="D69">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18236,10 +18437,13 @@
         <v>2595225</v>
       </c>
       <c r="C70">
-        <v>4827.1597067861003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>10122.6218552879</v>
+      </c>
+      <c r="D70">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18247,10 +18451,13 @@
         <v>2632082</v>
       </c>
       <c r="C71">
-        <v>4769.94279271094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>9974.50118387367</v>
+      </c>
+      <c r="D71">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18258,10 +18465,13 @@
         <v>2677387</v>
       </c>
       <c r="C72">
-        <v>5761.3516367360999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>12254.6820737545</v>
+      </c>
+      <c r="D72">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18269,10 +18479,13 @@
         <v>2714383</v>
       </c>
       <c r="C73">
-        <v>4936.6018241606598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>9625.8679201430205</v>
+      </c>
+      <c r="D73">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18280,10 +18493,13 @@
         <v>2751229</v>
       </c>
       <c r="C74">
-        <v>4858.4588011200403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>9608.7603080957906</v>
+      </c>
+      <c r="D74">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18291,10 +18507,13 @@
         <v>2796295</v>
       </c>
       <c r="C75">
-        <v>5753.0536906963598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>11727.9092571644</v>
+      </c>
+      <c r="D75">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18302,10 +18521,13 @@
         <v>2833135</v>
       </c>
       <c r="C76">
-        <v>4892.1110545377396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>10382.0670660383</v>
+      </c>
+      <c r="D76">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18313,10 +18535,13 @@
         <v>2868968</v>
       </c>
       <c r="C77">
-        <v>4662.2398865735404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>10089.510590489601</v>
+      </c>
+      <c r="D77">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18324,10 +18549,13 @@
         <v>2913441</v>
       </c>
       <c r="C78">
-        <v>5593.1228869343404</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>12488.1663153958</v>
+      </c>
+      <c r="D78">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18335,10 +18563,13 @@
         <v>2949459</v>
       </c>
       <c r="C79">
-        <v>4672.7994717033898</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>9480.4756664471006</v>
+      </c>
+      <c r="D79">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18346,10 +18577,13 @@
         <v>2984633</v>
       </c>
       <c r="C80">
-        <v>4545.5609302328803</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>9232.6131367398593</v>
+      </c>
+      <c r="D80">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18357,10 +18591,13 @@
         <v>3028639</v>
       </c>
       <c r="C81">
-        <v>5616.8930877307903</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>11561.394638989599</v>
+      </c>
+      <c r="D81">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18368,10 +18605,13 @@
         <v>3064728</v>
       </c>
       <c r="C82">
-        <v>4680.9783646597898</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>8727.2812952987406</v>
+      </c>
+      <c r="D82">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18379,7 +18619,10 @@
         <v>3099285</v>
       </c>
       <c r="C83">
-        <v>4511.1561368133198</v>
+        <v>8357.9400022380396</v>
+      </c>
+      <c r="D83">
+        <v>33.35</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="3820" windowWidth="25600" windowHeight="15220" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22500" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ida2015" sheetId="1" r:id="rId1"/>
     <sheet name="IDA2015Graph" sheetId="5" r:id="rId2"/>
-    <sheet name="ida2016" sheetId="2" r:id="rId3"/>
-    <sheet name="IDA2016Graph" sheetId="4" r:id="rId4"/>
-    <sheet name="IDA2016Graph3" sheetId="8" r:id="rId5"/>
-    <sheet name="ida2015Flink" sheetId="3" r:id="rId6"/>
-    <sheet name="withUnemplRateObserved" sheetId="7" r:id="rId7"/>
+    <sheet name="IDA2016NoBumps" sheetId="11" r:id="rId3"/>
+    <sheet name="ida2016" sheetId="2" r:id="rId4"/>
+    <sheet name="IDA2016Graph" sheetId="4" r:id="rId5"/>
+    <sheet name="IDA2016Graph2" sheetId="8" r:id="rId6"/>
+    <sheet name="ida2015Flink" sheetId="3" r:id="rId7"/>
+    <sheet name="URGraph" sheetId="9" r:id="rId8"/>
+    <sheet name="URGraphNoBumps" sheetId="10" r:id="rId9"/>
+    <sheet name="URGraphNoBumpsUR" sheetId="12" r:id="rId10"/>
+    <sheet name="withUnemplRateObserved" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
   <si>
     <t>Sample</t>
   </si>
@@ -455,6 +459,9 @@
   <si>
     <t>E(H_83) =</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -502,8 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -519,17 +530,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,6 +764,2785 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$C$1:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2471.90801716197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2471.90761420583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2832.10534763796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946.31433087394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2937.66150265199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2988.00728319054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2592.05108821683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2583.54032601889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2992.11608545052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3458.5313264306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3447.33488704491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3502.62278615308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4550.85080605488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4530.88196303332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5335.5759672632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5721.05160063247</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5604.39671980428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5734.85754494854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6539.66664704828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6540.23183578467</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7765.90785261664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6537.44233175773</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6530.894734381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6657.72355583749</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7248.25315023225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7215.36465847751</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8457.882289220361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8119.62280147059</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8159.0324143647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8371.568993003561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6568.32265213683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6522.33073546855</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7851.93046757931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7523.35216718273</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7453.36797626202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7696.23800027293</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7919.28856588064</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7954.15612303297</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9507.989128763609</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7446.64620151523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7477.33992408778</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7613.03373485845</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7323.17121275802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7386.98066700287</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8882.278987636</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8826.467806617309</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8745.925389632381</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10505.3051095258</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9595.52285115677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9663.36865260388</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11627.7200705803</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9832.045539705199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9654.42337983741</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11724.8489980831</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9236.16526863055</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9196.73381531212</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11106.456705773</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9865.33326709989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9965.54516286339</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12017.0422206078</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9951.55030714782</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9942.51339700484</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12021.0304119956</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10948.7406469278</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10561.9297905285</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12901.141297832</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10019.1353499615</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9923.50106257438</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12184.0856379776</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10122.6218552879</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9974.50118387367</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12254.6820737545</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9625.86792014302</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9608.76030809579</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11727.9092571644</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10382.0670660383</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10089.5105904896</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12488.1663153958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9480.475666447101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9232.61313673986</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11561.3946389896</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8727.28129529874</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8357.94000223804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2144515320"/>
+        <c:axId val="-2144512376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2144515320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144512376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144512376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144515320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$H$1:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2471.90801716197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2471.90761420583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265.86797469198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3187.6751426629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3182.19930102282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2612.82286589963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.2393609749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3798.24966580543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3786.45953692892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3862.90302724116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5315.92800719285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301.54172400442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6979.36603724325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6848.60516000123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7020.17654583851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8193.86308811526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8191.23352445382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8201.26752599915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8211.96258372101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8376.0592614724</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9121.36345271296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9112.92575803549</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10593.4521482469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10475.2971131889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10765.2927024221</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8179.66191471401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8070.43396490995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9493.25538105967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9423.31222550836</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9751.24117455351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10124.8105099791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10194.1475202952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9480.43605649944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9538.755220467279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9729.858927105081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9346.31900654713</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9432.32660430696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11548.3759547713</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11469.4609687655</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12776.688994732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12857.9636300803</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13134.6543105372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12937.0079919854</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12322.292526336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12298.0487845114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13338.0737602069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13486.8629602337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13483.8909975289</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13495.6330761791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15058.3778174755</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14564.8189896754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13850.1449471137</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13748.0134485333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14082.3235643938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13903.5214615085</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13385.5544760878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13357.980464857</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14615.9523501869</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14229.3026051141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13297.780252818</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12971.0666835827</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12135.1013421594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2115582808"/>
+        <c:axId val="2115004872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2115582808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115004872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115004872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115582808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$H$1:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2471.90801716197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2471.90761420583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265.86797469198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3187.6751426629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3182.19930102282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2612.82286589963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.2393609749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3798.24966580543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3786.45953692892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3862.90302724116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5315.92800719285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301.54172400442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6979.36603724325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6848.60516000123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7020.17654583851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8193.86308811526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8191.23352445382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8201.26752599915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8211.96258372101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8376.0592614724</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9121.36345271296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9112.92575803549</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10593.4521482469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10475.2971131889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10765.2927024221</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8179.66191471401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8070.43396490995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9493.25538105967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9423.31222550836</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9751.24117455351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10124.8105099791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10194.1475202952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9480.43605649944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9538.755220467279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9729.858927105081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9346.31900654713</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9432.32660430696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11548.3759547713</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11469.4609687655</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12776.688994732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12857.9636300803</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13134.6543105372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12937.0079919854</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12322.292526336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12298.0487845114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13338.0737602069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13486.8629602337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13483.8909975289</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13495.6330761791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15058.3778174755</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14564.8189896754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13850.1449471137</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13748.0134485333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14082.3235643938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13903.5214615085</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13385.5544760878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13357.980464857</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14615.9523501869</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14229.3026051141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13297.780252818</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12971.0666835827</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12135.1013421594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2116720792"/>
+        <c:axId val="-2114241304"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$I$1:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2116158392"/>
+        <c:axId val="-2114230824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2116720792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114241304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2114241304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116720792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2114230824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116158392"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2116158392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114230824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$S$1:$S$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>32200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64413.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134213.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166705.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199621.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232691.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>265613.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>337648.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>371092.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405144.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>439047.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>472774.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>546774.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580397.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>614800.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>648922.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>682968.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>757829.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>792311.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>827491.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>862169.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>896714.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>973434.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.008056E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.043667E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.078794E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.113847E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.19173E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.227077E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.26364E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.299185E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.334958E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.41367E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.449771E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.48658E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.522547E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.558817E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.639286E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.675746E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.75604E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.792471E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.873136E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.909385E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.990794E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.027991E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.110599E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.148677E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.232451E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.270423E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.354939E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.392148E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.475135E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.512227E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.595138E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.632025E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.714287E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.751183E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.833095E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.868935E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.949441E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.984559E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.064639E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.099228E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2103895304"/>
+        <c:axId val="-2119017000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$R$1:$R$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>2818.84979008461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049.35774174598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2822.38549836182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4561.806807597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6470.46122876776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8362.46585027784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10199.5949436229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14545.9128134025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16382.9486440885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-18637.6834438988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20543.5018473305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22373.3235305541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-27053.448568137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-28497.8343650888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31169.2985789775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-32882.4033193118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-34772.0505438283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-39528.1600544436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-41577.5202831277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-44401.9203534998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-45938.9458015348</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-47843.1186744018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-53354.6668089889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-54508.0404006946</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-58285.3897193064</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-59503.9229099722</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-61558.7027479302</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-67277.99604747471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-68878.0384081613</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-73424.50696349279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-73581.8737769173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-76113.6142730201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-81370.8708261093</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-84129.8307995724</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-88061.7724984734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-88148.8500164591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-91114.3098256886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-97318.15664247271</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-98858.3402225519</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-103777.108764459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-106092.035858781</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-112252.760211021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-112709.700697823</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-120981.153664214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-123064.717653733</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-129917.019710044</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-133833.196204165</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-138833.339285974</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-141318.449387969</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-149034.311585692</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-146482.385959497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-152141.724235636</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-153316.369397564</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-159762.46612732</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-160000.981498004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-165550.440637977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-167453.689026615</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-172548.920792855</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-170166.308644857</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-176018.369546285</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-173811.62638071</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-183096.344364306</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-177598.781073677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115502920"/>
+        <c:axId val="-2146196504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2103895304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119017000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119017000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103895304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2146196504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115502920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2115502920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146196504"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$H$1:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2471.90801716197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2471.90761420583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265.86797469198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3187.6751426629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3182.19930102282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2612.82286589963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.2393609749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3798.24966580543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3786.45953692892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3862.90302724116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5315.92800719285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301.54172400442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6979.36603724325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6848.60516000123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7020.17654583851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8193.86308811526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8191.23352445382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8201.26752599915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8211.96258372101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8376.0592614724</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9121.36345271296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9112.92575803549</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10593.4521482469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10475.2971131889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10765.2927024221</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8179.66191471401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8070.43396490995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9493.25538105967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9423.31222550836</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9751.24117455351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10124.8105099791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10194.1475202952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9480.43605649944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9538.755220467279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9729.858927105081</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9346.31900654713</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9432.32660430696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11548.3759547713</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11469.4609687655</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12776.688994732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12857.9636300803</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13134.6543105372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12937.0079919854</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12322.292526336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12298.0487845114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13338.0737602069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13486.8629602337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13483.8909975289</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13495.6330761791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15058.3778174755</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14564.8189896754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13850.1449471137</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13748.0134485333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14082.3235643938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13903.5214615085</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13385.5544760878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13357.980464857</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14615.9523501869</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14229.3026051141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13297.780252818</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12971.0666835827</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12135.1013421594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2117951368"/>
+        <c:axId val="-2115903224"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$I$1:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115149032"/>
+        <c:axId val="-2141350040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117951368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115903224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115903224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117951368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2141350040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115149032"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2115149032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141350040"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$M$2:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>3735.84314213111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3805.24206131888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3777.22356452327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3828.94813258584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3843.12471600219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3833.23213749026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3928.20817396443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3892.45723938668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3962.61464311849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3950.67746004538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3927.65791457604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3997.27236179455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3913.94010170778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4006.58395290421</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3969.78652466489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3957.41661892598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4005.78526379317</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4005.48426171651</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4124.49660928282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4048.50207076008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4036.87809510907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4107.42888851824</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4066.7259178159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4163.60906889178</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4151.6059938603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4109.09573106168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4179.05570910026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4145.34981989046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4287.54662918471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4173.45005232252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4214.79565374406</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4223.55041000514</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4240.54966035326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4318.41836990601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4206.96909417619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4244.0647893491</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4306.91691677628</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4266.71487377919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4273.30479770435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4273.88970879311</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4320.50120106737</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4259.41180676871</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4358.88160623206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4345.28366164247</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4415.46945212905</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4446.36926623869</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4443.73163327562</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4445.58968192372</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4520.10190897168</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4362.58674275682</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4368.85158953542</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4331.632490239</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4372.42169652057</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4313.25508003637</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4323.73761452837</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4320.98300916334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4322.89084099493</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4198.28674317919</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4221.50562696435</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4111.52140818866</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4221.79453788979</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4047.34596296317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2102809704"/>
+        <c:axId val="-2099890136"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$N$2:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2102510072"/>
+        <c:axId val="-2103079240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2102809704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099890136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2099890136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102809704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2103079240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102510072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2102510072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103079240"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1453,6 +4247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1463,6 +4258,452 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ida2016'!$K$1:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3694.73242330382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3694.73025188993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3763.36470211293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3734.96496553162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3788.43014014945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3799.84122296554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3787.0200168804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3879.52805740448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3844.98047073431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3914.10136884699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3902.6428786082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3879.45684393013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3948.82096056412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3867.3250086968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3958.50412675526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3924.7109124436</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3911.81427649281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3958.07422584247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3958.31982974747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4073.13644106497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3996.4645890543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3985.00635768619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4068.87922617618</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4011.75056562391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4109.45980483219</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4093.60953269429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4052.88234359705</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4121.96163468813</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4088.40313632878</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4229.24577554092</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4114.97742819712</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4154.53304352988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4163.95320285445</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4182.14578785922</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4259.7635114157</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4154.90509675647</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4187.21746543728</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4248.36142392558</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4212.285079086</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4214.82580797756</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4214.47530082756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4261.54741142577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200.84437407645</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4301.08575264035</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4288.11634793578</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4356.15105289031</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4394.1365819607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4385.51794363302</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4387.55306577324</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4458.55762336621</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4304.35228724031</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4311.51699967126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4276.69737005094</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4313.81178780663</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4256.33617580033</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4273.07144303803</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4261.46914921283</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4263.53013921933</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4142.17906055366</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4164.69282101103</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4059.04779797631</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4164.91713420215</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3993.16474416032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2118503048"/>
+        <c:axId val="-2118500104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2118503048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118500104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2118500104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118503048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ida2016'!$N$8:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-2742.62359274942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2852.26122590667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2942.66682982535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3088.37944399407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3102.48171242043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3308.30748262657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3381.86727545742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3428.28068006104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3448.99991940315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3457.70346510188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3459.54270806968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3513.78832814638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3562.51306447086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3625.42249663575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3523.40009541882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3583.35010046346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3600.99704637207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3591.4281964697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3518.29374875716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3465.12598383432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2145964024"/>
+        <c:axId val="-2145962616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2145964024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145962616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145962616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145964024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1800,6 +5041,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1809,7 +5051,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2147,6 +5389,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2156,7 +5399,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2754,6 +5997,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2768,7 +6012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3106,355 +6350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>withUnemplRateObserved!$C$1:$C$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>2471.90801716197</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2471.90761420583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2832.10534763796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2946.31433087394</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2937.66150265199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2988.00728319054</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2592.05108821683</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2583.54032601889</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2992.11608545052</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3458.5313264306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3447.33488704491</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3502.62278615308</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4550.85080605488</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4530.88196303332</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5335.5759672632</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5721.05160063247</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5604.39671980428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5734.85754494854</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6539.66664704828</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6540.23183578467</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7765.90785261664</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6537.44233175773</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6530.894734381</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6657.72355583749</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7248.25315023225</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7215.36465847751</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8457.882289220361</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8119.62280147059</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8159.0324143647</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8371.568993003561</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6568.32265213683</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6522.33073546855</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7851.93046757931</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7523.35216718273</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7453.36797626202</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7696.23800027293</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7919.28856588064</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7954.15612303297</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9507.989128763609</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7446.64620151523</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7477.33992408778</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7613.03373485845</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7323.17121275802</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7386.98066700287</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8882.278987636</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8826.467806617309</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8745.925389632381</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10505.3051095258</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9595.52285115677</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9663.36865260388</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11627.7200705803</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9832.045539705199</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9654.42337983741</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11724.8489980831</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9236.16526863055</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9196.73381531212</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11106.456705773</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9865.33326709989</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9965.54516286339</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12017.0422206078</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9951.55030714782</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9942.51339700484</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12021.0304119956</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10948.7406469278</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10561.9297905285</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12901.141297832</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10019.1353499615</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9923.50106257438</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>12184.0856379776</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10122.6218552879</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9974.50118387367</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12254.6820737545</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9625.86792014302</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9608.76030809579</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11727.9092571644</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10382.0670660383</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10089.5105904896</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12488.1663153958</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>9480.475666447101</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9232.61313673986</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11561.3946389896</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8727.28129529874</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8357.94000223804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2141059992"/>
-        <c:axId val="-2141057048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2141059992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141057048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2141057048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141059992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -3488,6 +6383,7 @@
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3497,6 +6393,53 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3568,7 +6511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3595,11 +6538,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9210081" cy="5616911"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9207500" cy="5612581"/>
+    <xdr:ext cx="9189431" cy="5616911"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3624,9 +6689,44 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9207500" cy="5612581"/>
+    <xdr:ext cx="9210081" cy="5616911"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3649,7 +6749,34 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9189431" cy="5616911"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3714,25 +6841,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9189431" cy="5616911"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3745,7 +6864,34 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9189431" cy="5616911"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14558,15 +17704,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="N8" sqref="N8:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>0</v>
       </c>
@@ -14585,8 +17731,17 @@
       <c r="G1">
         <v>3694.7324233038198</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>32213</v>
+      </c>
+      <c r="K1">
+        <v>3694.7324233038198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14605,8 +17760,17 @@
       <c r="G2">
         <v>3694.7302518899301</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>64432</v>
+      </c>
+      <c r="K2">
+        <v>3694.7302518899301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14625,8 +17789,17 @@
       <c r="G3">
         <v>4316.38231749845</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>97324</v>
+      </c>
+      <c r="K3">
+        <v>3763.36470211293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14645,8 +17818,17 @@
       <c r="G4">
         <v>3905.1411635846098</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>129740</v>
+      </c>
+      <c r="K4">
+        <v>3734.9649655316198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14665,8 +17847,17 @@
       <c r="G5">
         <v>3915.5511459571499</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>162710</v>
+      </c>
+      <c r="K5">
+        <v>3788.4301401494499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14685,8 +17876,17 @@
       <c r="G6">
         <v>3958.4308215682099</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>195732</v>
+      </c>
+      <c r="K6">
+        <v>3799.8412229655401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14705,8 +17905,17 @@
       <c r="G7">
         <v>3969.41129911485</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>228635</v>
+      </c>
+      <c r="K7">
+        <v>3787.0200168803999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14725,8 +17934,26 @@
       <c r="G8">
         <v>3940.9244182019202</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>262379</v>
+      </c>
+      <c r="K8">
+        <v>3879.52805740448</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>36981</v>
+      </c>
+      <c r="N8">
+        <v>-2742.6235927494199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14745,8 +17972,26 @@
       <c r="G9">
         <v>4572.2058480185597</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>295831</v>
+      </c>
+      <c r="K9">
+        <v>3844.9804707343101</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>75313</v>
+      </c>
+      <c r="N9">
+        <v>-2852.26122590667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14765,8 +18010,26 @@
       <c r="G10">
         <v>4043.23722966063</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>329834</v>
+      </c>
+      <c r="K10">
+        <v>3914.1013688469902</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>114970</v>
+      </c>
+      <c r="N10">
+        <v>-2942.6668298253499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14785,8 +18048,26 @@
       <c r="G11">
         <v>4005.8362480457699</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>363761</v>
+      </c>
+      <c r="K11">
+        <v>3902.6428786082001</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>155396</v>
+      </c>
+      <c r="N11">
+        <v>-3088.3794439940698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14805,8 +18086,26 @@
       <c r="G12">
         <v>4080.5388835004701</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>397504</v>
+      </c>
+      <c r="K12">
+        <v>3879.4568439301302</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>196849</v>
+      </c>
+      <c r="N12">
+        <v>-3102.4817124204301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14825,8 +18124,26 @@
       <c r="G13">
         <v>4068.6280832225598</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>431827</v>
+      </c>
+      <c r="K13">
+        <v>3948.82096056412</v>
+      </c>
+      <c r="L13">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>239094</v>
+      </c>
+      <c r="N13">
+        <v>-3308.3074826265702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14845,8 +18162,26 @@
       <c r="G14">
         <v>4040.9850910816299</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>465430</v>
+      </c>
+      <c r="K14">
+        <v>3867.3250086968001</v>
+      </c>
+      <c r="L14">
+        <v>38</v>
+      </c>
+      <c r="M14">
+        <v>281897</v>
+      </c>
+      <c r="N14">
+        <v>-3381.86727545742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14865,8 +18200,26 @@
       <c r="G15">
         <v>4774.5203864958403</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>499852</v>
+      </c>
+      <c r="K15">
+        <v>3958.5041267552601</v>
+      </c>
+      <c r="L15">
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>325590</v>
+      </c>
+      <c r="N15">
+        <v>-3428.2806800610401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14885,8 +18238,26 @@
       <c r="G16">
         <v>4132.1672649086704</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>533998</v>
+      </c>
+      <c r="K16">
+        <v>3924.7109124436001</v>
+      </c>
+      <c r="L16">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>369447</v>
+      </c>
+      <c r="N16">
+        <v>-3448.9999194031502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14905,8 +18276,26 @@
       <c r="G17">
         <v>4031.8114165237098</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>568033</v>
+      </c>
+      <c r="K17">
+        <v>3911.8142764928102</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>413273</v>
+      </c>
+      <c r="N17">
+        <v>-3457.7034651018798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14925,8 +18314,26 @@
       <c r="G18">
         <v>4118.0465331979603</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>602515</v>
+      </c>
+      <c r="K18">
+        <v>3958.0742258424698</v>
+      </c>
+      <c r="L18">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>457440</v>
+      </c>
+      <c r="N18">
+        <v>-3459.54270806968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14945,8 +18352,26 @@
       <c r="G19">
         <v>4090.1101759173498</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>636995</v>
+      </c>
+      <c r="K19">
+        <v>3958.3198297474701</v>
+      </c>
+      <c r="L19">
+        <v>56</v>
+      </c>
+      <c r="M19">
+        <v>502440</v>
+      </c>
+      <c r="N19">
+        <v>-3513.7883281463801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14965,8 +18390,26 @@
       <c r="G20">
         <v>4058.40144368752</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>23</v>
+      </c>
+      <c r="J20">
+        <v>672173</v>
+      </c>
+      <c r="K20">
+        <v>4073.1364410649699</v>
+      </c>
+      <c r="L20">
+        <v>59</v>
+      </c>
+      <c r="M20">
+        <v>548284</v>
+      </c>
+      <c r="N20">
+        <v>-3562.5130644708602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14985,8 +18428,26 @@
       <c r="G21">
         <v>4806.7171298289004</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>706818</v>
+      </c>
+      <c r="K21">
+        <v>3996.4645890543002</v>
+      </c>
+      <c r="L21">
+        <v>62</v>
+      </c>
+      <c r="M21">
+        <v>594203</v>
+      </c>
+      <c r="N21">
+        <v>-3625.4224966357501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15005,8 +18466,26 @@
       <c r="G22">
         <v>4110.3276729783202</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>741385</v>
+      </c>
+      <c r="K22">
+        <v>3985.0063576861899</v>
+      </c>
+      <c r="L22">
+        <v>65</v>
+      </c>
+      <c r="M22">
+        <v>639832</v>
+      </c>
+      <c r="N22">
+        <v>-3523.40009541882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15025,8 +18504,26 @@
       <c r="G23">
         <v>4113.92782451127</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>776607</v>
+      </c>
+      <c r="K23">
+        <v>4068.8792261761801</v>
+      </c>
+      <c r="L23">
+        <v>68</v>
+      </c>
+      <c r="M23">
+        <v>685344</v>
+      </c>
+      <c r="N23">
+        <v>-3583.35010046346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15045,8 +18542,26 @@
       <c r="G24">
         <v>4243.3572424723498</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>811218</v>
+      </c>
+      <c r="K24">
+        <v>4011.75056562391</v>
+      </c>
+      <c r="L24">
+        <v>71</v>
+      </c>
+      <c r="M24">
+        <v>730649</v>
+      </c>
+      <c r="N24">
+        <v>-3600.9970463720701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15065,8 +18580,26 @@
       <c r="G25">
         <v>4163.1695317245503</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>846845</v>
+      </c>
+      <c r="K25">
+        <v>4109.4598048321895</v>
+      </c>
+      <c r="L25">
+        <v>74</v>
+      </c>
+      <c r="M25">
+        <v>775715</v>
+      </c>
+      <c r="N25">
+        <v>-3591.4281964697002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15085,8 +18618,26 @@
       <c r="G26">
         <v>4151.3224397968397</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>881998</v>
+      </c>
+      <c r="K26">
+        <v>4093.60953269429</v>
+      </c>
+      <c r="L26">
+        <v>77</v>
+      </c>
+      <c r="M26">
+        <v>820188</v>
+      </c>
+      <c r="N26">
+        <v>-3518.2937487571598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15105,8 +18656,26 @@
       <c r="G27">
         <v>5134.6702794388302</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>917036</v>
+      </c>
+      <c r="K27">
+        <v>4052.8823435970498</v>
+      </c>
+      <c r="L27">
+        <v>80</v>
+      </c>
+      <c r="M27">
+        <v>864194</v>
+      </c>
+      <c r="N27">
+        <v>-3465.1259838343199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15125,8 +18694,17 @@
       <c r="G28">
         <v>4388.4260390728396</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>952683</v>
+      </c>
+      <c r="K28">
+        <v>4121.9616346881303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15145,8 +18723,17 @@
       <c r="G29">
         <v>4270.9491849133401</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>988046</v>
+      </c>
+      <c r="K29">
+        <v>4088.40313632878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15165,8 +18752,17 @@
       <c r="G30">
         <v>4361.0688719329601</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>1024591</v>
+      </c>
+      <c r="K30">
+        <v>4229.2457755409196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15185,8 +18781,17 @@
       <c r="G31">
         <v>4332.3649163084901</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>1060164</v>
+      </c>
+      <c r="K31">
+        <v>4114.9774281971204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15205,8 +18810,17 @@
       <c r="G32">
         <v>4277.0927057753597</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32">
+        <v>37</v>
+      </c>
+      <c r="J32">
+        <v>1095873</v>
+      </c>
+      <c r="K32">
+        <v>4154.5330435298802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15225,8 +18839,17 @@
       <c r="G33">
         <v>5120.8027457688404</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33">
+        <v>39</v>
+      </c>
+      <c r="J33">
+        <v>1131774</v>
+      </c>
+      <c r="K33">
+        <v>4163.95320285445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15245,8 +18868,17 @@
       <c r="G34">
         <v>4344.6407878881901</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <v>1167883</v>
+      </c>
+      <c r="K34">
+        <v>4182.14578785922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15265,8 +18897,17 @@
       <c r="G35">
         <v>4316.4129922390402</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35">
+        <v>41</v>
+      </c>
+      <c r="J35">
+        <v>1204750</v>
+      </c>
+      <c r="K35">
+        <v>4259.7635114157001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15285,8 +18926,17 @@
       <c r="G36">
         <v>4478.8978035314703</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36">
+        <v>42</v>
+      </c>
+      <c r="J36">
+        <v>1240720</v>
+      </c>
+      <c r="K36">
+        <v>4154.9050967564699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15305,8 +18955,17 @@
       <c r="G37">
         <v>4366.0480367406899</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37">
+        <v>43</v>
+      </c>
+      <c r="J37">
+        <v>1276996</v>
+      </c>
+      <c r="K37">
+        <v>4187.2174654372802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15325,8 +18984,17 @@
       <c r="G38">
         <v>4404.2353408517001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38">
+        <v>45</v>
+      </c>
+      <c r="J38">
+        <v>1313756</v>
+      </c>
+      <c r="K38">
+        <v>4248.3614239255803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15345,8 +19013,17 @@
       <c r="G39">
         <v>5213.4650337142502</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39">
+        <v>46</v>
+      </c>
+      <c r="J39">
+        <v>1350193</v>
+      </c>
+      <c r="K39">
+        <v>4212.2850790860002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15365,8 +19042,17 @@
       <c r="G40">
         <v>4414.4355673063401</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40">
+        <v>48</v>
+      </c>
+      <c r="J40">
+        <v>1386624</v>
+      </c>
+      <c r="K40">
+        <v>4214.8258079775596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15385,8 +19071,17 @@
       <c r="G41">
         <v>4406.0934940816196</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41">
+        <v>49</v>
+      </c>
+      <c r="J41">
+        <v>1423063</v>
+      </c>
+      <c r="K41">
+        <v>4214.4753008275602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15405,8 +19100,17 @@
       <c r="G42">
         <v>4469.7217743728797</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <v>1459912</v>
+      </c>
+      <c r="K42">
+        <v>4261.5474114257704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15425,8 +19129,17 @@
       <c r="G43">
         <v>4354.2632360757798</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43">
+        <v>52</v>
+      </c>
+      <c r="J43">
+        <v>1496154</v>
+      </c>
+      <c r="K43">
+        <v>4200.8443740764496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15445,8 +19158,17 @@
       <c r="G44">
         <v>4375.2842510616802</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44">
+        <v>54</v>
+      </c>
+      <c r="J44">
+        <v>1533451</v>
+      </c>
+      <c r="K44">
+        <v>4301.0857526403497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15465,8 +19187,17 @@
       <c r="G45">
         <v>5247.32338077229</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45">
+        <v>55</v>
+      </c>
+      <c r="J45">
+        <v>1570559</v>
+      </c>
+      <c r="K45">
+        <v>4288.1163479357801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15485,8 +19216,17 @@
       <c r="G46">
         <v>4455.5793526487996</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46">
+        <v>57</v>
+      </c>
+      <c r="J46">
+        <v>1608237</v>
+      </c>
+      <c r="K46">
+        <v>4356.15105289031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15505,8 +19245,17 @@
       <c r="G47">
         <v>4409.78378193964</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47">
+        <v>58</v>
+      </c>
+      <c r="J47">
+        <v>1646267</v>
+      </c>
+      <c r="K47">
+        <v>4394.1365819606999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15525,8 +19274,17 @@
       <c r="G48">
         <v>5268.2166660970597</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>1684239</v>
+      </c>
+      <c r="K48">
+        <v>4385.51794363302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15545,8 +19303,17 @@
       <c r="G49">
         <v>4423.2680678678198</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49">
+        <v>61</v>
+      </c>
+      <c r="J49">
+        <v>1722236</v>
+      </c>
+      <c r="K49">
+        <v>4387.5530657732397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15565,8 +19332,17 @@
       <c r="G50">
         <v>4421.9156204845403</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50">
+        <v>63</v>
+      </c>
+      <c r="J50">
+        <v>1760745</v>
+      </c>
+      <c r="K50">
+        <v>4458.5576233662096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15585,8 +19361,17 @@
       <c r="G51">
         <v>5274.19221463961</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51">
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>1798003</v>
+      </c>
+      <c r="K51">
+        <v>4304.35228724031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15605,8 +19390,17 @@
       <c r="G52">
         <v>4472.8449744540503</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52">
+        <v>66</v>
+      </c>
+      <c r="J52">
+        <v>1835395</v>
+      </c>
+      <c r="K52">
+        <v>4311.5169996712602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15625,8 +19419,17 @@
       <c r="G53">
         <v>4389.6018580833097</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53">
+        <v>67</v>
+      </c>
+      <c r="J53">
+        <v>1872494</v>
+      </c>
+      <c r="K53">
+        <v>4276.6973700509398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15645,8 +19448,17 @@
       <c r="G54">
         <v>5265.8355577273696</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54">
+        <v>69</v>
+      </c>
+      <c r="J54">
+        <v>1909881</v>
+      </c>
+      <c r="K54">
+        <v>4313.8117878066296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15665,8 +19477,17 @@
       <c r="G55">
         <v>4469.8660043787704</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55">
+        <v>70</v>
+      </c>
+      <c r="J55">
+        <v>1946738</v>
+      </c>
+      <c r="K55">
+        <v>4256.3361758003302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15685,8 +19506,17 @@
       <c r="G56">
         <v>4448.4234479799297</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56">
+        <v>72</v>
+      </c>
+      <c r="J56">
+        <v>1983734</v>
+      </c>
+      <c r="K56">
+        <v>4273.0714430380303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15705,8 +19535,17 @@
       <c r="G57">
         <v>5349.9970445834897</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57">
+        <v>73</v>
+      </c>
+      <c r="J57">
+        <v>2020580</v>
+      </c>
+      <c r="K57">
+        <v>4261.4691492128304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15725,8 +19564,17 @@
       <c r="G58">
         <v>4522.9852311445602</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58">
+        <v>75</v>
+      </c>
+      <c r="J58">
+        <v>2057420</v>
+      </c>
+      <c r="K58">
+        <v>4263.5301392193296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15745,8 +19593,17 @@
       <c r="G59">
         <v>4564.9437641582999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59">
+        <v>76</v>
+      </c>
+      <c r="J59">
+        <v>2093253</v>
+      </c>
+      <c r="K59">
+        <v>4142.1790605536598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15765,8 +19622,17 @@
       <c r="G60">
         <v>5468.27816608183</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60">
+        <v>78</v>
+      </c>
+      <c r="J60">
+        <v>2129271</v>
+      </c>
+      <c r="K60">
+        <v>4164.69282101103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15785,8 +19651,17 @@
       <c r="G61">
         <v>4567.7516850738302</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61">
+        <v>79</v>
+      </c>
+      <c r="J61">
+        <v>2164445</v>
+      </c>
+      <c r="K61">
+        <v>4059.04779797631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15805,8 +19680,17 @@
       <c r="G62">
         <v>4580.7826809414801</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62">
+        <v>81</v>
+      </c>
+      <c r="J62">
+        <v>2200534</v>
+      </c>
+      <c r="K62">
+        <v>4164.91713420215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15825,8 +19709,17 @@
       <c r="G63">
         <v>5487.5138285057401</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63">
+        <v>82</v>
+      </c>
+      <c r="J63">
+        <v>2235091</v>
+      </c>
+      <c r="K63">
+        <v>3993.16474416032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16248,6 +20141,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17455,15 +21349,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:19">
       <c r="A1">
         <v>0</v>
       </c>
@@ -17476,8 +21370,44 @@
       <c r="D1">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>32213</v>
+      </c>
+      <c r="H1">
+        <v>2471.9080171619698</v>
+      </c>
+      <c r="I1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>32213</v>
+      </c>
+      <c r="M1">
+        <v>3735.8437762896901</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>32213</v>
+      </c>
+      <c r="R1">
+        <v>2818.84979008461</v>
+      </c>
+      <c r="S1">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17490,8 +21420,44 @@
       <c r="D2">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>64432</v>
+      </c>
+      <c r="H2">
+        <v>2471.9076142058302</v>
+      </c>
+      <c r="I2">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>64432</v>
+      </c>
+      <c r="M2">
+        <v>3735.8431421311102</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>64432</v>
+      </c>
+      <c r="R2">
+        <v>1049.3577417459801</v>
+      </c>
+      <c r="S2">
+        <v>64413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17504,8 +21470,44 @@
       <c r="D3">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>97324</v>
+      </c>
+      <c r="H3">
+        <v>3265.8679746919802</v>
+      </c>
+      <c r="I3">
+        <v>12.18</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>97324</v>
+      </c>
+      <c r="M3">
+        <v>3805.2420613188801</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>97324</v>
+      </c>
+      <c r="R3">
+        <v>-2822.3854983618198</v>
+      </c>
+      <c r="S3">
+        <v>134213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17518,8 +21520,44 @@
       <c r="D4">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>129740</v>
+      </c>
+      <c r="H4">
+        <v>3187.6751426628998</v>
+      </c>
+      <c r="I4">
+        <v>12.18</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>129740</v>
+      </c>
+      <c r="M4">
+        <v>3777.2235645232699</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>129740</v>
+      </c>
+      <c r="R4">
+        <v>-4561.8068075970004</v>
+      </c>
+      <c r="S4">
+        <v>166705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17532,8 +21570,44 @@
       <c r="D5">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>162710</v>
+      </c>
+      <c r="H5">
+        <v>3182.1993010228198</v>
+      </c>
+      <c r="I5">
+        <v>12.18</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>162710</v>
+      </c>
+      <c r="M5">
+        <v>3828.9481325858401</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>162710</v>
+      </c>
+      <c r="R5">
+        <v>-6470.4612287677601</v>
+      </c>
+      <c r="S5">
+        <v>199621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17546,8 +21620,44 @@
       <c r="D6">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>195732</v>
+      </c>
+      <c r="H6">
+        <v>2612.82286589963</v>
+      </c>
+      <c r="I6">
+        <v>10.45</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>195732</v>
+      </c>
+      <c r="M6">
+        <v>3843.1247160021899</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>195732</v>
+      </c>
+      <c r="R6">
+        <v>-8362.4658502778402</v>
+      </c>
+      <c r="S6">
+        <v>232691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17560,8 +21670,44 @@
       <c r="D7">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>228635</v>
+      </c>
+      <c r="H7">
+        <v>2604.2393609749001</v>
+      </c>
+      <c r="I7">
+        <v>10.45</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>228635</v>
+      </c>
+      <c r="M7">
+        <v>3833.2321374902599</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>228635</v>
+      </c>
+      <c r="R7">
+        <v>-10199.5949436229</v>
+      </c>
+      <c r="S7">
+        <v>265613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17574,8 +21720,44 @@
       <c r="D8">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>262379</v>
+      </c>
+      <c r="H8">
+        <v>3798.2496658054301</v>
+      </c>
+      <c r="I8">
+        <v>13.62</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>262379</v>
+      </c>
+      <c r="M8">
+        <v>3928.20817396443</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>262379</v>
+      </c>
+      <c r="R8">
+        <v>-14545.9128134025</v>
+      </c>
+      <c r="S8">
+        <v>337648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17588,8 +21770,44 @@
       <c r="D9">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>295831</v>
+      </c>
+      <c r="H9">
+        <v>3786.45953692892</v>
+      </c>
+      <c r="I9">
+        <v>13.62</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>295831</v>
+      </c>
+      <c r="M9">
+        <v>3892.4572393866802</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>295831</v>
+      </c>
+      <c r="R9">
+        <v>-16382.948644088499</v>
+      </c>
+      <c r="S9">
+        <v>371092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17602,8 +21820,44 @@
       <c r="D10">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>329834</v>
+      </c>
+      <c r="H10">
+        <v>3862.9030272411601</v>
+      </c>
+      <c r="I10">
+        <v>13.62</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>329834</v>
+      </c>
+      <c r="M10">
+        <v>3962.6146431184902</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>329834</v>
+      </c>
+      <c r="R10">
+        <v>-18637.683443898801</v>
+      </c>
+      <c r="S10">
+        <v>405144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17616,8 +21870,44 @@
       <c r="D11">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>363761</v>
+      </c>
+      <c r="H11">
+        <v>5315.9280071928497</v>
+      </c>
+      <c r="I11">
+        <v>17.57</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>363761</v>
+      </c>
+      <c r="M11">
+        <v>3950.67746004538</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>363761</v>
+      </c>
+      <c r="R11">
+        <v>-20543.501847330499</v>
+      </c>
+      <c r="S11">
+        <v>439047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17630,8 +21920,44 @@
       <c r="D12">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>397504</v>
+      </c>
+      <c r="H12">
+        <v>5301.5417240044198</v>
+      </c>
+      <c r="I12">
+        <v>17.57</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>397504</v>
+      </c>
+      <c r="M12">
+        <v>3927.6579145760402</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>397504</v>
+      </c>
+      <c r="R12">
+        <v>-22373.323530554098</v>
+      </c>
+      <c r="S12">
+        <v>472774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17644,8 +21970,44 @@
       <c r="D13">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>431827</v>
+      </c>
+      <c r="H13">
+        <v>6979.3660372432496</v>
+      </c>
+      <c r="I13">
+        <v>21.74</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>431827</v>
+      </c>
+      <c r="M13">
+        <v>3997.2723617945499</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>431827</v>
+      </c>
+      <c r="R13">
+        <v>-27053.448568136999</v>
+      </c>
+      <c r="S13">
+        <v>546774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17658,8 +22020,44 @@
       <c r="D14">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>465430</v>
+      </c>
+      <c r="H14">
+        <v>6848.6051600012297</v>
+      </c>
+      <c r="I14">
+        <v>21.74</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>465430</v>
+      </c>
+      <c r="M14">
+        <v>3913.9401017077798</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>465430</v>
+      </c>
+      <c r="R14">
+        <v>-28497.834365088798</v>
+      </c>
+      <c r="S14">
+        <v>580397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17672,8 +22070,44 @@
       <c r="D15">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>499852</v>
+      </c>
+      <c r="H15">
+        <v>7020.1765458385098</v>
+      </c>
+      <c r="I15">
+        <v>21.74</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>499852</v>
+      </c>
+      <c r="M15">
+        <v>4006.58395290421</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>499852</v>
+      </c>
+      <c r="R15">
+        <v>-31169.298578977501</v>
+      </c>
+      <c r="S15">
+        <v>614800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17686,8 +22120,44 @@
       <c r="D16">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>533998</v>
+      </c>
+      <c r="H16">
+        <v>8193.8630881152603</v>
+      </c>
+      <c r="I16">
+        <v>24.98</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>533998</v>
+      </c>
+      <c r="M16">
+        <v>3969.7865246648898</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>533998</v>
+      </c>
+      <c r="R16">
+        <v>-32882.403319311801</v>
+      </c>
+      <c r="S16">
+        <v>648922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17700,8 +22170,44 @@
       <c r="D17">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>568033</v>
+      </c>
+      <c r="H17">
+        <v>8191.2335244538199</v>
+      </c>
+      <c r="I17">
+        <v>24.98</v>
+      </c>
+      <c r="K17">
+        <v>19</v>
+      </c>
+      <c r="L17">
+        <v>568033</v>
+      </c>
+      <c r="M17">
+        <v>3957.4166189259799</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>19</v>
+      </c>
+      <c r="Q17">
+        <v>568033</v>
+      </c>
+      <c r="R17">
+        <v>-34772.0505438283</v>
+      </c>
+      <c r="S17">
+        <v>682968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17714,8 +22220,44 @@
       <c r="D18">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>602515</v>
+      </c>
+      <c r="H18">
+        <v>8201.2675259991502</v>
+      </c>
+      <c r="I18">
+        <v>24.72</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>602515</v>
+      </c>
+      <c r="M18">
+        <v>4005.7852637931701</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>602515</v>
+      </c>
+      <c r="R18">
+        <v>-39528.160054443601</v>
+      </c>
+      <c r="S18">
+        <v>757829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17728,8 +22270,44 @@
       <c r="D19">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>636995</v>
+      </c>
+      <c r="H19">
+        <v>8211.9625837210097</v>
+      </c>
+      <c r="I19">
+        <v>24.72</v>
+      </c>
+      <c r="K19">
+        <v>22</v>
+      </c>
+      <c r="L19">
+        <v>636995</v>
+      </c>
+      <c r="M19">
+        <v>4005.48426171651</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>636995</v>
+      </c>
+      <c r="R19">
+        <v>-41577.520283127698</v>
+      </c>
+      <c r="S19">
+        <v>792311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17742,8 +22320,44 @@
       <c r="D20">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>672173</v>
+      </c>
+      <c r="H20">
+        <v>8376.0592614723992</v>
+      </c>
+      <c r="I20">
+        <v>24.72</v>
+      </c>
+      <c r="K20">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <v>672173</v>
+      </c>
+      <c r="M20">
+        <v>4124.4966092828199</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>23</v>
+      </c>
+      <c r="Q20">
+        <v>672173</v>
+      </c>
+      <c r="R20">
+        <v>-44401.920353499801</v>
+      </c>
+      <c r="S20">
+        <v>827491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17756,8 +22370,44 @@
       <c r="D21">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>706818</v>
+      </c>
+      <c r="H21">
+        <v>9121.3634527129598</v>
+      </c>
+      <c r="I21">
+        <v>27.47</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>706818</v>
+      </c>
+      <c r="M21">
+        <v>4048.5020707600802</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <v>706818</v>
+      </c>
+      <c r="R21">
+        <v>-45938.945801534799</v>
+      </c>
+      <c r="S21">
+        <v>862169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17770,8 +22420,44 @@
       <c r="D22">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>741385</v>
+      </c>
+      <c r="H22">
+        <v>9112.9257580354897</v>
+      </c>
+      <c r="I22">
+        <v>27.47</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>741385</v>
+      </c>
+      <c r="M22">
+        <v>4036.8780951090698</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22">
+        <v>741385</v>
+      </c>
+      <c r="R22">
+        <v>-47843.118674401798</v>
+      </c>
+      <c r="S22">
+        <v>896714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17784,8 +22470,44 @@
       <c r="D23">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>776607</v>
+      </c>
+      <c r="H23">
+        <v>10593.452148246901</v>
+      </c>
+      <c r="I23">
+        <v>30.64</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <v>776607</v>
+      </c>
+      <c r="M23">
+        <v>4107.4288885182395</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>27</v>
+      </c>
+      <c r="Q23">
+        <v>776607</v>
+      </c>
+      <c r="R23">
+        <v>-53354.666808988899</v>
+      </c>
+      <c r="S23">
+        <v>973434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17798,8 +22520,44 @@
       <c r="D24">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>811218</v>
+      </c>
+      <c r="H24">
+        <v>10475.297113188901</v>
+      </c>
+      <c r="I24">
+        <v>30.64</v>
+      </c>
+      <c r="K24">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>811218</v>
+      </c>
+      <c r="M24">
+        <v>4066.7259178159002</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>28</v>
+      </c>
+      <c r="Q24">
+        <v>811218</v>
+      </c>
+      <c r="R24">
+        <v>-54508.040400694597</v>
+      </c>
+      <c r="S24">
+        <v>1008056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17812,8 +22570,44 @@
       <c r="D25">
         <v>27.47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>846845</v>
+      </c>
+      <c r="H25">
+        <v>10765.292702422101</v>
+      </c>
+      <c r="I25">
+        <v>30.64</v>
+      </c>
+      <c r="K25">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>846845</v>
+      </c>
+      <c r="M25">
+        <v>4163.6090688917802</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>29</v>
+      </c>
+      <c r="Q25">
+        <v>846845</v>
+      </c>
+      <c r="R25">
+        <v>-58285.389719306397</v>
+      </c>
+      <c r="S25">
+        <v>1043667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17826,8 +22620,44 @@
       <c r="D26">
         <v>27.47</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>881998</v>
+      </c>
+      <c r="H26">
+        <v>8179.66191471401</v>
+      </c>
+      <c r="I26">
+        <v>24.46</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>881998</v>
+      </c>
+      <c r="M26">
+        <v>4151.6059938603003</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>881998</v>
+      </c>
+      <c r="R26">
+        <v>-59503.9229099722</v>
+      </c>
+      <c r="S26">
+        <v>1078794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17840,8 +22670,44 @@
       <c r="D27">
         <v>27.47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>917036</v>
+      </c>
+      <c r="H27">
+        <v>8070.4339649099502</v>
+      </c>
+      <c r="I27">
+        <v>24.46</v>
+      </c>
+      <c r="K27">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>917036</v>
+      </c>
+      <c r="M27">
+        <v>4109.0957310616805</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>31</v>
+      </c>
+      <c r="Q27">
+        <v>917036</v>
+      </c>
+      <c r="R27">
+        <v>-61558.702747930198</v>
+      </c>
+      <c r="S27">
+        <v>1113847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17854,8 +22720,44 @@
       <c r="D28">
         <v>30.64</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>952683</v>
+      </c>
+      <c r="H28">
+        <v>9493.2553810596692</v>
+      </c>
+      <c r="I28">
+        <v>27.79</v>
+      </c>
+      <c r="K28">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>952683</v>
+      </c>
+      <c r="M28">
+        <v>4179.0557091002602</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>33</v>
+      </c>
+      <c r="Q28">
+        <v>952683</v>
+      </c>
+      <c r="R28">
+        <v>-67277.996047474706</v>
+      </c>
+      <c r="S28">
+        <v>1191730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17868,8 +22770,44 @@
       <c r="D29">
         <v>30.64</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>988046</v>
+      </c>
+      <c r="H29">
+        <v>9423.3122255083599</v>
+      </c>
+      <c r="I29">
+        <v>27.79</v>
+      </c>
+      <c r="K29">
+        <v>34</v>
+      </c>
+      <c r="L29">
+        <v>988046</v>
+      </c>
+      <c r="M29">
+        <v>4145.3498198904599</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>34</v>
+      </c>
+      <c r="Q29">
+        <v>988046</v>
+      </c>
+      <c r="R29">
+        <v>-68878.038408161301</v>
+      </c>
+      <c r="S29">
+        <v>1227077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17882,8 +22820,44 @@
       <c r="D30">
         <v>30.64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>1024591</v>
+      </c>
+      <c r="H30">
+        <v>9751.2411745535101</v>
+      </c>
+      <c r="I30">
+        <v>27.79</v>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>1024591</v>
+      </c>
+      <c r="M30">
+        <v>4287.5466291847097</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>35</v>
+      </c>
+      <c r="Q30">
+        <v>1024591</v>
+      </c>
+      <c r="R30">
+        <v>-73424.506963492793</v>
+      </c>
+      <c r="S30">
+        <v>1263640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17896,8 +22870,44 @@
       <c r="D31">
         <v>24.46</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>1060164</v>
+      </c>
+      <c r="H31">
+        <v>10124.810509979099</v>
+      </c>
+      <c r="I31">
+        <v>29.43</v>
+      </c>
+      <c r="K31">
+        <v>36</v>
+      </c>
+      <c r="L31">
+        <v>1060164</v>
+      </c>
+      <c r="M31">
+        <v>4173.4500523225197</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>36</v>
+      </c>
+      <c r="Q31">
+        <v>1060164</v>
+      </c>
+      <c r="R31">
+        <v>-73581.873776917302</v>
+      </c>
+      <c r="S31">
+        <v>1299185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17910,8 +22920,44 @@
       <c r="D32">
         <v>24.46</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>37</v>
+      </c>
+      <c r="G32">
+        <v>1095873</v>
+      </c>
+      <c r="H32">
+        <v>10194.147520295201</v>
+      </c>
+      <c r="I32">
+        <v>29.43</v>
+      </c>
+      <c r="K32">
+        <v>37</v>
+      </c>
+      <c r="L32">
+        <v>1095873</v>
+      </c>
+      <c r="M32">
+        <v>4214.7956537440596</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>37</v>
+      </c>
+      <c r="Q32">
+        <v>1095873</v>
+      </c>
+      <c r="R32">
+        <v>-76113.614273020095</v>
+      </c>
+      <c r="S32">
+        <v>1334958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17924,8 +22970,44 @@
       <c r="D33">
         <v>24.46</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="G33">
+        <v>1131774</v>
+      </c>
+      <c r="H33">
+        <v>9480.4360564994404</v>
+      </c>
+      <c r="I33">
+        <v>27.49</v>
+      </c>
+      <c r="K33">
+        <v>39</v>
+      </c>
+      <c r="L33">
+        <v>1131774</v>
+      </c>
+      <c r="M33">
+        <v>4223.5504100051403</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>39</v>
+      </c>
+      <c r="Q33">
+        <v>1131774</v>
+      </c>
+      <c r="R33">
+        <v>-81370.870826109298</v>
+      </c>
+      <c r="S33">
+        <v>1413670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17938,8 +23020,44 @@
       <c r="D34">
         <v>27.79</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>1167883</v>
+      </c>
+      <c r="H34">
+        <v>9538.7552204672793</v>
+      </c>
+      <c r="I34">
+        <v>27.49</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+      <c r="L34">
+        <v>1167883</v>
+      </c>
+      <c r="M34">
+        <v>4240.5496603532602</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>40</v>
+      </c>
+      <c r="Q34">
+        <v>1167883</v>
+      </c>
+      <c r="R34">
+        <v>-84129.830799572403</v>
+      </c>
+      <c r="S34">
+        <v>1449771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17952,8 +23070,44 @@
       <c r="D35">
         <v>27.79</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>1204750</v>
+      </c>
+      <c r="H35">
+        <v>9729.8589271050805</v>
+      </c>
+      <c r="I35">
+        <v>27.49</v>
+      </c>
+      <c r="K35">
+        <v>41</v>
+      </c>
+      <c r="L35">
+        <v>1204750</v>
+      </c>
+      <c r="M35">
+        <v>4318.4183699060104</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>41</v>
+      </c>
+      <c r="Q35">
+        <v>1204750</v>
+      </c>
+      <c r="R35">
+        <v>-88061.772498473394</v>
+      </c>
+      <c r="S35">
+        <v>1486580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17966,8 +23120,44 @@
       <c r="D36">
         <v>27.79</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>1240720</v>
+      </c>
+      <c r="H36">
+        <v>9346.3190065471299</v>
+      </c>
+      <c r="I36">
+        <v>27.09</v>
+      </c>
+      <c r="K36">
+        <v>42</v>
+      </c>
+      <c r="L36">
+        <v>1240720</v>
+      </c>
+      <c r="M36">
+        <v>4206.9690941761901</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>42</v>
+      </c>
+      <c r="Q36">
+        <v>1240720</v>
+      </c>
+      <c r="R36">
+        <v>-88148.850016459095</v>
+      </c>
+      <c r="S36">
+        <v>1522547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17980,8 +23170,44 @@
       <c r="D37">
         <v>29.43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>1276996</v>
+      </c>
+      <c r="H37">
+        <v>9432.3266043069598</v>
+      </c>
+      <c r="I37">
+        <v>27.09</v>
+      </c>
+      <c r="K37">
+        <v>43</v>
+      </c>
+      <c r="L37">
+        <v>1276996</v>
+      </c>
+      <c r="M37">
+        <v>4244.0647893490996</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>43</v>
+      </c>
+      <c r="Q37">
+        <v>1276996</v>
+      </c>
+      <c r="R37">
+        <v>-91114.309825688601</v>
+      </c>
+      <c r="S37">
+        <v>1558817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17994,8 +23220,44 @@
       <c r="D38">
         <v>29.43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>1313756</v>
+      </c>
+      <c r="H38">
+        <v>11548.3759547713</v>
+      </c>
+      <c r="I38">
+        <v>32.04</v>
+      </c>
+      <c r="K38">
+        <v>45</v>
+      </c>
+      <c r="L38">
+        <v>1313756</v>
+      </c>
+      <c r="M38">
+        <v>4306.9169167762802</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>45</v>
+      </c>
+      <c r="Q38">
+        <v>1313756</v>
+      </c>
+      <c r="R38">
+        <v>-97318.156642472706</v>
+      </c>
+      <c r="S38">
+        <v>1639286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>38</v>
       </c>
@@ -18008,8 +23270,44 @@
       <c r="D39">
         <v>29.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>1350193</v>
+      </c>
+      <c r="H39">
+        <v>11469.460968765499</v>
+      </c>
+      <c r="I39">
+        <v>32.04</v>
+      </c>
+      <c r="K39">
+        <v>46</v>
+      </c>
+      <c r="L39">
+        <v>1350193</v>
+      </c>
+      <c r="M39">
+        <v>4266.7148737791904</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>46</v>
+      </c>
+      <c r="Q39">
+        <v>1350193</v>
+      </c>
+      <c r="R39">
+        <v>-98858.340222551895</v>
+      </c>
+      <c r="S39">
+        <v>1675746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>39</v>
       </c>
@@ -18022,8 +23320,44 @@
       <c r="D40">
         <v>27.49</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>1386624</v>
+      </c>
+      <c r="H40">
+        <v>12776.688994732</v>
+      </c>
+      <c r="I40">
+        <v>35.29</v>
+      </c>
+      <c r="K40">
+        <v>48</v>
+      </c>
+      <c r="L40">
+        <v>1386624</v>
+      </c>
+      <c r="M40">
+        <v>4273.3047977043498</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>48</v>
+      </c>
+      <c r="Q40">
+        <v>1386624</v>
+      </c>
+      <c r="R40">
+        <v>-103777.108764459</v>
+      </c>
+      <c r="S40">
+        <v>1756040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18036,8 +23370,44 @@
       <c r="D41">
         <v>27.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>1423063</v>
+      </c>
+      <c r="H41">
+        <v>12857.963630080299</v>
+      </c>
+      <c r="I41">
+        <v>35.29</v>
+      </c>
+      <c r="K41">
+        <v>49</v>
+      </c>
+      <c r="L41">
+        <v>1423063</v>
+      </c>
+      <c r="M41">
+        <v>4273.88970879311</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>49</v>
+      </c>
+      <c r="Q41">
+        <v>1423063</v>
+      </c>
+      <c r="R41">
+        <v>-106092.035858781</v>
+      </c>
+      <c r="S41">
+        <v>1792471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18050,8 +23420,44 @@
       <c r="D42">
         <v>27.49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>1459912</v>
+      </c>
+      <c r="H42">
+        <v>13134.6543105372</v>
+      </c>
+      <c r="I42">
+        <v>35.57</v>
+      </c>
+      <c r="K42">
+        <v>51</v>
+      </c>
+      <c r="L42">
+        <v>1459912</v>
+      </c>
+      <c r="M42">
+        <v>4320.5012010673699</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>51</v>
+      </c>
+      <c r="Q42">
+        <v>1459912</v>
+      </c>
+      <c r="R42">
+        <v>-112252.760211021</v>
+      </c>
+      <c r="S42">
+        <v>1873136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18064,8 +23470,44 @@
       <c r="D43">
         <v>27.09</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <v>1496154</v>
+      </c>
+      <c r="H43">
+        <v>12937.0079919854</v>
+      </c>
+      <c r="I43">
+        <v>35.57</v>
+      </c>
+      <c r="K43">
+        <v>52</v>
+      </c>
+      <c r="L43">
+        <v>1496154</v>
+      </c>
+      <c r="M43">
+        <v>4259.4118067687104</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>52</v>
+      </c>
+      <c r="Q43">
+        <v>1496154</v>
+      </c>
+      <c r="R43">
+        <v>-112709.70069782301</v>
+      </c>
+      <c r="S43">
+        <v>1909385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18078,8 +23520,44 @@
       <c r="D44">
         <v>27.09</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>54</v>
+      </c>
+      <c r="G44">
+        <v>1533451</v>
+      </c>
+      <c r="H44">
+        <v>12322.292526335999</v>
+      </c>
+      <c r="I44">
+        <v>33.21</v>
+      </c>
+      <c r="K44">
+        <v>54</v>
+      </c>
+      <c r="L44">
+        <v>1533451</v>
+      </c>
+      <c r="M44">
+        <v>4358.8816062320602</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>54</v>
+      </c>
+      <c r="Q44">
+        <v>1533451</v>
+      </c>
+      <c r="R44">
+        <v>-120981.153664214</v>
+      </c>
+      <c r="S44">
+        <v>1990794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18092,8 +23570,44 @@
       <c r="D45">
         <v>27.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45">
+        <v>1570559</v>
+      </c>
+      <c r="H45">
+        <v>12298.0487845114</v>
+      </c>
+      <c r="I45">
+        <v>33.21</v>
+      </c>
+      <c r="K45">
+        <v>55</v>
+      </c>
+      <c r="L45">
+        <v>1570559</v>
+      </c>
+      <c r="M45">
+        <v>4345.2836616424702</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>55</v>
+      </c>
+      <c r="Q45">
+        <v>1570559</v>
+      </c>
+      <c r="R45">
+        <v>-123064.71765373299</v>
+      </c>
+      <c r="S45">
+        <v>2027991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18106,8 +23620,44 @@
       <c r="D46">
         <v>32.04</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>1608237</v>
+      </c>
+      <c r="H46">
+        <v>13338.0737602069</v>
+      </c>
+      <c r="I46">
+        <v>35.28</v>
+      </c>
+      <c r="K46">
+        <v>57</v>
+      </c>
+      <c r="L46">
+        <v>1608237</v>
+      </c>
+      <c r="M46">
+        <v>4415.4694521290503</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>57</v>
+      </c>
+      <c r="Q46">
+        <v>1608237</v>
+      </c>
+      <c r="R46">
+        <v>-129917.019710044</v>
+      </c>
+      <c r="S46">
+        <v>2110599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18120,8 +23670,44 @@
       <c r="D47">
         <v>32.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>1646267</v>
+      </c>
+      <c r="H47">
+        <v>13486.862960233701</v>
+      </c>
+      <c r="I47">
+        <v>35.28</v>
+      </c>
+      <c r="K47">
+        <v>58</v>
+      </c>
+      <c r="L47">
+        <v>1646267</v>
+      </c>
+      <c r="M47">
+        <v>4446.3692662386902</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>58</v>
+      </c>
+      <c r="Q47">
+        <v>1646267</v>
+      </c>
+      <c r="R47">
+        <v>-133833.196204165</v>
+      </c>
+      <c r="S47">
+        <v>2148677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18134,8 +23720,44 @@
       <c r="D48">
         <v>32.04</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>1684239</v>
+      </c>
+      <c r="H48">
+        <v>13483.890997528901</v>
+      </c>
+      <c r="I48">
+        <v>35.32</v>
+      </c>
+      <c r="K48">
+        <v>60</v>
+      </c>
+      <c r="L48">
+        <v>1684239</v>
+      </c>
+      <c r="M48">
+        <v>4443.73163327562</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>60</v>
+      </c>
+      <c r="Q48">
+        <v>1684239</v>
+      </c>
+      <c r="R48">
+        <v>-138833.33928597401</v>
+      </c>
+      <c r="S48">
+        <v>2232451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18148,8 +23770,44 @@
       <c r="D49">
         <v>35.29</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>61</v>
+      </c>
+      <c r="G49">
+        <v>1722236</v>
+      </c>
+      <c r="H49">
+        <v>13495.6330761791</v>
+      </c>
+      <c r="I49">
+        <v>35.32</v>
+      </c>
+      <c r="K49">
+        <v>61</v>
+      </c>
+      <c r="L49">
+        <v>1722236</v>
+      </c>
+      <c r="M49">
+        <v>4445.5896819237196</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>61</v>
+      </c>
+      <c r="Q49">
+        <v>1722236</v>
+      </c>
+      <c r="R49">
+        <v>-141318.44938796901</v>
+      </c>
+      <c r="S49">
+        <v>2270423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18162,8 +23820,44 @@
       <c r="D50">
         <v>35.29</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>1760745</v>
+      </c>
+      <c r="H50">
+        <v>15058.377817475501</v>
+      </c>
+      <c r="I50">
+        <v>38.44</v>
+      </c>
+      <c r="K50">
+        <v>63</v>
+      </c>
+      <c r="L50">
+        <v>1760745</v>
+      </c>
+      <c r="M50">
+        <v>4520.1019089716801</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>63</v>
+      </c>
+      <c r="Q50">
+        <v>1760745</v>
+      </c>
+      <c r="R50">
+        <v>-149034.31158569199</v>
+      </c>
+      <c r="S50">
+        <v>2354939</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18176,8 +23870,44 @@
       <c r="D51">
         <v>35.29</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>1798003</v>
+      </c>
+      <c r="H51">
+        <v>14564.818989675399</v>
+      </c>
+      <c r="I51">
+        <v>38.44</v>
+      </c>
+      <c r="K51">
+        <v>64</v>
+      </c>
+      <c r="L51">
+        <v>1798003</v>
+      </c>
+      <c r="M51">
+        <v>4362.5867427568201</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>64</v>
+      </c>
+      <c r="Q51">
+        <v>1798003</v>
+      </c>
+      <c r="R51">
+        <v>-146482.38595949701</v>
+      </c>
+      <c r="S51">
+        <v>2392148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18190,8 +23920,44 @@
       <c r="D52">
         <v>35.57</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>66</v>
+      </c>
+      <c r="G52">
+        <v>1835395</v>
+      </c>
+      <c r="H52">
+        <v>13850.1449471137</v>
+      </c>
+      <c r="I52">
+        <v>36.6</v>
+      </c>
+      <c r="K52">
+        <v>66</v>
+      </c>
+      <c r="L52">
+        <v>1835395</v>
+      </c>
+      <c r="M52">
+        <v>4368.8515895354203</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>66</v>
+      </c>
+      <c r="Q52">
+        <v>1835395</v>
+      </c>
+      <c r="R52">
+        <v>-152141.72423563601</v>
+      </c>
+      <c r="S52">
+        <v>2475135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18204,8 +23970,44 @@
       <c r="D53">
         <v>35.57</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>67</v>
+      </c>
+      <c r="G53">
+        <v>1872494</v>
+      </c>
+      <c r="H53">
+        <v>13748.0134485333</v>
+      </c>
+      <c r="I53">
+        <v>36.6</v>
+      </c>
+      <c r="K53">
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <v>1872494</v>
+      </c>
+      <c r="M53">
+        <v>4331.6324902389997</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>67</v>
+      </c>
+      <c r="Q53">
+        <v>1872494</v>
+      </c>
+      <c r="R53">
+        <v>-153316.36939756401</v>
+      </c>
+      <c r="S53">
+        <v>2512227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18218,8 +24020,44 @@
       <c r="D54">
         <v>35.57</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>69</v>
+      </c>
+      <c r="G54">
+        <v>1909881</v>
+      </c>
+      <c r="H54">
+        <v>14082.323564393801</v>
+      </c>
+      <c r="I54">
+        <v>37.11</v>
+      </c>
+      <c r="K54">
+        <v>69</v>
+      </c>
+      <c r="L54">
+        <v>1909881</v>
+      </c>
+      <c r="M54">
+        <v>4372.4216965205696</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>69</v>
+      </c>
+      <c r="Q54">
+        <v>1909881</v>
+      </c>
+      <c r="R54">
+        <v>-159762.46612731999</v>
+      </c>
+      <c r="S54">
+        <v>2595138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18232,8 +24070,44 @@
       <c r="D55">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>1946738</v>
+      </c>
+      <c r="H55">
+        <v>13903.521461508501</v>
+      </c>
+      <c r="I55">
+        <v>37.11</v>
+      </c>
+      <c r="K55">
+        <v>70</v>
+      </c>
+      <c r="L55">
+        <v>1946738</v>
+      </c>
+      <c r="M55">
+        <v>4313.2550800363697</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>70</v>
+      </c>
+      <c r="Q55">
+        <v>1946738</v>
+      </c>
+      <c r="R55">
+        <v>-160000.981498004</v>
+      </c>
+      <c r="S55">
+        <v>2632025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18246,8 +24120,44 @@
       <c r="D56">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>72</v>
+      </c>
+      <c r="G56">
+        <v>1983734</v>
+      </c>
+      <c r="H56">
+        <v>13385.5544760878</v>
+      </c>
+      <c r="I56">
+        <v>35.74</v>
+      </c>
+      <c r="K56">
+        <v>72</v>
+      </c>
+      <c r="L56">
+        <v>1983734</v>
+      </c>
+      <c r="M56">
+        <v>4323.7376145283697</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>72</v>
+      </c>
+      <c r="Q56">
+        <v>1983734</v>
+      </c>
+      <c r="R56">
+        <v>-165550.44063797701</v>
+      </c>
+      <c r="S56">
+        <v>2714287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18260,8 +24170,44 @@
       <c r="D57">
         <v>33.21</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>73</v>
+      </c>
+      <c r="G57">
+        <v>2020580</v>
+      </c>
+      <c r="H57">
+        <v>13357.980464857001</v>
+      </c>
+      <c r="I57">
+        <v>35.74</v>
+      </c>
+      <c r="K57">
+        <v>73</v>
+      </c>
+      <c r="L57">
+        <v>2020580</v>
+      </c>
+      <c r="M57">
+        <v>4320.9830091633403</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>73</v>
+      </c>
+      <c r="Q57">
+        <v>2020580</v>
+      </c>
+      <c r="R57">
+        <v>-167453.689026615</v>
+      </c>
+      <c r="S57">
+        <v>2751183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18274,8 +24220,44 @@
       <c r="D58">
         <v>35.28</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>75</v>
+      </c>
+      <c r="G58">
+        <v>2057420</v>
+      </c>
+      <c r="H58">
+        <v>14615.952350186901</v>
+      </c>
+      <c r="I58">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="K58">
+        <v>75</v>
+      </c>
+      <c r="L58">
+        <v>2057420</v>
+      </c>
+      <c r="M58">
+        <v>4322.8908409949299</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>75</v>
+      </c>
+      <c r="Q58">
+        <v>2057420</v>
+      </c>
+      <c r="R58">
+        <v>-172548.920792855</v>
+      </c>
+      <c r="S58">
+        <v>2833095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18288,8 +24270,44 @@
       <c r="D59">
         <v>35.28</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>76</v>
+      </c>
+      <c r="G59">
+        <v>2093253</v>
+      </c>
+      <c r="H59">
+        <v>14229.302605114101</v>
+      </c>
+      <c r="I59">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="K59">
+        <v>76</v>
+      </c>
+      <c r="L59">
+        <v>2093253</v>
+      </c>
+      <c r="M59">
+        <v>4198.2867431791901</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>76</v>
+      </c>
+      <c r="Q59">
+        <v>2093253</v>
+      </c>
+      <c r="R59">
+        <v>-170166.308644857</v>
+      </c>
+      <c r="S59">
+        <v>2868935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18302,8 +24320,44 @@
       <c r="D60">
         <v>35.28</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>78</v>
+      </c>
+      <c r="G60">
+        <v>2129271</v>
+      </c>
+      <c r="H60">
+        <v>13297.780252818</v>
+      </c>
+      <c r="I60">
+        <v>36.25</v>
+      </c>
+      <c r="K60">
+        <v>78</v>
+      </c>
+      <c r="L60">
+        <v>2129271</v>
+      </c>
+      <c r="M60">
+        <v>4221.5056269643501</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>78</v>
+      </c>
+      <c r="Q60">
+        <v>2129271</v>
+      </c>
+      <c r="R60">
+        <v>-176018.36954628499</v>
+      </c>
+      <c r="S60">
+        <v>2949441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18316,8 +24370,44 @@
       <c r="D61">
         <v>35.32</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>79</v>
+      </c>
+      <c r="G61">
+        <v>2164445</v>
+      </c>
+      <c r="H61">
+        <v>12971.0666835827</v>
+      </c>
+      <c r="I61">
+        <v>36.25</v>
+      </c>
+      <c r="K61">
+        <v>79</v>
+      </c>
+      <c r="L61">
+        <v>2164445</v>
+      </c>
+      <c r="M61">
+        <v>4111.5214081886597</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>79</v>
+      </c>
+      <c r="Q61">
+        <v>2164445</v>
+      </c>
+      <c r="R61">
+        <v>-173811.62638070999</v>
+      </c>
+      <c r="S61">
+        <v>2984559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18330,8 +24420,44 @@
       <c r="D62">
         <v>35.32</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>81</v>
+      </c>
+      <c r="G62">
+        <v>2200534</v>
+      </c>
+      <c r="H62">
+        <v>12135.1013421594</v>
+      </c>
+      <c r="I62">
+        <v>33.35</v>
+      </c>
+      <c r="K62">
+        <v>81</v>
+      </c>
+      <c r="L62">
+        <v>2200534</v>
+      </c>
+      <c r="M62">
+        <v>4221.7945378897903</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>81</v>
+      </c>
+      <c r="Q62">
+        <v>2200534</v>
+      </c>
+      <c r="R62">
+        <v>-183096.34436430599</v>
+      </c>
+      <c r="S62">
+        <v>3064639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18344,8 +24470,32 @@
       <c r="D63">
         <v>35.32</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="K63">
+        <v>82</v>
+      </c>
+      <c r="L63">
+        <v>2235091</v>
+      </c>
+      <c r="M63">
+        <v>4047.3459629631702</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>82</v>
+      </c>
+      <c r="Q63">
+        <v>2235091</v>
+      </c>
+      <c r="R63">
+        <v>-177598.781073677</v>
+      </c>
+      <c r="S63">
+        <v>3099228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18359,7 +24509,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18373,7 +24523,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18387,7 +24537,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18401,7 +24551,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18415,7 +24565,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18429,7 +24579,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18443,7 +24593,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18457,7 +24607,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18471,7 +24621,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18485,7 +24635,7 @@
         <v>35.74</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18499,7 +24649,7 @@
         <v>35.74</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18513,7 +24663,7 @@
         <v>35.74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18527,7 +24677,7 @@
         <v>38.770000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18540,8 +24690,11 @@
       <c r="D77">
         <v>38.770000000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18555,7 +24708,7 @@
         <v>38.770000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18569,7 +24722,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>

--- a/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22500" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13920" tabRatio="500" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="ida2015" sheetId="1" r:id="rId1"/>
-    <sheet name="IDA2015Graph" sheetId="5" r:id="rId2"/>
+    <sheet name="IDA2015Graph" sheetId="5" r:id="rId1"/>
+    <sheet name="ida2015" sheetId="1" r:id="rId2"/>
     <sheet name="IDA2016NoBumps" sheetId="11" r:id="rId3"/>
     <sheet name="ida2016" sheetId="2" r:id="rId4"/>
     <sheet name="IDA2016Graph" sheetId="4" r:id="rId5"/>
@@ -18,6 +18,7 @@
     <sheet name="URGraphNoBumps" sheetId="10" r:id="rId9"/>
     <sheet name="URGraphNoBumpsUR" sheetId="12" r:id="rId10"/>
     <sheet name="withUnemplRateObserved" sheetId="7" r:id="rId11"/>
+    <sheet name="noResiduals" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>Sample</t>
   </si>
@@ -462,6 +463,21 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>UR original</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>UR zero</t>
+  </si>
+  <si>
+    <t>No UR var - seed 1</t>
+  </si>
+  <si>
+    <t>No UR var - seed 154</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +525,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -525,12 +541,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +565,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -545,6 +576,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +615,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ida2015'!$C$2:$C$43</c:f>
+              <c:f>'ida2015'!$D$48:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2372.41437172793</c:v>
                 </c:pt>
@@ -709,6 +744,132 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4810.66564528312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4691.90732729206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4725.66033890325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5680.28653309161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4808.84060341374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4768.38312974166</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5716.24394001021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4783.61194089902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4789.42667298383</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5733.34608801486</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4848.49253433322</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4761.53321271724</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5745.60827254274</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4870.67844786203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4855.0890254204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5851.77936182761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4930.35064407189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4985.05600989755</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5985.84478664743</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4991.22394189275</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5009.42805219768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6018.00208100256</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5087.76672413486</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4910.42711337323</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5902.86164950349</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4871.54042854612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4861.1023329455</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5945.83806578787</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4917.18681931747</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4858.48188160274</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5940.96689837518</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4901.4146027018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4897.24886840752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5917.61210034282</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4910.7388096513</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4746.98641104891</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5811.21093089624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4768.28830734431</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4643.15565931788</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5783.48210729794</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4773.11071033681</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4590.8106327454</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5766.57037773593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141073096"/>
-        <c:axId val="-2120873816"/>
+        <c:axId val="-2122064472"/>
+        <c:axId val="-2122061528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141073096"/>
+        <c:axId val="-2122064472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120873816"/>
+        <c:crossAx val="-2122061528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120873816"/>
+        <c:axId val="-2122061528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,24 +918,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141073096"/>
+        <c:crossAx val="-2122064472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3557,7 +3714,1001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>noResiduals!$I$3:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3655.48961692169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7299.65794880437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11023.8296724436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15590.4176307804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20393.2482388761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25088.3343540118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29644.520641206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34401.523241736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39392.1264750303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44640.7220960009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50173.7969460629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56140.0825276481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62672.7200182283</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69694.59619032381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77375.9868110658</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85479.3215414509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94149.6969344738</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103371.230296315</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112936.277795864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>123041.536745817</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133363.593768741</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144011.26597616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>155276.685528819</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166870.309919621</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>179176.186784912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>191571.568865408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>204018.373159349</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>216780.492511437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>229701.90762747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>243201.139246673</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256572.197750719</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>270194.381728717</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>284055.483500343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>298102.295816964</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>312586.156601997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>326844.981591253</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>341309.934145802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>356182.724094808</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>371152.731606287</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>386402.099061719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>401884.030410938</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>417811.432681419</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>433662.252598289</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>450174.20068718</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>466749.447027765</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>483775.523988675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>501150.31949683</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>518758.513559161</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>536550.093829521</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>554784.947514632</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>572684.965078081</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>590751.4777421691</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>608864.170208898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>627285.624571479</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>645618.389969809</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>664133.529067009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>682712.743874294</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>701487.365252029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>719868.191784187</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>738462.559882911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>756732.954551847</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>775562.21784167</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>793621.554717963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2101170408"/>
+        <c:axId val="2115908728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2101170408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115908728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115908728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101170408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>noResiduals!$G$3:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3695.65132983285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7379.84612651819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11142.994941302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13547.2581641846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15858.520211014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18377.3248910315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21132.2070992059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23827.3429242075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26123.2362383636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28205.7516041079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29852.5426205378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30945.2138369167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31460.0697056162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31359.9526102586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30776.0138039851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29687.3324960343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28122.3531570251</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26185.7662066853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23967.1083298451</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21396.6785568134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18604.8439093822</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15480.8911458694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11830.623279647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7691.65098294005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2902.30804194928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2298.38644295423</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7994.37098119328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-14708.9474599311</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-22473.3556514982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-31585.831248772</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-41816.1697167704</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-53479.9155247068</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-66536.8940010074</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-80909.4772822588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-96614.0621670796</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-112894.463594978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-129707.855665275</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-147000.746237521</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-164469.85029438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-181981.945784843</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-199543.259396832</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-217227.851626102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-234600.315874341</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-252275.583212695</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-269658.994280381</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-287194.411088043</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-304904.036796636</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-322630.485946057</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-340398.622123436</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-358498.419616957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-376311.716799177</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-394228.979054141</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-412082.604446444</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-430173.945448887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2102464776"/>
+        <c:axId val="-2144678360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2102464776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144678360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144678360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102464776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>noResiduals!$N$3:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3695.65132983285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7379.84612651819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11142.994941302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13547.2581641846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15858.520211014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18377.3248910315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21132.2070992059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23827.3429242075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26123.2362383636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28205.7516041079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29852.5426205378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30945.2138369167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31460.0697056162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31359.9526102586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30776.0138039851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29687.3324960343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28122.3531570251</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26185.7662066853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23967.1083298451</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21396.6785568134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18604.8439093822</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15480.8911458694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11830.623279647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7691.65098294005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2902.30804194928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2298.38644295423</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7994.37098119328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-14708.9474599311</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-22473.3556514982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-31585.831248772</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-41816.1697167704</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-53479.9155247068</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-66536.8940010074</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-80909.4772822588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-96614.0621670796</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-112894.463594978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-129707.855665275</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-147000.746237521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2078171912"/>
+        <c:axId val="-2077043160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2078171912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077043160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2077043160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078171912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ida2015'!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2372.41437172793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1615.20571963503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3392.16502769283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3703.13859855302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3828.81946685368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3988.40375315707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4082.96829283384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4126.97961822896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4846.38064812796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4294.11206860795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4269.43727801853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4356.16718919735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4350.87836841498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4330.59438116778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5092.27773955047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4412.83317839302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4327.62771125282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4432.9145428868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4402.6298572019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4385.84779826794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5207.65603655651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4448.74855522494</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4455.72624755461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4562.96828452503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4485.08473847178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4489.97157036886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5347.80935983648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4577.23289785248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4503.99639598618</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4628.54806350651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4566.91538029693</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4544.76243004434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5473.46577182584</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4634.34932840615</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4604.50349767024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4772.79076101849</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4652.68327596632</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4685.11858601232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5586.02715075624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4714.92579379838</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4728.90919254984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4810.66564528312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2141073096"/>
+        <c:axId val="-2120873816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141073096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120873816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2120873816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141073096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3906,354 +5057,6 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ida2015'!$D$48:$D$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
-                <c:pt idx="0">
-                  <c:v>2372.41437172793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1615.20571963503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3392.16502769283</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3703.13859855302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3828.81946685368</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3988.40375315707</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4082.96829283384</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4126.97961822896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4846.38064812796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4294.11206860795</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4269.43727801853</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4356.16718919735</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4350.87836841498</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4330.59438116778</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5092.27773955047</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4412.83317839302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4327.62771125282</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4432.9145428868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4402.6298572019</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4385.84779826794</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5207.65603655651</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4448.74855522494</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4455.72624755461</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4562.96828452503</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4485.08473847178</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4489.97157036886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5347.80935983648</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4577.23289785248</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4503.99639598618</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4628.54806350651</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4566.91538029693</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4544.76243004434</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5473.46577182584</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4634.34932840615</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4604.50349767024</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4772.79076101849</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4652.68327596632</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4685.11858601232</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5586.02715075624</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4714.92579379838</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4728.90919254984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4810.66564528312</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4691.90732729206</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4725.66033890325</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5680.28653309161</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4808.84060341374</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4768.38312974166</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5716.24394001021</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4783.61194089902</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4789.42667298383</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5733.34608801486</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4848.49253433322</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4761.53321271724</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5745.60827254274</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4870.67844786203</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4855.0890254204</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5851.77936182761</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4930.35064407189</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4985.05600989755</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5985.84478664743</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4991.22394189275</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5009.42805219768</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6018.00208100256</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5087.76672413486</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4910.42711337323</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5902.86164950349</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4871.54042854612</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4861.1023329455</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5945.83806578787</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4917.18681931747</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4858.48188160274</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5940.96689837518</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4901.4146027018</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4897.24886840752</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5917.61210034282</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4910.7388096513</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4746.98641104891</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5811.21093089624</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4768.28830734431</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4643.15565931788</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5783.48210729794</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4773.11071033681</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4590.8106327454</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5766.57037773593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2122064472"/>
-        <c:axId val="-2122061528"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2122064472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122061528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2122061528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122064472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
 </c:chartSpace>
 </file>
 
@@ -6369,7 +7172,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6380,7 +7183,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6392,7 +7195,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6415,7 +7218,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6427,7 +7230,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6439,7 +7242,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="127" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6448,23 +7251,15 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9210081" cy="5616911"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6477,37 +7272,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6572,15 +7337,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6602,16 +7367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6633,17 +7398,25 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9210081" cy="5616911"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6656,7 +7429,132 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21351,8 +22249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24787,4 +25685,1311 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:N65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:14">
+      <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="6:14">
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:14">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3695.65132983285</v>
+      </c>
+      <c r="I3">
+        <v>3655.48961692169</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3655.48961692169</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3695.65132983285</v>
+      </c>
+    </row>
+    <row r="4" spans="6:14">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7379.8461265181904</v>
+      </c>
+      <c r="I4">
+        <v>7299.6579488043699</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>7299.6579488043699</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7379.8461265181904</v>
+      </c>
+    </row>
+    <row r="5" spans="6:14">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>11142.994941302</v>
+      </c>
+      <c r="I5">
+        <v>11023.8296724436</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>11023.8296724436</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>11142.994941302</v>
+      </c>
+    </row>
+    <row r="6" spans="6:14">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>13547.258164184601</v>
+      </c>
+      <c r="I6">
+        <v>15590.417630780399</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>15590.417630780399</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>13547.258164184601</v>
+      </c>
+    </row>
+    <row r="7" spans="6:14">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>15858.520211014</v>
+      </c>
+      <c r="I7">
+        <v>20393.248238876098</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>20393.248238876</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>15858.520211014</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>18377.324891031501</v>
+      </c>
+      <c r="I8">
+        <v>25088.3343540118</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>25088.334354011698</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>18377.324891031501</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>21132.207099205902</v>
+      </c>
+      <c r="I9">
+        <v>29644.520641206</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>29644.520641205901</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>21132.207099205902</v>
+      </c>
+    </row>
+    <row r="10" spans="6:14">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>23827.3429242075</v>
+      </c>
+      <c r="I10">
+        <v>34401.523241736002</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>34401.5232417359</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>23827.3429242075</v>
+      </c>
+    </row>
+    <row r="11" spans="6:14">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>26123.236238363599</v>
+      </c>
+      <c r="I11">
+        <v>39392.126475030302</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>39392.126475030302</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>26123.236238363599</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>28205.7516041079</v>
+      </c>
+      <c r="I12">
+        <v>44640.7220960009</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>44640.722096000798</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>28205.7516041079</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>29852.542620537799</v>
+      </c>
+      <c r="I13">
+        <v>50173.796946062903</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>50173.796946062801</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>29852.542620537799</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>30945.213836916701</v>
+      </c>
+      <c r="I14">
+        <v>56140.082527648097</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>56140.082527648003</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>30945.213836916701</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14">
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>31460.069705616199</v>
+      </c>
+      <c r="I15">
+        <v>62672.720018228298</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>62672.720018228298</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>31460.069705616199</v>
+      </c>
+    </row>
+    <row r="16" spans="6:14">
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>31359.952610258599</v>
+      </c>
+      <c r="I16">
+        <v>69694.596190323806</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>69694.596190323704</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>31359.952610258599</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>30776.013803985101</v>
+      </c>
+      <c r="I17">
+        <v>77375.986811065799</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>77375.986811065697</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>30776.013803985101</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>29687.332496034302</v>
+      </c>
+      <c r="I18">
+        <v>85479.321541450903</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>85479.321541450699</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>29687.332496034302</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14">
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>28122.3531570251</v>
+      </c>
+      <c r="I19">
+        <v>94149.696934473803</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>94149.696934473599</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>28122.3531570251</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14">
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>26185.766206685301</v>
+      </c>
+      <c r="I20">
+        <v>103371.230296315</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>103371.230296315</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>26185.766206685301</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>23967.108329845101</v>
+      </c>
+      <c r="I21">
+        <v>112936.27779586401</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>112936.27779586401</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>23967.108329845101</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14">
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>21396.6785568134</v>
+      </c>
+      <c r="I22">
+        <v>123041.53674581699</v>
+      </c>
+      <c r="J22">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>123041.53674581699</v>
+      </c>
+      <c r="M22">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>21396.6785568134</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14">
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>18604.843909382202</v>
+      </c>
+      <c r="I23">
+        <v>133363.593768741</v>
+      </c>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>133363.59376873999</v>
+      </c>
+      <c r="M23">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>18604.843909382202</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14">
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>15480.8911458694</v>
+      </c>
+      <c r="I24">
+        <v>144011.26597616001</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>144011.26597616001</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>15480.8911458694</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14">
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>11830.623279646999</v>
+      </c>
+      <c r="I25">
+        <v>155276.68552881901</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>155276.68552881799</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>11830.623279646999</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14">
+      <c r="F26">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>7691.6509829400502</v>
+      </c>
+      <c r="I26">
+        <v>166870.30991962101</v>
+      </c>
+      <c r="J26">
+        <v>28</v>
+      </c>
+      <c r="K26">
+        <v>166870.30991962101</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>7691.6509829400502</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14">
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>2902.3080419492799</v>
+      </c>
+      <c r="I27">
+        <v>179176.18678491199</v>
+      </c>
+      <c r="J27">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>179176.18678491199</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>2902.3080419492799</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14">
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>-2298.38644295423</v>
+      </c>
+      <c r="I28">
+        <v>191571.56886540799</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>191571.56886540799</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>-2298.38644295423</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14">
+      <c r="F29">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>-7994.3709811932804</v>
+      </c>
+      <c r="I29">
+        <v>204018.37315934899</v>
+      </c>
+      <c r="J29">
+        <v>31</v>
+      </c>
+      <c r="K29">
+        <v>204018.37315934899</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>-7994.3709811932804</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14">
+      <c r="F30">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>-14708.9474599311</v>
+      </c>
+      <c r="I30">
+        <v>216780.49251143701</v>
+      </c>
+      <c r="J30">
+        <v>33</v>
+      </c>
+      <c r="K30">
+        <v>216780.49251143701</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>-14708.9474599311</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14">
+      <c r="F31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>-22473.355651498201</v>
+      </c>
+      <c r="I31">
+        <v>229701.90762747001</v>
+      </c>
+      <c r="J31">
+        <v>34</v>
+      </c>
+      <c r="K31">
+        <v>229701.90762747001</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>-22473.355651498201</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14">
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>-31585.831248772</v>
+      </c>
+      <c r="I32">
+        <v>243201.139246673</v>
+      </c>
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>243201.139246673</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+      <c r="N32">
+        <v>-31585.831248772</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>-41816.169716770397</v>
+      </c>
+      <c r="I33">
+        <v>256572.197750719</v>
+      </c>
+      <c r="J33">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>256572.197750719</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>-41816.169716770397</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="F34">
+        <v>37</v>
+      </c>
+      <c r="G34">
+        <v>-53479.915524706797</v>
+      </c>
+      <c r="I34">
+        <v>270194.38172871701</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>270194.38172871701</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>-53479.915524706797</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="F35">
+        <v>39</v>
+      </c>
+      <c r="G35">
+        <v>-66536.8940010074</v>
+      </c>
+      <c r="I35">
+        <v>284055.48350034299</v>
+      </c>
+      <c r="J35">
+        <v>39</v>
+      </c>
+      <c r="K35">
+        <v>284055.48350034299</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>-66536.8940010074</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>-80909.477282258798</v>
+      </c>
+      <c r="I36">
+        <v>298102.295816964</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>298102.295816964</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>-80909.477282258798</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="F37">
+        <v>41</v>
+      </c>
+      <c r="G37">
+        <v>-96614.062167079595</v>
+      </c>
+      <c r="I37">
+        <v>312586.15660199698</v>
+      </c>
+      <c r="J37">
+        <v>41</v>
+      </c>
+      <c r="K37">
+        <v>312586.15660199698</v>
+      </c>
+      <c r="M37">
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <v>-96614.062167079595</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38">
+        <v>42</v>
+      </c>
+      <c r="G38">
+        <v>-112894.46359497801</v>
+      </c>
+      <c r="I38">
+        <v>326844.98159125302</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>326844.98159125302</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>-112894.46359497801</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="F39">
+        <v>43</v>
+      </c>
+      <c r="G39">
+        <v>-129707.855665275</v>
+      </c>
+      <c r="I39">
+        <v>341309.93414580199</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39">
+        <v>341309.93414580199</v>
+      </c>
+      <c r="M39">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>-129707.855665275</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="F40">
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>-147000.746237521</v>
+      </c>
+      <c r="I40">
+        <v>356182.72409480799</v>
+      </c>
+      <c r="J40">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>356182.72409480897</v>
+      </c>
+      <c r="M40">
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>-147000.746237521</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14">
+      <c r="F41">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>-164469.85029438001</v>
+      </c>
+      <c r="I41">
+        <v>371152.73160628701</v>
+      </c>
+      <c r="J41">
+        <v>46</v>
+      </c>
+      <c r="K41">
+        <v>371152.73160628701</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14">
+      <c r="F42">
+        <v>48</v>
+      </c>
+      <c r="G42">
+        <v>-181981.945784843</v>
+      </c>
+      <c r="I42">
+        <v>386402.09906171903</v>
+      </c>
+      <c r="J42">
+        <v>48</v>
+      </c>
+      <c r="K42">
+        <v>386402.09906171903</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14">
+      <c r="F43">
+        <v>49</v>
+      </c>
+      <c r="G43">
+        <v>-199543.259396832</v>
+      </c>
+      <c r="I43">
+        <v>401884.03041093802</v>
+      </c>
+      <c r="J43">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>401884.03041093802</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="F44">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>-217227.851626102</v>
+      </c>
+      <c r="I44">
+        <v>417811.43268141901</v>
+      </c>
+      <c r="J44">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <v>417811.43268142</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14">
+      <c r="F45">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>-234600.315874341</v>
+      </c>
+      <c r="I45">
+        <v>433662.25259828899</v>
+      </c>
+      <c r="J45">
+        <v>52</v>
+      </c>
+      <c r="K45">
+        <v>433662.25259828899</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="F46">
+        <v>54</v>
+      </c>
+      <c r="G46">
+        <v>-252275.583212695</v>
+      </c>
+      <c r="I46">
+        <v>450174.20068717998</v>
+      </c>
+      <c r="J46">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>450174.20068717998</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14">
+      <c r="F47">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>-269658.99428038101</v>
+      </c>
+      <c r="I47">
+        <v>466749.44702776498</v>
+      </c>
+      <c r="J47">
+        <v>55</v>
+      </c>
+      <c r="K47">
+        <v>466749.44702776498</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="F48">
+        <v>57</v>
+      </c>
+      <c r="G48">
+        <v>-287194.41108804301</v>
+      </c>
+      <c r="I48">
+        <v>483775.52398867498</v>
+      </c>
+      <c r="J48">
+        <v>57</v>
+      </c>
+      <c r="K48">
+        <v>483775.52398867498</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="F49">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>-304904.03679663601</v>
+      </c>
+      <c r="I49">
+        <v>501150.31949682999</v>
+      </c>
+      <c r="J49">
+        <v>58</v>
+      </c>
+      <c r="K49">
+        <v>501150.31949682999</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>-322630.48594605702</v>
+      </c>
+      <c r="I50">
+        <v>518758.51355916099</v>
+      </c>
+      <c r="J50">
+        <v>60</v>
+      </c>
+      <c r="K50">
+        <v>518758.51355916099</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="F51">
+        <v>61</v>
+      </c>
+      <c r="G51">
+        <v>-340398.62212343601</v>
+      </c>
+      <c r="I51">
+        <v>536550.09382952098</v>
+      </c>
+      <c r="J51">
+        <v>61</v>
+      </c>
+      <c r="K51">
+        <v>536550.09382952005</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="F52">
+        <v>63</v>
+      </c>
+      <c r="G52">
+        <v>-358498.41961695702</v>
+      </c>
+      <c r="I52">
+        <v>554784.94751463202</v>
+      </c>
+      <c r="J52">
+        <v>63</v>
+      </c>
+      <c r="K52">
+        <v>554784.94751463202</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11">
+      <c r="F53">
+        <v>64</v>
+      </c>
+      <c r="G53">
+        <v>-376311.716799177</v>
+      </c>
+      <c r="I53">
+        <v>572684.965078081</v>
+      </c>
+      <c r="J53">
+        <v>64</v>
+      </c>
+      <c r="K53">
+        <v>572684.96507807996</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="F54">
+        <v>66</v>
+      </c>
+      <c r="G54">
+        <v>-394228.97905414097</v>
+      </c>
+      <c r="I54">
+        <v>590751.47774216905</v>
+      </c>
+      <c r="J54">
+        <v>66</v>
+      </c>
+      <c r="K54">
+        <v>590751.477742168</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55">
+        <v>67</v>
+      </c>
+      <c r="G55">
+        <v>-412082.60444644402</v>
+      </c>
+      <c r="I55">
+        <v>608864.17020889802</v>
+      </c>
+      <c r="J55">
+        <v>67</v>
+      </c>
+      <c r="K55">
+        <v>608864.17020889698</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11">
+      <c r="F56">
+        <v>69</v>
+      </c>
+      <c r="G56">
+        <v>-430173.94544888701</v>
+      </c>
+      <c r="I56">
+        <v>627285.62457147904</v>
+      </c>
+      <c r="J56">
+        <v>69</v>
+      </c>
+      <c r="K56">
+        <v>627285.62457147799</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11">
+      <c r="H57">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>645618.38996980898</v>
+      </c>
+      <c r="J57">
+        <v>70</v>
+      </c>
+      <c r="K57">
+        <v>645618.38996980805</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11">
+      <c r="H58">
+        <v>72</v>
+      </c>
+      <c r="I58">
+        <v>664133.52906700899</v>
+      </c>
+      <c r="J58">
+        <v>72</v>
+      </c>
+      <c r="K58">
+        <v>664133.52906700899</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11">
+      <c r="H59">
+        <v>73</v>
+      </c>
+      <c r="I59">
+        <v>682712.74387429398</v>
+      </c>
+      <c r="J59">
+        <v>73</v>
+      </c>
+      <c r="K59">
+        <v>682712.74387429305</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11">
+      <c r="H60">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>701487.36525202903</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11">
+      <c r="H61">
+        <v>76</v>
+      </c>
+      <c r="I61">
+        <v>719868.19178418699</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11">
+      <c r="H62">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>738462.55988291104</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="H63">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>756732.95455184695</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11">
+      <c r="H64">
+        <v>81</v>
+      </c>
+      <c r="I64">
+        <v>775562.21784167003</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65">
+        <v>82</v>
+      </c>
+      <c r="I65">
+        <v>793621.55471796298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13920" tabRatio="500" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13960" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IDA2015Graph" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t>Sample</t>
   </si>
@@ -467,16 +467,10 @@
     <t>UR original</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>UR zero</t>
   </si>
   <si>
     <t>No UR var - seed 1</t>
-  </si>
-  <si>
-    <t>No UR var - seed 154</t>
   </si>
 </sst>
 </file>
@@ -525,8 +519,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,7 +581,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -569,6 +593,21 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -580,6 +619,21 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3742,198 +3796,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>noResiduals!$I$3:$I$65</c:f>
+              <c:f>withUnemplRateObserved!$W$1:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>3655.48961692169</c:v>
+                  <c:v>2471.90947192993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7299.65794880437</c:v>
+                  <c:v>2471.9094656931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11023.8296724436</c:v>
+                  <c:v>3265.89739472123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15590.4176307804</c:v>
+                  <c:v>3226.18406803239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20393.2482388761</c:v>
+                  <c:v>3177.94264048386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25088.3343540118</c:v>
+                  <c:v>2620.62774937336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29644.520641206</c:v>
+                  <c:v>2604.59244472057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34401.523241736</c:v>
+                  <c:v>3767.45321344786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39392.1264750303</c:v>
+                  <c:v>3786.44424424722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44640.7220960009</c:v>
+                  <c:v>3857.06893718746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50173.7969460629</c:v>
+                  <c:v>5303.68662524853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56140.0825276481</c:v>
+                  <c:v>5293.64178793833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62672.7200182283</c:v>
+                  <c:v>6966.64688728246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69694.59619032381</c:v>
+                  <c:v>6845.92153508737</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77375.9868110658</c:v>
+                  <c:v>7018.12847845342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85479.3215414509</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>94149.6969344738</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103371.230296315</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112936.277795864</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>123041.536745817</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>133363.593768741</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144011.26597616</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>155276.685528819</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166870.309919621</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>179176.186784912</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>191571.568865408</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>204018.373159349</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>216780.492511437</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>229701.90762747</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>243201.139246673</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>256572.197750719</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>270194.381728717</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>284055.483500343</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>298102.295816964</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>312586.156601997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>326844.981591253</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>341309.934145802</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>356182.724094808</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>371152.731606287</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>386402.099061719</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>401884.030410938</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>417811.432681419</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>433662.252598289</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>450174.20068718</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>466749.447027765</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>483775.523988675</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>501150.31949683</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>518758.513559161</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>536550.093829521</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>554784.947514632</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>572684.965078081</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>590751.4777421691</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>608864.170208898</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>627285.624571479</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>645618.389969809</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>664133.529067009</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>682712.743874294</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>701487.365252029</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>719868.191784187</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>738462.559882911</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>756732.954551847</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>775562.21784167</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>793621.554717963</c:v>
+                  <c:v>8181.68609141397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,11 +3863,230 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101170408"/>
-        <c:axId val="2115908728"/>
+        <c:axId val="2108164888"/>
+        <c:axId val="-2101948504"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>withUnemplRateObserved!$X$1:$X$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2090614072"/>
+        <c:axId val="-2091400616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101170408"/>
+        <c:axId val="2108164888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +4095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115908728"/>
+        <c:crossAx val="-2101948504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3971,7 +4103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115908728"/>
+        <c:axId val="-2101948504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3982,10 +4114,41 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101170408"/>
+        <c:crossAx val="2108164888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2091400616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090614072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2090614072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091400616"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4032,7 +4195,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>noResiduals!$G$3:$G$65</c:f>
+              <c:f>noResiduals!$G$2:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -4040,163 +4203,190 @@
                   <c:v>3695.65132983285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7379.84612651819</c:v>
+                  <c:v>3695.64383623675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11142.994941302</c:v>
+                  <c:v>1411.70976530232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13547.2581641846</c:v>
+                  <c:v>1395.14332704629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15858.520211014</c:v>
+                  <c:v>1427.1350930723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18377.3248910315</c:v>
+                  <c:v>3344.97881604688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21132.2070992059</c:v>
+                  <c:v>3510.8255552116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23827.3429242075</c:v>
+                  <c:v>-56.6853102893638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26123.2362383636</c:v>
+                  <c:v>-311.138042290858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28205.7516041079</c:v>
+                  <c:v>-320.847132041066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29852.5426205378</c:v>
+                  <c:v>-4983.76243808059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30945.2138369167</c:v>
+                  <c:v>-5198.91397691952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31460.0697056162</c:v>
+                  <c:v>-10312.84940393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31359.9526102586</c:v>
+                  <c:v>-10324.5063924976</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30776.0138039851</c:v>
+                  <c:v>-10572.7234335911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29687.3324960343</c:v>
+                  <c:v>-14384.6793333479</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28122.3531570251</c:v>
+                  <c:v>-14486.7572920998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26185.7662066853</c:v>
+                  <c:v>-14341.021696306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23967.1083298451</c:v>
+                  <c:v>-14330.1800473102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21396.6785568134</c:v>
+                  <c:v>-14618.5330692282</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18604.8439093822</c:v>
+                  <c:v>-17726.789277784</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15480.8911458694</c:v>
+                  <c:v>-17851.8142206735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11830.623279647</c:v>
+                  <c:v>-22109.9606975185</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7691.65098294005</c:v>
+                  <c:v>-21913.3455550283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2902.30804194928</c:v>
+                  <c:v>-22548.169524732</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2298.38644295423</c:v>
+                  <c:v>-14628.7023187889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7994.37098119328</c:v>
+                  <c:v>-14255.2832712789</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-14708.9474599311</c:v>
+                  <c:v>-18571.4000104885</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-22473.3556514982</c:v>
+                  <c:v>-18672.9596161588</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-31585.831248772</c:v>
+                  <c:v>-19310.409871942</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41816.1697167704</c:v>
+                  <c:v>-20795.5502157512</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-53479.9155247068</c:v>
+                  <c:v>-21027.0372853513</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-66536.8940010074</c:v>
+                  <c:v>-18738.6860744653</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-80909.4772822588</c:v>
+                  <c:v>-18701.0635586584</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-96614.0621670796</c:v>
+                  <c:v>-19058.5618791409</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-112894.463594978</c:v>
+                  <c:v>-18092.6843753761</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-129707.855665275</c:v>
+                  <c:v>-18216.174596372</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-147000.746237521</c:v>
+                  <c:v>-24799.283019083</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-164469.85029438</c:v>
+                  <c:v>-24909.0745655954</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-181981.945784843</c:v>
+                  <c:v>-29044.3443956135</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-199543.259396832</c:v>
+                  <c:v>-29242.2100284923</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-217227.851626102</c:v>
+                  <c:v>-29925.9484707414</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-234600.315874341</c:v>
+                  <c:v>-29451.3077058328</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-252275.583212695</c:v>
+                  <c:v>-27187.2238973349</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-269658.994280381</c:v>
+                  <c:v>-26977.5393977959</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-287194.411088043</c:v>
+                  <c:v>-30069.3464047218</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-304904.036796636</c:v>
+                  <c:v>-30506.4039448738</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-322630.485946057</c:v>
+                  <c:v>-30482.0345392666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-340398.622123436</c:v>
+                  <c:v>-30484.2007944885</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-358498.419616957</c:v>
+                  <c:v>-35195.059316638</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-376311.716799177</c:v>
+                  <c:v>-34168.7275151861</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-394228.979054141</c:v>
+                  <c:v>-31841.9409219119</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-412082.604446444</c:v>
+                  <c:v>-31493.0290299612</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-430173.945448887</c:v>
+                  <c:v>-32418.5309695491</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-32009.2452459321</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-30310.1433209919</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-30164.2012580664</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-34104.894574746</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-33315.0175730324</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-30292.8343403587</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-29426.9237421178</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-26483.0284888642</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-25261.3581620462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,11 +4403,227 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102464776"/>
-        <c:axId val="-2144678360"/>
+        <c:axId val="-2102492632"/>
+        <c:axId val="-2115487624"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>noResiduals!$H$3:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2074705080"/>
+        <c:axId val="-2074707224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102464776"/>
+        <c:axId val="-2102492632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,7 +4632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144678360"/>
+        <c:crossAx val="-2115487624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4234,7 +4640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144678360"/>
+        <c:axId val="-2115487624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,10 +4651,41 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102464776"/>
+        <c:crossAx val="-2102492632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2074707224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074705080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2074705080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074707224"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4295,123 +4732,195 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>noResiduals!$N$3:$N$65</c:f>
+              <c:f>noResiduals!$J$2:$J$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>3695.65132983285</c:v>
+                  <c:v>3655.48961692169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7379.84612651819</c:v>
+                  <c:v>3655.48757767795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11142.994941302</c:v>
+                  <c:v>5331.5041827011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13547.2581641846</c:v>
+                  <c:v>5266.27018138277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15858.520211014</c:v>
+                  <c:v>5348.34942164763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18377.3248910315</c:v>
+                  <c:v>4008.89493463533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21132.2070992059</c:v>
+                  <c:v>3929.05571788738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23827.3429242075</c:v>
+                  <c:v>6596.77703370621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26123.2362383636</c:v>
+                  <c:v>6633.52898522221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28205.7516041079</c:v>
+                  <c:v>6752.55352621177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29852.5426205378</c:v>
+                  <c:v>9988.990725486179</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30945.2138369167</c:v>
+                  <c:v>10018.3136847201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31460.0697056162</c:v>
+                  <c:v>13688.8234635384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31359.9526102586</c:v>
+                  <c:v>13487.6575236479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30776.0138039851</c:v>
+                  <c:v>13807.477067555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29687.3324960343</c:v>
+                  <c:v>16395.4186498354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28122.3531570251</c:v>
+                  <c:v>16399.3890240484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26185.7662066853</c:v>
+                  <c:v>16373.469319358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23967.1083298451</c:v>
+                  <c:v>16369.5020484359</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21396.6785568134</c:v>
+                  <c:v>16700.309699543</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18604.8439093822</c:v>
+                  <c:v>18746.6956569507</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15480.8911458694</c:v>
+                  <c:v>18756.6960705207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11830.623279647</c:v>
+                  <c:v>21859.0687602771</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7691.65098294005</c:v>
+                  <c:v>21583.0271552993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2902.30804194928</c:v>
+                  <c:v>22204.8890074163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2298.38644295423</c:v>
+                  <c:v>16590.3015864034</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7994.37098119328</c:v>
+                  <c:v>16413.8559471671</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-14708.9474599311</c:v>
+                  <c:v>19553.6904390697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-22473.3556514982</c:v>
+                  <c:v>19485.6074758752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-31585.831248772</c:v>
+                  <c:v>20147.7936986139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41816.1697167704</c:v>
+                  <c:v>21007.0196365248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-53479.9155247068</c:v>
+                  <c:v>21166.8553104246</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-66536.8940010074</c:v>
+                  <c:v>19598.3998031082</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-80909.4772822588</c:v>
+                  <c:v>19654.6748613518</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-96614.0621670796</c:v>
+                  <c:v>20033.5069360987</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-112894.463594978</c:v>
+                  <c:v>19196.0598218825</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-129707.855665275</c:v>
+                  <c:v>19348.5228119558</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-147000.746237521</c:v>
+                  <c:v>24033.3566453919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23951.6308442007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26834.8120055709</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26907.6337869499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27455.7954001184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27013.5305676455</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25616.1183644799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25498.4450155387</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27741.0319199506</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28078.9659796415</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28048.4418724821</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28050.4304572633</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31433.7810671383</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30433.2382503995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28835.1865072142</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28570.9087722785</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29269.4209226573</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28887.4089616946</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27727.3297449707</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27632.7596407921</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30368.4135494319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29593.8759510141</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27533.1659432694</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26807.3970752512</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24930.3223190007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,11 +4937,230 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078171912"/>
-        <c:axId val="-2077043160"/>
+        <c:axId val="-2079793080"/>
+        <c:axId val="-2079913752"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>noResiduals!$K$2:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2119818792"/>
+        <c:axId val="-2057374280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078171912"/>
+        <c:axId val="-2079793080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +5169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077043160"/>
+        <c:crossAx val="-2079913752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4449,7 +5177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077043160"/>
+        <c:axId val="-2079913752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,10 +5188,41 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078171912"/>
+        <c:crossAx val="-2079793080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2057374280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119818792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2119818792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057374280"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -7307,16 +8066,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7337,16 +8096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7367,16 +8126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7395,6 +8154,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7402,20 +8191,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7432,20 +8221,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7455,36 +8244,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22247,15 +23006,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I62"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1">
         <v>0</v>
       </c>
@@ -22304,8 +23063,17 @@
       <c r="S1">
         <v>32200</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>2471.9094719299301</v>
+      </c>
+      <c r="X1">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22354,8 +23122,17 @@
       <c r="S2">
         <v>64413</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2471.9094656931002</v>
+      </c>
+      <c r="X2">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22404,8 +23181,17 @@
       <c r="S3">
         <v>134213</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3265.8973947212298</v>
+      </c>
+      <c r="X3">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22454,8 +23240,17 @@
       <c r="S4">
         <v>166705</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>3226.1840680323899</v>
+      </c>
+      <c r="X4">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22504,8 +23299,17 @@
       <c r="S5">
         <v>199621</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>3177.94264048386</v>
+      </c>
+      <c r="X5">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22554,8 +23358,17 @@
       <c r="S6">
         <v>232691</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>2620.6277493733601</v>
+      </c>
+      <c r="X6">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22604,8 +23417,17 @@
       <c r="S7">
         <v>265613</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>2604.5924447205698</v>
+      </c>
+      <c r="X7">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22654,8 +23476,17 @@
       <c r="S8">
         <v>337648</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>3767.45321344786</v>
+      </c>
+      <c r="X8">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22704,8 +23535,17 @@
       <c r="S9">
         <v>371092</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>3786.44424424722</v>
+      </c>
+      <c r="X9">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22754,8 +23594,17 @@
       <c r="S10">
         <v>405144</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>3857.0689371874601</v>
+      </c>
+      <c r="X10">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22804,8 +23653,17 @@
       <c r="S11">
         <v>439047</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>5303.6866252485297</v>
+      </c>
+      <c r="X11">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22854,8 +23712,17 @@
       <c r="S12">
         <v>472774</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="V12">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>5293.6417879383298</v>
+      </c>
+      <c r="X12">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22904,8 +23771,17 @@
       <c r="S13">
         <v>546774</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>6966.6468872824598</v>
+      </c>
+      <c r="X13">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22954,8 +23830,17 @@
       <c r="S14">
         <v>580397</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="V14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>6845.9215350873701</v>
+      </c>
+      <c r="X14">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23004,8 +23889,17 @@
       <c r="S15">
         <v>614800</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="V15">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <v>7018.12847845342</v>
+      </c>
+      <c r="X15">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23054,8 +23948,17 @@
       <c r="S16">
         <v>648922</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="V16">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <v>8181.6860914139697</v>
+      </c>
+      <c r="X16">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23104,8 +24007,11 @@
       <c r="S17">
         <v>682968</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="X17">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23154,8 +24060,11 @@
       <c r="S18">
         <v>757829</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="X18">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23204,8 +24113,11 @@
       <c r="S19">
         <v>792311</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="X19">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23254,8 +24166,11 @@
       <c r="S20">
         <v>827491</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="X20">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23304,8 +24219,11 @@
       <c r="S21">
         <v>862169</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="X21">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23354,8 +24272,11 @@
       <c r="S22">
         <v>896714</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="X22">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23404,8 +24325,11 @@
       <c r="S23">
         <v>973434</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="X23">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23454,8 +24378,11 @@
       <c r="S24">
         <v>1008056</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="X24">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23504,8 +24431,11 @@
       <c r="S25">
         <v>1043667</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="X25">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23554,8 +24484,11 @@
       <c r="S26">
         <v>1078794</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="X26">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23604,8 +24537,11 @@
       <c r="S27">
         <v>1113847</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="X27">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23654,8 +24590,11 @@
       <c r="S28">
         <v>1191730</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="X28">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23704,8 +24643,11 @@
       <c r="S29">
         <v>1227077</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="X29">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23754,8 +24696,11 @@
       <c r="S30">
         <v>1263640</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="X30">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23804,8 +24749,11 @@
       <c r="S31">
         <v>1299185</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="X31">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23854,8 +24802,11 @@
       <c r="S32">
         <v>1334958</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="X32">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>32</v>
       </c>
@@ -23904,8 +24855,11 @@
       <c r="S33">
         <v>1413670</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="X33">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>33</v>
       </c>
@@ -23954,8 +24908,11 @@
       <c r="S34">
         <v>1449771</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="X34">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24004,8 +24961,11 @@
       <c r="S35">
         <v>1486580</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="X35">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24054,8 +25014,11 @@
       <c r="S36">
         <v>1522547</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="X36">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24104,8 +25067,11 @@
       <c r="S37">
         <v>1558817</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="X37">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24154,8 +25120,11 @@
       <c r="S38">
         <v>1639286</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="X38">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24204,8 +25173,11 @@
       <c r="S39">
         <v>1675746</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="X39">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24254,8 +25226,11 @@
       <c r="S40">
         <v>1756040</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="X40">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24304,8 +25279,11 @@
       <c r="S41">
         <v>1792471</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="X41">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24354,8 +25332,11 @@
       <c r="S42">
         <v>1873136</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="X42">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24404,8 +25385,11 @@
       <c r="S43">
         <v>1909385</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="X43">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24454,8 +25438,11 @@
       <c r="S44">
         <v>1990794</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="X44">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24504,8 +25491,11 @@
       <c r="S45">
         <v>2027991</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="X45">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24554,8 +25544,11 @@
       <c r="S46">
         <v>2110599</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="X46">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24604,8 +25597,11 @@
       <c r="S47">
         <v>2148677</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="X47">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24654,8 +25650,11 @@
       <c r="S48">
         <v>2232451</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="X48">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>48</v>
       </c>
@@ -24704,8 +25703,11 @@
       <c r="S49">
         <v>2270423</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="X49">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>49</v>
       </c>
@@ -24754,8 +25756,11 @@
       <c r="S50">
         <v>2354939</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="X50">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24804,8 +25809,11 @@
       <c r="S51">
         <v>2392148</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="X51">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>51</v>
       </c>
@@ -24854,8 +25862,11 @@
       <c r="S52">
         <v>2475135</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="X52">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>52</v>
       </c>
@@ -24904,8 +25915,11 @@
       <c r="S53">
         <v>2512227</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="X53">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>53</v>
       </c>
@@ -24954,8 +25968,11 @@
       <c r="S54">
         <v>2595138</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="X54">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>54</v>
       </c>
@@ -25004,8 +26021,11 @@
       <c r="S55">
         <v>2632025</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="X55">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25054,8 +26074,11 @@
       <c r="S56">
         <v>2714287</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="X56">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>56</v>
       </c>
@@ -25104,8 +26127,11 @@
       <c r="S57">
         <v>2751183</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="X57">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>57</v>
       </c>
@@ -25154,8 +26180,11 @@
       <c r="S58">
         <v>2833095</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="X58">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>58</v>
       </c>
@@ -25204,8 +26233,11 @@
       <c r="S59">
         <v>2868935</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="X59">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>59</v>
       </c>
@@ -25254,8 +26286,11 @@
       <c r="S60">
         <v>2949441</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="X60">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>60</v>
       </c>
@@ -25304,8 +26339,11 @@
       <c r="S61">
         <v>2984559</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="X61">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>61</v>
       </c>
@@ -25354,8 +26392,11 @@
       <c r="S62">
         <v>3064639</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="X62">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>62</v>
       </c>
@@ -25393,7 +26434,7 @@
         <v>3099228</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>63</v>
       </c>
@@ -25689,1300 +26730,1858 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:N65"/>
+  <dimension ref="F1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N65"/>
+    <sheetView topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:14">
+    <row r="1" spans="6:19">
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="6:14">
-      <c r="F2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="6:19">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3695.65132983285</v>
+      </c>
+      <c r="H2">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3655.48961692169</v>
+      </c>
+      <c r="K2">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3655.48961692169</v>
+      </c>
+      <c r="N2">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="6:19">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3">
+        <v>3695.6438362367498</v>
+      </c>
+      <c r="H3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J3">
+        <v>3655.48757767795</v>
+      </c>
+      <c r="K3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="6:14">
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3695.65132983285</v>
-      </c>
-      <c r="I3">
-        <v>3655.48961692169</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>3655.48961692169</v>
-      </c>
       <c r="M3">
-        <v>0</v>
+        <v>3655.48757767795</v>
       </c>
       <c r="N3">
-        <v>3695.65132983285</v>
-      </c>
-    </row>
-    <row r="4" spans="6:14">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="6:19">
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>7379.8461265181904</v>
+        <v>1411.70976530232</v>
+      </c>
+      <c r="H4">
+        <v>12.18</v>
       </c>
       <c r="I4">
-        <v>7299.6579488043699</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5331.5041827011</v>
       </c>
       <c r="K4">
-        <v>7299.6579488043699</v>
+        <v>12.18</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>5331.50373383238</v>
       </c>
       <c r="N4">
-        <v>7379.8461265181904</v>
-      </c>
-    </row>
-    <row r="5" spans="6:14">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="5" spans="6:19">
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>11142.994941302</v>
+        <v>1395.1433270462901</v>
+      </c>
+      <c r="H5">
+        <v>12.18</v>
       </c>
       <c r="I5">
-        <v>11023.8296724436</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5266.2701813827698</v>
       </c>
       <c r="K5">
-        <v>11023.8296724436</v>
+        <v>12.18</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>5266.2697380004402</v>
       </c>
       <c r="N5">
-        <v>11142.994941302</v>
-      </c>
-    </row>
-    <row r="6" spans="6:14">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="6" spans="6:19">
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>13547.258164184601</v>
+        <v>1427.1350930722999</v>
+      </c>
+      <c r="H6">
+        <v>12.18</v>
       </c>
       <c r="I6">
-        <v>15590.417630780399</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5348.3494216476302</v>
       </c>
       <c r="K6">
-        <v>15590.417630780399</v>
+        <v>12.18</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5348.3489735068697</v>
       </c>
       <c r="N6">
-        <v>13547.258164184601</v>
-      </c>
-    </row>
-    <row r="7" spans="6:14">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="7" spans="6:19">
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>15858.520211014</v>
+        <v>3344.9788160468802</v>
+      </c>
+      <c r="H7">
+        <v>10.45</v>
       </c>
       <c r="I7">
-        <v>20393.248238876098</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4008.8949346353302</v>
       </c>
       <c r="K7">
-        <v>20393.248238876</v>
+        <v>10.45</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>4008.89457441678</v>
       </c>
       <c r="N7">
-        <v>15858.520211014</v>
-      </c>
-    </row>
-    <row r="8" spans="6:14">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="8" spans="6:19">
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>18377.324891031501</v>
+        <v>3510.8255552116002</v>
+      </c>
+      <c r="H8">
+        <v>10.45</v>
       </c>
       <c r="I8">
-        <v>25088.3343540118</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>3929.0557178873801</v>
       </c>
       <c r="K8">
-        <v>25088.334354011698</v>
+        <v>10.45</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>3929.0553712262599</v>
       </c>
       <c r="N8">
-        <v>18377.324891031501</v>
-      </c>
-    </row>
-    <row r="9" spans="6:14">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19">
       <c r="F9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>21132.207099205902</v>
+        <v>-56.685310289363798</v>
+      </c>
+      <c r="H9">
+        <v>13.62</v>
       </c>
       <c r="I9">
-        <v>29644.520641206</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6596.7770337062102</v>
       </c>
       <c r="K9">
-        <v>29644.520641205901</v>
+        <v>13.62</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>6596.7765046653603</v>
       </c>
       <c r="N9">
-        <v>21132.207099205902</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19">
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>23827.3429242075</v>
+        <v>-311.13804229085798</v>
+      </c>
+      <c r="H10">
+        <v>13.62</v>
       </c>
       <c r="I10">
-        <v>34401.523241736002</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>6633.5289852222104</v>
       </c>
       <c r="K10">
-        <v>34401.5232417359</v>
+        <v>13.62</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>6633.5284428234299</v>
       </c>
       <c r="N10">
-        <v>23827.3429242075</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19">
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>26123.236238363599</v>
+        <v>-320.847132041066</v>
+      </c>
+      <c r="H11">
+        <v>13.62</v>
       </c>
       <c r="I11">
-        <v>39392.126475030302</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>6752.5535262117701</v>
       </c>
       <c r="K11">
-        <v>39392.126475030302</v>
+        <v>13.62</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>6752.5529739372196</v>
       </c>
       <c r="N11">
-        <v>26123.236238363599</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19">
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>28205.7516041079</v>
+        <v>-4983.7624380805901</v>
+      </c>
+      <c r="H12">
+        <v>17.57</v>
       </c>
       <c r="I12">
-        <v>44640.7220960009</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>9988.9907254861791</v>
       </c>
       <c r="K12">
-        <v>44640.722096000798</v>
+        <v>17.57</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>9988.9899509736497</v>
       </c>
       <c r="N12">
-        <v>28205.7516041079</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19">
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>29852.542620537799</v>
+        <v>-5198.9139769195199</v>
+      </c>
+      <c r="H13">
+        <v>17.57</v>
       </c>
       <c r="I13">
-        <v>50173.796946062903</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>10018.3136847201</v>
       </c>
       <c r="K13">
-        <v>50173.796946062801</v>
+        <v>17.57</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>10018.312897694501</v>
       </c>
       <c r="N13">
-        <v>29852.542620537799</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="14" spans="6:19">
       <c r="F14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>30945.213836916701</v>
+        <v>-10312.84940393</v>
+      </c>
+      <c r="H14">
+        <v>21.74</v>
       </c>
       <c r="I14">
-        <v>56140.082527648097</v>
+        <v>15</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>13688.8234635384</v>
       </c>
       <c r="K14">
-        <v>56140.082527648003</v>
+        <v>21.74</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>13688.8224206413</v>
       </c>
       <c r="N14">
-        <v>30945.213836916701</v>
-      </c>
-    </row>
-    <row r="15" spans="6:14">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19">
       <c r="F15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>31460.069705616199</v>
+        <v>-10324.5063924976</v>
+      </c>
+      <c r="H15">
+        <v>21.74</v>
       </c>
       <c r="I15">
-        <v>62672.720018228298</v>
+        <v>16</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>13487.6575236479</v>
       </c>
       <c r="K15">
-        <v>62672.720018228298</v>
+        <v>21.74</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>13487.656486681301</v>
       </c>
       <c r="N15">
-        <v>31460.069705616199</v>
-      </c>
-    </row>
-    <row r="16" spans="6:14">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19">
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>31359.952610258599</v>
+        <v>-10572.7234335911</v>
+      </c>
+      <c r="H16">
+        <v>21.74</v>
       </c>
       <c r="I16">
-        <v>69694.596190323806</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>13807.477067555001</v>
       </c>
       <c r="K16">
-        <v>69694.596190323704</v>
+        <v>21.74</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>13807.476005856</v>
       </c>
       <c r="N16">
-        <v>31359.952610258599</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="17" spans="6:14">
       <c r="F17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>30776.013803985101</v>
+        <v>-14384.6793333479</v>
+      </c>
+      <c r="H17">
+        <v>24.98</v>
       </c>
       <c r="I17">
-        <v>77375.986811065799</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>16395.418649835399</v>
       </c>
       <c r="K17">
-        <v>77375.986811065697</v>
+        <v>24.98</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>16395.417408427798</v>
       </c>
       <c r="N17">
-        <v>30776.013803985101</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="18" spans="6:14">
       <c r="F18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>29687.332496034302</v>
+        <v>-14486.757292099801</v>
+      </c>
+      <c r="H18">
+        <v>24.98</v>
       </c>
       <c r="I18">
-        <v>85479.321541450903</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>16399.3890240484</v>
       </c>
       <c r="K18">
-        <v>85479.321541450699</v>
+        <v>24.98</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>16399.387775523901</v>
       </c>
       <c r="N18">
-        <v>29687.332496034302</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="19" spans="6:14">
       <c r="F19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19">
-        <v>28122.3531570251</v>
+        <v>-14341.021696305999</v>
+      </c>
+      <c r="H19">
+        <v>24.72</v>
       </c>
       <c r="I19">
-        <v>94149.696934473803</v>
+        <v>21</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>16373.469319358001</v>
       </c>
       <c r="K19">
-        <v>94149.696934473599</v>
+        <v>24.72</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>16373.4680710088</v>
       </c>
       <c r="N19">
-        <v>28122.3531570251</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="20" spans="6:14">
       <c r="F20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>26185.766206685301</v>
+        <v>-14330.180047310199</v>
+      </c>
+      <c r="H20">
+        <v>24.72</v>
       </c>
       <c r="I20">
-        <v>103371.230296315</v>
+        <v>22</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>16369.502048435899</v>
       </c>
       <c r="K20">
-        <v>103371.230296315</v>
+        <v>24.72</v>
+      </c>
+      <c r="L20">
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>16369.5008006441</v>
       </c>
       <c r="N20">
-        <v>26185.766206685301</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="21" spans="6:14">
       <c r="F21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>23967.108329845101</v>
+        <v>-14618.5330692282</v>
+      </c>
+      <c r="H21">
+        <v>24.72</v>
       </c>
       <c r="I21">
-        <v>112936.27779586401</v>
+        <v>23</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>16700.309699542999</v>
       </c>
       <c r="K21">
-        <v>112936.27779586401</v>
+        <v>24.72</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>16700.308426310399</v>
       </c>
       <c r="N21">
-        <v>23967.108329845101</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="22" spans="6:14">
       <c r="F22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22">
-        <v>21396.6785568134</v>
+        <v>-17726.789277783999</v>
+      </c>
+      <c r="H22">
+        <v>27.47</v>
       </c>
       <c r="I22">
-        <v>123041.53674581699</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>23</v>
+        <v>18746.695656950698</v>
       </c>
       <c r="K22">
-        <v>123041.53674581699</v>
+        <v>27.47</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>18746.694251720601</v>
       </c>
       <c r="N22">
-        <v>21396.6785568134</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="23" spans="6:14">
       <c r="F23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>18604.843909382202</v>
+        <v>-17851.814220673499</v>
+      </c>
+      <c r="H23">
+        <v>27.47</v>
       </c>
       <c r="I23">
-        <v>133363.593768741</v>
+        <v>25</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>18756.696070520698</v>
       </c>
       <c r="K23">
-        <v>133363.59376873999</v>
+        <v>27.47</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>18756.694656627202</v>
       </c>
       <c r="N23">
-        <v>18604.843909382202</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="24" spans="6:14">
       <c r="F24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <v>15480.8911458694</v>
+        <v>-22109.960697518502</v>
+      </c>
+      <c r="H24">
+        <v>30.64</v>
       </c>
       <c r="I24">
-        <v>144011.26597616001</v>
+        <v>27</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>21859.068760277099</v>
       </c>
       <c r="K24">
-        <v>144011.26597616001</v>
+        <v>30.64</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>21859.067127811399</v>
       </c>
       <c r="N24">
-        <v>15480.8911458694</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="25" spans="6:14">
       <c r="F25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>11830.623279646999</v>
+        <v>-21913.3455550283</v>
+      </c>
+      <c r="H25">
+        <v>30.64</v>
       </c>
       <c r="I25">
-        <v>155276.68552881901</v>
+        <v>28</v>
       </c>
       <c r="J25">
-        <v>27</v>
+        <v>21583.0271552993</v>
       </c>
       <c r="K25">
-        <v>155276.68552881799</v>
+        <v>30.64</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>21583.025529689301</v>
       </c>
       <c r="N25">
-        <v>11830.623279646999</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="26" spans="6:14">
       <c r="F26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>7691.6509829400502</v>
+        <v>-22548.169524731999</v>
+      </c>
+      <c r="H26">
+        <v>30.64</v>
       </c>
       <c r="I26">
-        <v>166870.30991962101</v>
+        <v>29</v>
       </c>
       <c r="J26">
-        <v>28</v>
+        <v>22204.889007416299</v>
       </c>
       <c r="K26">
-        <v>166870.30991962101</v>
+        <v>30.64</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>22204.887335104399</v>
       </c>
       <c r="N26">
-        <v>7691.6509829400502</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="27" spans="6:14">
       <c r="F27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>2902.3080419492799</v>
+        <v>-14628.702318788901</v>
+      </c>
+      <c r="H27">
+        <v>24.46</v>
       </c>
       <c r="I27">
-        <v>179176.18678491199</v>
+        <v>30</v>
       </c>
       <c r="J27">
-        <v>29</v>
+        <v>16590.301586403399</v>
       </c>
       <c r="K27">
-        <v>179176.18678491199</v>
+        <v>24.46</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>16590.300304915399</v>
       </c>
       <c r="N27">
-        <v>2902.3080419492799</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="28" spans="6:14">
       <c r="F28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28">
-        <v>-2298.38644295423</v>
+        <v>-14255.2832712789</v>
+      </c>
+      <c r="H28">
+        <v>24.46</v>
       </c>
       <c r="I28">
-        <v>191571.56886540799</v>
+        <v>31</v>
       </c>
       <c r="J28">
-        <v>30</v>
+        <v>16413.8559471671</v>
       </c>
       <c r="K28">
-        <v>191571.56886540799</v>
+        <v>24.46</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>16413.8546976086</v>
       </c>
       <c r="N28">
-        <v>-2298.38644295423</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="29" spans="6:14">
       <c r="F29">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G29">
-        <v>-7994.3709811932804</v>
+        <v>-18571.400010488502</v>
+      </c>
+      <c r="H29">
+        <v>27.79</v>
       </c>
       <c r="I29">
-        <v>204018.37315934899</v>
+        <v>33</v>
       </c>
       <c r="J29">
-        <v>31</v>
+        <v>19553.690439069698</v>
       </c>
       <c r="K29">
-        <v>204018.37315934899</v>
+        <v>27.79</v>
+      </c>
+      <c r="L29">
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>19553.688973938799</v>
       </c>
       <c r="N29">
-        <v>-7994.3709811932804</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="30" spans="6:14">
       <c r="F30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>-14708.9474599311</v>
+        <v>-18672.959616158802</v>
+      </c>
+      <c r="H30">
+        <v>27.79</v>
       </c>
       <c r="I30">
-        <v>216780.49251143701</v>
+        <v>34</v>
       </c>
       <c r="J30">
-        <v>33</v>
+        <v>19485.6074758752</v>
       </c>
       <c r="K30">
-        <v>216780.49251143701</v>
+        <v>27.79</v>
+      </c>
+      <c r="L30">
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>19485.606004509202</v>
       </c>
       <c r="N30">
-        <v>-14708.9474599311</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="31" spans="6:14">
       <c r="F31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>-22473.355651498201</v>
+        <v>-19310.409871942</v>
+      </c>
+      <c r="H31">
+        <v>27.79</v>
       </c>
       <c r="I31">
-        <v>229701.90762747001</v>
+        <v>35</v>
       </c>
       <c r="J31">
-        <v>34</v>
+        <v>20147.793698613899</v>
       </c>
       <c r="K31">
-        <v>229701.90762747001</v>
+        <v>27.79</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>20147.792176822</v>
       </c>
       <c r="N31">
-        <v>-22473.355651498201</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="32" spans="6:14">
       <c r="F32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>-31585.831248772</v>
+        <v>-20795.550215751198</v>
+      </c>
+      <c r="H32">
+        <v>29.43</v>
       </c>
       <c r="I32">
-        <v>243201.139246673</v>
+        <v>36</v>
       </c>
       <c r="J32">
-        <v>35</v>
+        <v>21007.019636524801</v>
       </c>
       <c r="K32">
-        <v>243201.139246673</v>
+        <v>29.43</v>
+      </c>
+      <c r="L32">
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>21007.018059670601</v>
       </c>
       <c r="N32">
-        <v>-31585.831248772</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="33" spans="6:14">
       <c r="F33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>-41816.169716770397</v>
+        <v>-21027.0372853513</v>
+      </c>
+      <c r="H33">
+        <v>29.43</v>
       </c>
       <c r="I33">
-        <v>256572.197750719</v>
+        <v>37</v>
       </c>
       <c r="J33">
-        <v>36</v>
+        <v>21166.855310424598</v>
       </c>
       <c r="K33">
-        <v>256572.197750719</v>
+        <v>29.43</v>
+      </c>
+      <c r="L33">
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>21166.853716198901</v>
       </c>
       <c r="N33">
-        <v>-41816.169716770397</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="34" spans="6:14">
       <c r="F34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G34">
-        <v>-53479.915524706797</v>
+        <v>-18738.686074465299</v>
+      </c>
+      <c r="H34">
+        <v>27.49</v>
       </c>
       <c r="I34">
-        <v>270194.38172871701</v>
+        <v>39</v>
       </c>
       <c r="J34">
-        <v>37</v>
+        <v>19598.399803108201</v>
       </c>
       <c r="K34">
-        <v>270194.38172871701</v>
+        <v>27.49</v>
+      </c>
+      <c r="L34">
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>19598.3983157027</v>
       </c>
       <c r="N34">
-        <v>-53479.915524706797</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="35" spans="6:14">
       <c r="F35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>-66536.8940010074</v>
+        <v>-18701.063558658399</v>
+      </c>
+      <c r="H35">
+        <v>27.49</v>
       </c>
       <c r="I35">
-        <v>284055.48350034299</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>39</v>
+        <v>19654.674861351799</v>
       </c>
       <c r="K35">
-        <v>284055.48350034299</v>
+        <v>27.49</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>19654.673375489099</v>
       </c>
       <c r="N35">
-        <v>-66536.8940010074</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="36" spans="6:14">
       <c r="F36">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36">
-        <v>-80909.477282258798</v>
+        <v>-19058.5618791409</v>
+      </c>
+      <c r="H36">
+        <v>27.49</v>
       </c>
       <c r="I36">
-        <v>298102.295816964</v>
+        <v>41</v>
       </c>
       <c r="J36">
-        <v>40</v>
+        <v>20033.5069360987</v>
       </c>
       <c r="K36">
-        <v>298102.295816964</v>
+        <v>27.49</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>20033.505421498401</v>
       </c>
       <c r="N36">
-        <v>-80909.477282258798</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="37" spans="6:14">
       <c r="F37">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37">
-        <v>-96614.062167079595</v>
+        <v>-18092.684375376099</v>
+      </c>
+      <c r="H37">
+        <v>27.09</v>
       </c>
       <c r="I37">
-        <v>312586.15660199698</v>
+        <v>42</v>
       </c>
       <c r="J37">
-        <v>41</v>
+        <v>19196.0598218825</v>
       </c>
       <c r="K37">
-        <v>312586.15660199698</v>
+        <v>27.09</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>19196.0583678699</v>
       </c>
       <c r="N37">
-        <v>-96614.062167079595</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="38" spans="6:14">
       <c r="F38">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38">
-        <v>-112894.46359497801</v>
+        <v>-18216.174596371999</v>
+      </c>
+      <c r="H38">
+        <v>27.09</v>
       </c>
       <c r="I38">
-        <v>326844.98159125302</v>
+        <v>43</v>
       </c>
       <c r="J38">
-        <v>42</v>
+        <v>19348.522811955801</v>
       </c>
       <c r="K38">
-        <v>326844.98159125302</v>
+        <v>27.09</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>19348.521347137299</v>
       </c>
       <c r="N38">
-        <v>-112894.46359497801</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="39" spans="6:14">
       <c r="F39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39">
-        <v>-129707.855665275</v>
+        <v>-24799.283019082999</v>
+      </c>
+      <c r="H39">
+        <v>32.04</v>
       </c>
       <c r="I39">
-        <v>341309.93414580199</v>
+        <v>45</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>24033.356645391901</v>
       </c>
       <c r="K39">
-        <v>341309.93414580199</v>
+        <v>32.04</v>
+      </c>
+      <c r="L39">
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>24033.354855525598</v>
       </c>
       <c r="N39">
-        <v>-129707.855665275</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="40" spans="6:14">
       <c r="F40">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40">
-        <v>-147000.746237521</v>
+        <v>-24909.074565595402</v>
+      </c>
+      <c r="H40">
+        <v>32.04</v>
       </c>
       <c r="I40">
-        <v>356182.72409480799</v>
+        <v>46</v>
       </c>
       <c r="J40">
-        <v>45</v>
+        <v>23951.630844200699</v>
       </c>
       <c r="K40">
-        <v>356182.72409480897</v>
+        <v>32.04</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>45</v>
+        <v>23951.6290463105</v>
       </c>
       <c r="N40">
-        <v>-147000.746237521</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="41" spans="6:14">
       <c r="F41">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41">
-        <v>-164469.85029438001</v>
+        <v>-29044.344395613502</v>
+      </c>
+      <c r="H41">
+        <v>35.29</v>
       </c>
       <c r="I41">
-        <v>371152.73160628701</v>
+        <v>48</v>
       </c>
       <c r="J41">
-        <v>46</v>
+        <v>26834.812005570901</v>
       </c>
       <c r="K41">
-        <v>371152.73160628701</v>
+        <v>35.29</v>
+      </c>
+      <c r="L41">
+        <v>48</v>
+      </c>
+      <c r="M41">
+        <v>26834.810007810502</v>
+      </c>
+      <c r="N41">
+        <v>35.29</v>
       </c>
     </row>
     <row r="42" spans="6:14">
       <c r="F42">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42">
-        <v>-181981.945784843</v>
+        <v>-29242.2100284923</v>
+      </c>
+      <c r="H42">
+        <v>35.29</v>
       </c>
       <c r="I42">
-        <v>386402.09906171903</v>
+        <v>49</v>
       </c>
       <c r="J42">
-        <v>48</v>
+        <v>26907.6337869499</v>
       </c>
       <c r="K42">
-        <v>386402.09906171903</v>
+        <v>35.29</v>
+      </c>
+      <c r="L42">
+        <v>49</v>
+      </c>
+      <c r="M42">
+        <v>26907.631774596</v>
+      </c>
+      <c r="N42">
+        <v>35.29</v>
       </c>
     </row>
     <row r="43" spans="6:14">
       <c r="F43">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G43">
-        <v>-199543.259396832</v>
+        <v>-29925.948470741401</v>
+      </c>
+      <c r="H43">
+        <v>35.57</v>
       </c>
       <c r="I43">
-        <v>401884.03041093802</v>
+        <v>51</v>
       </c>
       <c r="J43">
-        <v>49</v>
+        <v>27455.795400118401</v>
       </c>
       <c r="K43">
-        <v>401884.03041093802</v>
+        <v>35.57</v>
+      </c>
+      <c r="L43">
+        <v>51</v>
+      </c>
+      <c r="M43">
+        <v>27455.7933475838</v>
+      </c>
+      <c r="N43">
+        <v>35.57</v>
       </c>
     </row>
     <row r="44" spans="6:14">
       <c r="F44">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>-217227.851626102</v>
+        <v>-29451.307705832802</v>
+      </c>
+      <c r="H44">
+        <v>35.57</v>
       </c>
       <c r="I44">
-        <v>417811.43268141901</v>
+        <v>52</v>
       </c>
       <c r="J44">
-        <v>51</v>
+        <v>27013.530567645499</v>
       </c>
       <c r="K44">
-        <v>417811.43268142</v>
+        <v>35.57</v>
+      </c>
+      <c r="L44">
+        <v>52</v>
+      </c>
+      <c r="M44">
+        <v>27013.528547069898</v>
+      </c>
+      <c r="N44">
+        <v>35.57</v>
       </c>
     </row>
     <row r="45" spans="6:14">
       <c r="F45">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G45">
-        <v>-234600.315874341</v>
+        <v>-27187.223897334901</v>
+      </c>
+      <c r="H45">
+        <v>33.21</v>
       </c>
       <c r="I45">
-        <v>433662.25259828899</v>
+        <v>54</v>
       </c>
       <c r="J45">
-        <v>52</v>
+        <v>25616.118364479898</v>
       </c>
       <c r="K45">
-        <v>433662.25259828899</v>
+        <v>33.21</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>25616.1164367741</v>
+      </c>
+      <c r="N45">
+        <v>33.21</v>
       </c>
     </row>
     <row r="46" spans="6:14">
       <c r="F46">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G46">
-        <v>-252275.583212695</v>
+        <v>-26977.539397795899</v>
+      </c>
+      <c r="H46">
+        <v>33.21</v>
       </c>
       <c r="I46">
-        <v>450174.20068717998</v>
+        <v>55</v>
       </c>
       <c r="J46">
-        <v>54</v>
+        <v>25498.445015538698</v>
       </c>
       <c r="K46">
-        <v>450174.20068717998</v>
+        <v>33.21</v>
+      </c>
+      <c r="L46">
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <v>25498.4431023531</v>
+      </c>
+      <c r="N46">
+        <v>33.21</v>
       </c>
     </row>
     <row r="47" spans="6:14">
       <c r="F47">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G47">
-        <v>-269658.99428038101</v>
+        <v>-30069.3464047218</v>
+      </c>
+      <c r="H47">
+        <v>35.28</v>
       </c>
       <c r="I47">
-        <v>466749.44702776498</v>
+        <v>57</v>
       </c>
       <c r="J47">
-        <v>55</v>
+        <v>27741.031919950601</v>
       </c>
       <c r="K47">
-        <v>466749.44702776498</v>
+        <v>35.28</v>
+      </c>
+      <c r="L47">
+        <v>57</v>
+      </c>
+      <c r="M47">
+        <v>27741.029848674101</v>
+      </c>
+      <c r="N47">
+        <v>35.28</v>
       </c>
     </row>
     <row r="48" spans="6:14">
       <c r="F48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48">
-        <v>-287194.41108804301</v>
+        <v>-30506.4039448738</v>
+      </c>
+      <c r="H48">
+        <v>35.28</v>
       </c>
       <c r="I48">
-        <v>483775.52398867498</v>
+        <v>58</v>
       </c>
       <c r="J48">
-        <v>57</v>
+        <v>28078.9659796415</v>
       </c>
       <c r="K48">
-        <v>483775.52398867498</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11">
+        <v>35.28</v>
+      </c>
+      <c r="L48">
+        <v>58</v>
+      </c>
+      <c r="M48">
+        <v>28078.963877697701</v>
+      </c>
+      <c r="N48">
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="49" spans="6:14">
       <c r="F49">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G49">
-        <v>-304904.03679663601</v>
+        <v>-30482.034539266599</v>
+      </c>
+      <c r="H49">
+        <v>35.32</v>
       </c>
       <c r="I49">
-        <v>501150.31949682999</v>
+        <v>60</v>
       </c>
       <c r="J49">
-        <v>58</v>
+        <v>28048.441872482101</v>
       </c>
       <c r="K49">
-        <v>501150.31949682999</v>
-      </c>
-    </row>
-    <row r="50" spans="6:11">
+        <v>35.32</v>
+      </c>
+      <c r="L49">
+        <v>60</v>
+      </c>
+      <c r="M49">
+        <v>28048.439772252099</v>
+      </c>
+      <c r="N49">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="50" spans="6:14">
       <c r="F50">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G50">
-        <v>-322630.48594605702</v>
+        <v>-30484.200794488501</v>
+      </c>
+      <c r="H50">
+        <v>35.32</v>
       </c>
       <c r="I50">
-        <v>518758.51355916099</v>
+        <v>61</v>
       </c>
       <c r="J50">
-        <v>60</v>
+        <v>28050.430457263301</v>
       </c>
       <c r="K50">
-        <v>518758.51355916099</v>
-      </c>
-    </row>
-    <row r="51" spans="6:11">
+        <v>35.32</v>
+      </c>
+      <c r="L50">
+        <v>61</v>
+      </c>
+      <c r="M50">
+        <v>28050.428356424902</v>
+      </c>
+      <c r="N50">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="51" spans="6:14">
       <c r="F51">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51">
-        <v>-340398.62212343601</v>
+        <v>-35195.059316637999</v>
+      </c>
+      <c r="H51">
+        <v>38.44</v>
       </c>
       <c r="I51">
-        <v>536550.09382952098</v>
+        <v>63</v>
       </c>
       <c r="J51">
-        <v>61</v>
+        <v>31433.781067138301</v>
       </c>
       <c r="K51">
-        <v>536550.09382952005</v>
-      </c>
-    </row>
-    <row r="52" spans="6:11">
+        <v>38.44</v>
+      </c>
+      <c r="L51">
+        <v>63</v>
+      </c>
+      <c r="M51">
+        <v>31433.778727503301</v>
+      </c>
+      <c r="N51">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="52" spans="6:14">
       <c r="F52">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G52">
-        <v>-358498.41961695702</v>
+        <v>-34168.727515186103</v>
+      </c>
+      <c r="H52">
+        <v>38.44</v>
       </c>
       <c r="I52">
-        <v>554784.94751463202</v>
+        <v>64</v>
       </c>
       <c r="J52">
-        <v>63</v>
+        <v>30433.2382503995</v>
       </c>
       <c r="K52">
-        <v>554784.94751463202</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11">
+        <v>38.44</v>
+      </c>
+      <c r="L52">
+        <v>64</v>
+      </c>
+      <c r="M52">
+        <v>30433.235977769102</v>
+      </c>
+      <c r="N52">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="53" spans="6:14">
       <c r="F53">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53">
-        <v>-376311.716799177</v>
+        <v>-31841.940921911901</v>
+      </c>
+      <c r="H53">
+        <v>36.6</v>
       </c>
       <c r="I53">
-        <v>572684.965078081</v>
+        <v>66</v>
       </c>
       <c r="J53">
-        <v>64</v>
+        <v>28835.186507214199</v>
       </c>
       <c r="K53">
-        <v>572684.96507807996</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11">
+        <v>36.6</v>
+      </c>
+      <c r="L53">
+        <v>66</v>
+      </c>
+      <c r="M53">
+        <v>28835.184345438302</v>
+      </c>
+      <c r="N53">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="54" spans="6:14">
       <c r="F54">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G54">
-        <v>-394228.97905414097</v>
+        <v>-31493.029029961199</v>
+      </c>
+      <c r="H54">
+        <v>36.6</v>
       </c>
       <c r="I54">
-        <v>590751.47774216905</v>
+        <v>67</v>
       </c>
       <c r="J54">
-        <v>66</v>
+        <v>28570.908772278501</v>
       </c>
       <c r="K54">
-        <v>590751.477742168</v>
-      </c>
-    </row>
-    <row r="55" spans="6:11">
+        <v>36.6</v>
+      </c>
+      <c r="L54">
+        <v>67</v>
+      </c>
+      <c r="M54">
+        <v>28570.906634158699</v>
+      </c>
+      <c r="N54">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="55" spans="6:14">
       <c r="F55">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G55">
-        <v>-412082.60444644402</v>
+        <v>-32418.530969549101</v>
+      </c>
+      <c r="H55">
+        <v>37.11</v>
       </c>
       <c r="I55">
-        <v>608864.17020889802</v>
+        <v>69</v>
       </c>
       <c r="J55">
-        <v>67</v>
+        <v>29269.4209226573</v>
       </c>
       <c r="K55">
-        <v>608864.17020889698</v>
-      </c>
-    </row>
-    <row r="56" spans="6:11">
+        <v>37.11</v>
+      </c>
+      <c r="L55">
+        <v>69</v>
+      </c>
+      <c r="M55">
+        <v>29269.4187342757</v>
+      </c>
+      <c r="N55">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="56" spans="6:14">
       <c r="F56">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G56">
-        <v>-430173.94544888701</v>
+        <v>-32009.245245932099</v>
+      </c>
+      <c r="H56">
+        <v>37.11</v>
       </c>
       <c r="I56">
-        <v>627285.62457147904</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>69</v>
+        <v>28887.4089616946</v>
       </c>
       <c r="K56">
-        <v>627285.62457147799</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11">
+        <v>37.11</v>
+      </c>
+      <c r="L56">
+        <v>70</v>
+      </c>
+      <c r="M56">
+        <v>28887.406800513301</v>
+      </c>
+      <c r="N56">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="57" spans="6:14">
+      <c r="F57">
+        <v>72</v>
+      </c>
+      <c r="G57">
+        <v>-30310.143320991901</v>
+      </c>
       <c r="H57">
-        <v>70</v>
+        <v>35.74</v>
       </c>
       <c r="I57">
-        <v>645618.38996980898</v>
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>70</v>
+        <v>27727.329744970699</v>
       </c>
       <c r="K57">
-        <v>645618.38996980805</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11">
+        <v>35.74</v>
+      </c>
+      <c r="L57">
+        <v>72</v>
+      </c>
+      <c r="M57">
+        <v>27727.327664316501</v>
+      </c>
+      <c r="N57">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="58" spans="6:14">
+      <c r="F58">
+        <v>73</v>
+      </c>
+      <c r="G58">
+        <v>-30164.201258066401</v>
+      </c>
       <c r="H58">
-        <v>72</v>
+        <v>35.74</v>
       </c>
       <c r="I58">
-        <v>664133.52906700899</v>
+        <v>73</v>
       </c>
       <c r="J58">
-        <v>72</v>
+        <v>27632.759640792101</v>
       </c>
       <c r="K58">
-        <v>664133.52906700899</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11">
+        <v>35.74</v>
+      </c>
+      <c r="L58">
+        <v>73</v>
+      </c>
+      <c r="M58">
+        <v>27632.757569847599</v>
+      </c>
+      <c r="N58">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="59" spans="6:14">
+      <c r="F59">
+        <v>75</v>
+      </c>
+      <c r="G59">
+        <v>-34104.894574746002</v>
+      </c>
       <c r="H59">
-        <v>73</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="I59">
-        <v>682712.74387429398</v>
+        <v>75</v>
       </c>
       <c r="J59">
-        <v>73</v>
+        <v>30368.413549431902</v>
       </c>
       <c r="K59">
-        <v>682712.74387429305</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="L59">
+        <v>75</v>
+      </c>
+      <c r="M59">
+        <v>30368.411286488699</v>
+      </c>
+      <c r="N59">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="6:14">
+      <c r="F60">
+        <v>76</v>
+      </c>
+      <c r="G60">
+        <v>-33315.017573032397</v>
+      </c>
       <c r="H60">
-        <v>75</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="I60">
-        <v>701487.36525202903</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11">
+        <v>76</v>
+      </c>
+      <c r="J60">
+        <v>29593.875951014099</v>
+      </c>
+      <c r="K60">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="L60">
+        <v>76</v>
+      </c>
+      <c r="M60">
+        <v>29593.8737394774</v>
+      </c>
+      <c r="N60">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="6:14">
+      <c r="F61">
+        <v>78</v>
+      </c>
+      <c r="G61">
+        <v>-30292.834340358699</v>
+      </c>
       <c r="H61">
-        <v>76</v>
+        <v>36.25</v>
       </c>
       <c r="I61">
-        <v>719868.19178418699</v>
-      </c>
-    </row>
-    <row r="62" spans="6:11">
+        <v>78</v>
+      </c>
+      <c r="J61">
+        <v>27533.1659432694</v>
+      </c>
+      <c r="K61">
+        <v>36.25</v>
+      </c>
+      <c r="L61">
+        <v>78</v>
+      </c>
+      <c r="M61">
+        <v>27533.163875312701</v>
+      </c>
+      <c r="N61">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="62" spans="6:14">
+      <c r="F62">
+        <v>79</v>
+      </c>
+      <c r="G62">
+        <v>-29426.9237421178</v>
+      </c>
       <c r="H62">
-        <v>78</v>
+        <v>36.25</v>
       </c>
       <c r="I62">
-        <v>738462.55988291104</v>
-      </c>
-    </row>
-    <row r="63" spans="6:11">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>26807.3970752512</v>
+      </c>
+      <c r="K62">
+        <v>36.25</v>
+      </c>
+      <c r="L62">
+        <v>79</v>
+      </c>
+      <c r="M62">
+        <v>26807.395066536399</v>
+      </c>
+      <c r="N62">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="63" spans="6:14">
+      <c r="F63">
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>-26483.028488864202</v>
+      </c>
       <c r="H63">
-        <v>79</v>
+        <v>33.35</v>
       </c>
       <c r="I63">
-        <v>756732.95455184695</v>
-      </c>
-    </row>
-    <row r="64" spans="6:11">
-      <c r="H64">
         <v>81</v>
       </c>
+      <c r="J63">
+        <v>24930.322319000701</v>
+      </c>
+      <c r="K63">
+        <v>33.35</v>
+      </c>
+      <c r="L63">
+        <v>81</v>
+      </c>
+      <c r="M63">
+        <v>24930.320438781298</v>
+      </c>
+      <c r="N63">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="64" spans="6:14">
+      <c r="F64">
+        <v>82</v>
+      </c>
+      <c r="G64">
+        <v>-25261.358162046199</v>
+      </c>
       <c r="I64">
-        <v>775562.21784167003</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9">
-      <c r="H65">
         <v>82</v>
       </c>
-      <c r="I65">
-        <v>793621.55471796298</v>
+      <c r="J64">
+        <v>23851.39082294</v>
+      </c>
+      <c r="L64">
+        <v>82</v>
+      </c>
+      <c r="M64">
+        <v>23851.389029367201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
